--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="168">
   <si>
     <t>Header</t>
   </si>
@@ -1090,6 +1090,12 @@
       </rPr>
       <t xml:space="preserve"> for indicated samples</t>
     </r>
+  </si>
+  <si>
+    <t>pep_len</t>
+  </si>
+  <si>
+    <t>Number of amino acid residues in a peptide sequence</t>
   </si>
 </sst>
 </file>
@@ -1525,11 +1531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1968,187 +1974,195 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" ht="25.5">
+      <c r="A40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="25.5">
-      <c r="A41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="25.5">
+      <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="25.5">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3" ht="25.5">
+      <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>156</v>
+        <v>4</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>159</v>
+        <v>45</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="25.5">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25.5">
+      <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="25.5">
-      <c r="A53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25.5">
       <c r="A54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="25.5">
+      <c r="A55" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B47" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B51" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B48" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2157,11 +2171,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2371,65 +2385,65 @@
     </row>
     <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="25.5">
+      <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="38.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" ht="38.25">
+      <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25.5">
-      <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="38.25">
+    <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5">
+    <row r="23" spans="1:3" ht="38.25">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>104</v>
+        <v>68</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>163</v>
@@ -2437,10 +2451,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>163</v>
@@ -2448,76 +2462,76 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>109</v>
+        <v>70</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>138</v>
@@ -2525,90 +2539,101 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="25.5">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
-      <c r="A36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>164</v>
+      <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="25.5">
+      <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="25.5">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="25.5">
+      <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B34" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B30" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B35" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B31" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2618,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="170">
   <si>
     <t>Header</t>
   </si>
@@ -147,30 +147,12 @@
     <t>Protein sequence coverage</t>
   </si>
   <si>
-    <t>I126 et al.</t>
-  </si>
-  <si>
-    <t>R126 et al.</t>
-  </si>
-  <si>
-    <t>log2_R126 et al.</t>
-  </si>
-  <si>
-    <t>N_log2_R126 et al.</t>
-  </si>
-  <si>
-    <t>sd_log2_R126 et al.</t>
-  </si>
-  <si>
     <t>Linear FC relative to TMT-126</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>The acetylations of protein N-terminals is indicated by '_' and the flanking residues on the N- or C-terminal side of peptides separated by '.', e.g. "-._MASGVAVSDGVIK.V"</t>
-  </si>
-  <si>
     <t>One-letter representation of peptide sequences</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t>The order of "kin_class" from the kinase tree diagram</t>
   </si>
   <si>
-    <t>N_I126 et al.</t>
-  </si>
-  <si>
     <t>The calibration factors for the alignment of log2FC are used to scale the reporter-ion intensity</t>
   </si>
   <si>
@@ -195,9 +174,6 @@
     <t>Reporter-ion intensity from MS/MS ion search</t>
   </si>
   <si>
-    <t>log2FC relative to TMT-126</t>
-  </si>
-  <si>
     <t>Count of PSMs that have significant scores under a proposed protein</t>
   </si>
   <si>
@@ -233,12 +209,6 @@
   </si>
   <si>
     <t>MS file name(s) where peptides or proteins are identified</t>
-  </si>
-  <si>
-    <t>Median-centered log2FC relative to TMT-126</t>
-  </si>
-  <si>
-    <t>E.g. "-._mAsGVAVSDGVIK.V" with a methionine oxidation and a serine phosphorylation</t>
   </si>
   <si>
     <t>pep_calc_mr</t>
@@ -538,15 +508,12 @@
   </si>
   <si>
     <r>
-      <t>Aligned </t>
-    </r>
-    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>log2_R (...)</t>
+      <t>N_log2_R (...)</t>
     </r>
     <r>
       <rPr>
@@ -555,61 +522,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> according to '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_align</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>normPrn()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> without scaling normalization</t>
-    </r>
-  </si>
-  <si>
+      <t> with scaling normalization</t>
+    </r>
+  </si>
+  <si>
+    <t>Mascot; or proteoQ if absent from Mascot PSM exports</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>N_log2_R (...)</t>
+      <t>I... (...)</t>
     </r>
     <r>
       <rPr>
@@ -618,15 +547,48 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> with scaling normalization</t>
-    </r>
-  </si>
-  <si>
-    <t>Mascot; or proteoQ if absent from Mascot PSM exports</t>
-  </si>
-  <si>
-    <r>
-      <t>Normalized </t>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculated from contributing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peptides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> under each sample</t>
+    </r>
+  </si>
+  <si>
+    <t>Cf. Peptide keys</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -647,18 +609,109 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Calculated from contributing </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+    <t>prot_len</t>
+  </si>
+  <si>
+    <t>is_tryptic</t>
+  </si>
+  <si>
+    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users</t>
+  </si>
+  <si>
+    <t>Optional when `pep_start` and `pep_end` are absent from Mascot PSMs</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
+  </si>
+  <si>
+    <r>
+      <t>Joint Mascot `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_sequences_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_sequences`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities</t>
+    </r>
+  </si>
+  <si>
+    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`</t>
+  </si>
+  <si>
+    <r>
+      <t>Optional for UniProt Fasta; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_acc`</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>peptides</t>
+      <t xml:space="preserve"> if the primary one is `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_id`</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`</t>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_len</t>
     </r>
     <r>
       <rPr>
@@ -667,15 +720,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> under each sample</t>
-    </r>
-  </si>
-  <si>
-    <t>Cf. Peptide keys</t>
-  </si>
-  <si>
-    <r>
-      <t>Normalized</t>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
     </r>
     <r>
       <rPr>
@@ -684,7 +734,205 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t>prot_n_psm`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kin_attr`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. PSM keys; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_seq_mod`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. PSM keys; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_seq`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_start`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_rank`</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_len</t>
+  </si>
+  <si>
+    <t>Number of amino acid residues in a peptide sequence</t>
+  </si>
+  <si>
+    <t>log2FC in relative to the average intensity of reference(s) under each multiplex TMT</t>
+  </si>
+  <si>
+    <t>I126 etc.</t>
+  </si>
+  <si>
+    <t>N_I126 etc.</t>
+  </si>
+  <si>
+    <t>sd_log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>R126 etc.</t>
+  </si>
+  <si>
+    <t>log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>N_log2_R126 etc.</t>
+  </si>
+  <si>
+    <r>
+      <t>Joint Mascot `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_matches_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (of shared peptides) are included.</t>
+    </r>
+  </si>
+  <si>
+    <t>See the help `?proteoQ::normPSM` from an R console for nomenclatures. For example,  "-._MASGVAVSDGVIK.V", the acetylations of protein N-terminals is indicated by '_' and the flanking residues on the N- or C-terminal side of peptides separated by '.'</t>
+  </si>
+  <si>
+    <t>See the help `?proteoQ::normPSM` from an R console for nomenclatures; for example, "-._mAsGVAVSDGVIK.V", with a methionine oxidation and a serine phosphorylation</t>
+  </si>
+  <si>
+    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity</t>
+  </si>
+  <si>
+    <t>Median-centered `log2_R...`</t>
+  </si>
+  <si>
+    <t>Relative to the row-mean intensity within each multiplex TMT if no reference(s) are present</t>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_psm_pep`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSM2Pep()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aligned </t>
     </r>
     <r>
       <rPr>
@@ -692,7 +940,7 @@
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>I... (...)</t>
+      <t>log2_R (...)</t>
     </r>
     <r>
       <rPr>
@@ -701,7 +949,92 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t/>
+      <t> according to '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>standPep()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without scaling normalization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_pep_prn`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pep2Prn()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
     </r>
   </si>
   <si>
@@ -750,7 +1083,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>normPep()</t>
+      <t>standPrn()</t>
     </r>
     <r>
       <rPr>
@@ -769,333 +1102,6 @@
       </rPr>
       <t xml:space="preserve"> without scaling normalization</t>
     </r>
-  </si>
-  <si>
-    <t>prot_len</t>
-  </si>
-  <si>
-    <t>is_tryptic</t>
-  </si>
-  <si>
-    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users</t>
-  </si>
-  <si>
-    <t>Optional when `pep_start` and `pep_end` are absent from Mascot PSMs</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
-  </si>
-  <si>
-    <r>
-      <t>Joint Mascot `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_matches_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity are included.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joint Mascot `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_sequences_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_sequences`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities</t>
-    </r>
-  </si>
-  <si>
-    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`</t>
-  </si>
-  <si>
-    <r>
-      <t>Optional for UniProt Fasta; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_acc`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> if the primary one is `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_id`</t>
-    </r>
-  </si>
-  <si>
-    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kin_attr`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_seq_mod`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_seq`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_start`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_rank`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_psm_pep`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>normPep()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_pep_prn`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>normPrn()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_len</t>
-  </si>
-  <si>
-    <t>Number of amino acid residues in a peptide sequence</t>
   </si>
 </sst>
 </file>
@@ -1531,18 +1537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1553,29 +1560,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="25.5">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" ht="25.5">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="7" customFormat="1">
@@ -1586,7 +1593,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1">
@@ -1597,18 +1604,18 @@
         <v>29</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="7" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="7" customFormat="1">
@@ -1619,18 +1626,18 @@
         <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="7" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="7" customFormat="1" ht="38.25">
@@ -1638,21 +1645,21 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="7" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="7" customFormat="1" ht="51">
@@ -1660,21 +1667,21 @@
         <v>33</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="7" customFormat="1" ht="25.5">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="7" customFormat="1">
@@ -1685,18 +1692,18 @@
         <v>35</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="7" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25">
@@ -1704,10 +1711,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5">
@@ -1715,282 +1722,283 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="38.25">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.5">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="25.5">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="25.5">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="25.5">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="38.25">
-      <c r="A20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25.5">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="25.5">
-      <c r="A25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.5">
-      <c r="A27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="25.5">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="38.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="63.75">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25.5">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5">
       <c r="A38" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
@@ -1998,10 +2006,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5">
@@ -2009,7 +2017,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2028,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25.5">
@@ -2036,10 +2044,10 @@
         <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2063,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2074,10 +2082,10 @@
         <v>11</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2085,78 +2093,81 @@
         <v>12</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5">
       <c r="A52" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25.5">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="25.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="25.5">
       <c r="A57" s="3" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>153</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2173,9 +2184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2193,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2204,7 +2215,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2215,7 +2226,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2226,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5">
@@ -2234,10 +2245,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
@@ -2245,21 +2256,21 @@
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2270,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="38.25">
@@ -2278,10 +2289,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -2289,10 +2300,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
@@ -2300,10 +2311,10 @@
         <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5">
@@ -2311,10 +2322,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5">
@@ -2322,164 +2333,164 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="25.5">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.5">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="38.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="38.25">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2503,10 +2514,10 @@
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2531,10 +2542,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2542,10 +2553,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2553,21 +2564,21 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
       <c r="A36" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5">
@@ -2575,10 +2586,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5">
@@ -2586,21 +2597,21 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5">
@@ -2611,7 +2622,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
@@ -2619,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2627,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2643,9 +2654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2683,7 +2694,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2694,7 +2705,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2705,7 +2716,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2716,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="25.5">
@@ -2724,10 +2735,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5">
@@ -2735,21 +2746,21 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -2757,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
@@ -2768,10 +2779,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2788,10 +2799,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2817,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2828,10 +2839,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2839,10 +2850,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5">
@@ -2850,10 +2861,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2861,10 +2872,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2875,7 +2886,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
@@ -2883,7 +2894,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -2892,7 +2903,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="195">
   <si>
     <t>Header</t>
   </si>
@@ -1102,6 +1102,136 @@
       </rPr>
       <t xml:space="preserve"> without scaling normalization</t>
     </r>
+  </si>
+  <si>
+    <t>pep_locprob</t>
+  </si>
+  <si>
+    <t>pep_locdiff</t>
+  </si>
+  <si>
+    <t>The highest probablity from Mascot site analysis for the variable modification sites</t>
+  </si>
+  <si>
+    <r>
+      <t>The second highest probablity, `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_locprob2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`, not shown directly but summarized under `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_locdiff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`; Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pep_var_mod_conf` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>from Mascot</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_mod_protnt</t>
+  </si>
+  <si>
+    <t>pep_mod_protntac</t>
+  </si>
+  <si>
+    <t>pep_mod_pepnt</t>
+  </si>
+  <si>
+    <t>pep_mod_m</t>
+  </si>
+  <si>
+    <t>pep_mod_n</t>
+  </si>
+  <si>
+    <t>pep_mod_sty</t>
+  </si>
+  <si>
+    <t>pep_mod_pepct</t>
+  </si>
+  <si>
+    <t>pep_mod_protctam</t>
+  </si>
+  <si>
+    <t>pep_mod_protct</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains methionine oxidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains asparagine deamidation</t>
+  </si>
+  <si>
+    <t>v.s.</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains N-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence Protein N-terminal modification</t>
+  </si>
+  <si>
+    <t>Cf. `help(normPSM)` from an R console</t>
+  </si>
+  <si>
+    <t>pep_locprob – pep_locprob2</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1255,6 +1385,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1537,11 +1682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1982,198 +2127,219 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="25.5">
+      <c r="A41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="25.5">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" ht="38.25">
       <c r="A42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" ht="25.5">
+      <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="25.5">
-      <c r="A43" s="2" t="s">
+    <row r="45" spans="1:3" ht="25.5">
+      <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.5">
-      <c r="A46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="25.5">
       <c r="A48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>4</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="25.5">
-      <c r="A52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="25.5">
+      <c r="A54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="25.5">
-      <c r="A54" s="3" t="s">
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="25.5">
+      <c r="A56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25.5">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:3" ht="25.5">
+      <c r="A59" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B48" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B53" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B50" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2182,11 +2348,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2482,169 +2648,290 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>99</v>
+        <v>170</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
+      <c r="A28" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A30" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A31" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A32" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A33" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A34" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A35" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A36" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A37" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A38" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="25.5">
-      <c r="A36" s="2" t="s">
+    <row r="47" spans="1:3" ht="25.5">
+      <c r="A47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25.5">
-      <c r="A37" s="3" t="s">
+    <row r="48" spans="1:3" ht="25.5">
+      <c r="A48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25.5">
-      <c r="A38" s="3" t="s">
+    <row r="49" spans="1:3" ht="25.5">
+      <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5">
-      <c r="A40" s="3" t="s">
+    <row r="51" spans="1:3" ht="25.5">
+      <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="25.5">
-      <c r="A41" s="3" t="s">
+    <row r="52" spans="1:3" ht="25.5">
+      <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B31" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B46" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B42" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2654,9 +2941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="208">
   <si>
     <t>Header</t>
   </si>
@@ -530,7 +530,43 @@
   </si>
   <si>
     <r>
-      <t>Normalized </t>
+      <t xml:space="preserve">Calculated from contributing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peptides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> under each sample</t>
+    </r>
+  </si>
+  <si>
+    <t>Cf. Peptide keys</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -551,18 +587,109 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Calculated from contributing </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+    <t>prot_len</t>
+  </si>
+  <si>
+    <t>is_tryptic</t>
+  </si>
+  <si>
+    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users</t>
+  </si>
+  <si>
+    <t>Optional when `pep_start` and `pep_end` are absent from Mascot PSMs</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
+  </si>
+  <si>
+    <r>
+      <t>Joint Mascot `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_sequences_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_sequences`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities</t>
+    </r>
+  </si>
+  <si>
+    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`</t>
+  </si>
+  <si>
+    <r>
+      <t>Optional for UniProt Fasta; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_acc`</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>peptides</t>
+      <t xml:space="preserve"> if the primary one is `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_id`</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`</t>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_len</t>
     </r>
     <r>
       <rPr>
@@ -571,15 +698,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> under each sample</t>
-    </r>
-  </si>
-  <si>
-    <t>Cf. Peptide keys</t>
-  </si>
-  <si>
-    <r>
-      <t>Normalized</t>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
     </r>
     <r>
       <rPr>
@@ -588,7 +712,246 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t>prot_n_psm`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kin_attr`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. PSM keys; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_seq_mod`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. PSM keys; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_seq`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_start`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_rank`</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_len</t>
+  </si>
+  <si>
+    <t>Number of amino acid residues in a peptide sequence</t>
+  </si>
+  <si>
+    <t>log2FC in relative to the average intensity of reference(s) under each multiplex TMT</t>
+  </si>
+  <si>
+    <t>I126 etc.</t>
+  </si>
+  <si>
+    <t>N_I126 etc.</t>
+  </si>
+  <si>
+    <t>sd_log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>R126 etc.</t>
+  </si>
+  <si>
+    <t>log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>N_log2_R126 etc.</t>
+  </si>
+  <si>
+    <r>
+      <t>Joint Mascot `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_matches_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (of shared peptides) are included.</t>
+    </r>
+  </si>
+  <si>
+    <t>See the help `?proteoQ::normPSM` from an R console for nomenclatures. For example,  "-._MASGVAVSDGVIK.V", the acetylations of protein N-terminals is indicated by '_' and the flanking residues on the N- or C-terminal side of peptides separated by '.'</t>
+  </si>
+  <si>
+    <t>See the help `?proteoQ::normPSM` from an R console for nomenclatures; for example, "-._mAsGVAVSDGVIK.V", with a methionine oxidation and a serine phosphorylation</t>
+  </si>
+  <si>
+    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity</t>
+  </si>
+  <si>
+    <t>Median-centered `log2_R...`</t>
+  </si>
+  <si>
+    <t>Relative to the row-mean intensity within each multiplex TMT if no reference(s) are present</t>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_psm_pep`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSM2Pep()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_pep_prn`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pep2Prn()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aligned </t>
     </r>
     <r>
       <rPr>
@@ -596,6 +959,215 @@
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
+      <t>log2_R (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> according to '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>standPrn()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without scaling normalization</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_locprob</t>
+  </si>
+  <si>
+    <t>pep_locdiff</t>
+  </si>
+  <si>
+    <t>The highest probablity from Mascot site analysis for the variable modification sites</t>
+  </si>
+  <si>
+    <r>
+      <t>The second highest probablity, `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_locprob2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`, not shown directly but summarized under `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_locdiff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`; Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pep_var_mod_conf` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>from Mascot</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_mod_protnt</t>
+  </si>
+  <si>
+    <t>pep_mod_protntac</t>
+  </si>
+  <si>
+    <t>pep_mod_pepnt</t>
+  </si>
+  <si>
+    <t>pep_mod_m</t>
+  </si>
+  <si>
+    <t>pep_mod_n</t>
+  </si>
+  <si>
+    <t>pep_mod_sty</t>
+  </si>
+  <si>
+    <t>pep_mod_pepct</t>
+  </si>
+  <si>
+    <t>pep_mod_protctam</t>
+  </si>
+  <si>
+    <t>pep_mod_protct</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains methionine oxidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains asparagine deamidation</t>
+  </si>
+  <si>
+    <t>v.s.</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains N-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence Protein N-terminal modification</t>
+  </si>
+  <si>
+    <t>Cf. `help(normPSM)` from an R console</t>
+  </si>
+  <si>
+    <t>pep_locprob – pep_locprob2</t>
+  </si>
+  <si>
+    <t>pep_mean_raw</t>
+  </si>
+  <si>
+    <t>pep_mean_n</t>
+  </si>
+  <si>
+    <t>pep_mean_z</t>
+  </si>
+  <si>
+    <t>log2FC relative to reference materials for indicated samples</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>I... (...)</t>
     </r>
     <r>
@@ -609,23 +1181,8 @@
     </r>
   </si>
   <si>
-    <t>prot_len</t>
-  </si>
-  <si>
-    <t>is_tryptic</t>
-  </si>
-  <si>
-    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users</t>
-  </si>
-  <si>
-    <t>Optional when `pep_start` and `pep_end` are absent from Mascot PSMs</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
-  </si>
-  <si>
-    <r>
-      <t>Joint Mascot `</t>
+    <r>
+      <t>Aligned </t>
     </r>
     <r>
       <rPr>
@@ -634,15 +1191,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>prot_sequences_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
+      <t>log2_R (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> according to '</t>
     </r>
     <r>
       <rPr>
@@ -651,23 +1209,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>prot_sequences`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities</t>
-    </r>
-  </si>
-  <si>
-    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`</t>
-  </si>
-  <si>
-    <r>
-      <t>Optional for UniProt Fasta; the key will become `</t>
+      <t>method_align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in '</t>
     </r>
     <r>
       <rPr>
@@ -676,17 +1227,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>uniprot_acc`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> if the primary one is `</t>
-    </r>
+      <t>standPep()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without scaling normalization</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -694,75 +1255,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>uniprot_id`</t>
-    </r>
-  </si>
-  <si>
-    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kin_attr`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_seq_mod`</t>
+      <t>N_log2_R (...)</t>
     </r>
     <r>
       <rPr>
@@ -771,467 +1264,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_seq`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_start`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_rank`</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_len</t>
-  </si>
-  <si>
-    <t>Number of amino acid residues in a peptide sequence</t>
-  </si>
-  <si>
-    <t>log2FC in relative to the average intensity of reference(s) under each multiplex TMT</t>
-  </si>
-  <si>
-    <t>I126 etc.</t>
-  </si>
-  <si>
-    <t>N_I126 etc.</t>
-  </si>
-  <si>
-    <t>sd_log2_R126 etc.</t>
-  </si>
-  <si>
-    <t>R126 etc.</t>
-  </si>
-  <si>
-    <t>log2_R126 etc.</t>
-  </si>
-  <si>
-    <t>N_log2_R126 etc.</t>
-  </si>
-  <si>
-    <r>
-      <t>Joint Mascot `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_matches_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (of shared peptides) are included.</t>
-    </r>
-  </si>
-  <si>
-    <t>See the help `?proteoQ::normPSM` from an R console for nomenclatures. For example,  "-._MASGVAVSDGVIK.V", the acetylations of protein N-terminals is indicated by '_' and the flanking residues on the N- or C-terminal side of peptides separated by '.'</t>
-  </si>
-  <si>
-    <t>See the help `?proteoQ::normPSM` from an R console for nomenclatures; for example, "-._mAsGVAVSDGVIK.V", with a methionine oxidation and a serine phosphorylation</t>
-  </si>
-  <si>
-    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity</t>
-  </si>
-  <si>
-    <t>Median-centered `log2_R...`</t>
-  </si>
-  <si>
-    <t>Relative to the row-mean intensity within each multiplex TMT if no reference(s) are present</t>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_psm_pep`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PSM2Pep()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Aligned </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>log2_R (...)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> according to '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_align</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>standPep()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> without scaling normalization</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_pep_prn`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pep2Prn()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Aligned </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>log2_R (...)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> according to '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_align</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>standPrn()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> without scaling normalization</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_locprob</t>
-  </si>
-  <si>
-    <t>pep_locdiff</t>
-  </si>
-  <si>
-    <t>The highest probablity from Mascot site analysis for the variable modification sites</t>
-  </si>
-  <si>
-    <r>
-      <t>The second highest probablity, `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_locprob2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`, not shown directly but summarized under `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_locdiff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`; Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pep_var_mod_conf` </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>from Mascot</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_mod_protnt</t>
-  </si>
-  <si>
-    <t>pep_mod_protntac</t>
-  </si>
-  <si>
-    <t>pep_mod_pepnt</t>
-  </si>
-  <si>
-    <t>pep_mod_m</t>
-  </si>
-  <si>
-    <t>pep_mod_n</t>
-  </si>
-  <si>
-    <t>pep_mod_sty</t>
-  </si>
-  <si>
-    <t>pep_mod_pepct</t>
-  </si>
-  <si>
-    <t>pep_mod_protctam</t>
-  </si>
-  <si>
-    <t>pep_mod_protct</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains methionine oxidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains asparagine deamidation</t>
-  </si>
-  <si>
-    <t>v.s.</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains C-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains N-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence Protein N-terminal modification</t>
-  </si>
-  <si>
-    <t>Cf. `help(normPSM)` from an R console</t>
-  </si>
-  <si>
-    <t>pep_locprob – pep_locprob2</t>
+      <t> with scaling normalization</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample selection vai `standPep(col_select = ...)`</t>
+  </si>
+  <si>
+    <t>Mean log2_R (...) across selected samples</t>
+  </si>
+  <si>
+    <t>Mean N_log2FC(...) across selected samples</t>
+  </si>
+  <si>
+    <t>Mean Z_log2FC(...) across selected samples</t>
+  </si>
+  <si>
+    <t>prot_mean_raw</t>
+  </si>
+  <si>
+    <t>prot_mean_n</t>
+  </si>
+  <si>
+    <t>prot_mean_z</t>
+  </si>
+  <si>
+    <t>Sample selection vai `standPrn(col_select = ...)`</t>
   </si>
 </sst>
 </file>
@@ -1355,9 +1413,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1398,7 +1453,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1708,146 +1766,146 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="25.5">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="25.5">
+      <c r="C2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1">
+      <c r="C3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1">
+      <c r="C4" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1">
+      <c r="C5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1">
+      <c r="C6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1">
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="38.25">
+      <c r="C8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1">
+      <c r="C9" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="51">
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="51">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="25.5">
+      <c r="C11" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="7" customFormat="1">
+    <row r="13" spans="1:3" s="6" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="7" customFormat="1">
+    <row r="14" spans="1:3" s="6" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1855,10 +1913,10 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1866,30 +1924,30 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>145</v>
+      <c r="C16" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1900,7 +1958,7 @@
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1911,7 +1969,7 @@
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1922,7 +1980,7 @@
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1933,7 +1991,7 @@
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1944,7 +2002,7 @@
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1955,7 +2013,7 @@
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1966,7 +2024,7 @@
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1977,7 +2035,7 @@
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1988,29 +2046,29 @@
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2021,7 +2079,7 @@
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2032,7 +2090,7 @@
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2043,7 +2101,7 @@
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2054,18 +2112,18 @@
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>161</v>
+      <c r="C33" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2076,7 +2134,7 @@
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2087,7 +2145,7 @@
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2098,7 +2156,7 @@
       <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2109,7 +2167,7 @@
       <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2120,7 +2178,7 @@
       <c r="A39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2131,58 +2189,58 @@
       <c r="A40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" ht="38.25">
       <c r="A42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" ht="25.5">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25.5">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2190,7 +2248,7 @@
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2198,11 +2256,11 @@
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5">
@@ -2213,14 +2271,14 @@
         <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2228,7 +2286,7 @@
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2236,49 +2294,49 @@
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>143</v>
+      <c r="C51" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25.5">
       <c r="A54" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>44</v>
@@ -2289,18 +2347,18 @@
     </row>
     <row r="56" spans="1:3" ht="25.5">
       <c r="A56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>121</v>
@@ -2311,7 +2369,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>36</v>
@@ -2319,21 +2377,21 @@
     </row>
     <row r="59" spans="1:3" ht="25.5">
       <c r="A59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2348,16 +2406,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.85546875" style="2" customWidth="1"/>
   </cols>
@@ -2377,10 +2435,10 @@
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2388,10 +2446,10 @@
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2399,10 +2457,10 @@
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2430,7 +2488,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>50</v>
@@ -2443,7 +2501,7 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2454,22 +2512,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
@@ -2480,18 +2538,18 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5">
@@ -2502,14 +2560,14 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2520,7 +2578,7 @@
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2531,7 +2589,7 @@
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2546,14 +2604,14 @@
         <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2562,10 +2620,10 @@
     </row>
     <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>128</v>
@@ -2575,7 +2633,7 @@
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2590,7 +2648,7 @@
         <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
@@ -2601,7 +2659,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="38.25">
@@ -2612,7 +2670,7 @@
         <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5">
@@ -2623,50 +2681,50 @@
         <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="A28" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2674,162 +2732,167 @@
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A30" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A31" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A32" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="B32" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A33" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A34" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A35" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A36" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A37" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A38" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="14" customFormat="1">
+      <c r="A39" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A31" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="B39" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1">
+      <c r="A40" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A32" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A33" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A34" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A35" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A36" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A37" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="15" customFormat="1" ht="30">
-      <c r="A38" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>128</v>
+    </row>
+    <row r="41" spans="1:3" s="14" customFormat="1">
+      <c r="A41" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>128</v>
@@ -2837,120 +2900,149 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="25.5">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="25.5">
-      <c r="A48" s="3" t="s">
-        <v>20</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="25.5">
-      <c r="A49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="25.5">
+      <c r="A50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25.5">
       <c r="A51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5">
       <c r="A52" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>167</v>
+        <v>197</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="25.5">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="25.5">
+      <c r="A55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>129</v>
+      <c r="B56" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B46" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B42" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B49" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B45" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2977,7 +3069,7 @@
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2988,10 +3080,10 @@
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2999,10 +3091,10 @@
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3010,10 +3102,10 @@
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3041,7 +3133,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>50</v>
@@ -3054,68 +3146,72 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>128</v>
@@ -3123,81 +3219,110 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>133</v>
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25.5">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B18" r:id="rId2" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B17" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B21" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="207">
   <si>
     <t>Header</t>
   </si>
@@ -1268,18 +1268,6 @@
     </r>
   </si>
   <si>
-    <t>Sample selection vai `standPep(col_select = ...)`</t>
-  </si>
-  <si>
-    <t>Mean log2_R (...) across selected samples</t>
-  </si>
-  <si>
-    <t>Mean N_log2FC(...) across selected samples</t>
-  </si>
-  <si>
-    <t>Mean Z_log2FC(...) across selected samples</t>
-  </si>
-  <si>
     <t>prot_mean_raw</t>
   </si>
   <si>
@@ -1289,7 +1277,16 @@
     <t>prot_mean_z</t>
   </si>
   <si>
-    <t>Sample selection vai `standPrn(col_select = ...)`</t>
+    <t>Mean log2_R (...) across samples</t>
+  </si>
+  <si>
+    <t>Mean N_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Mean Z_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Reference and `Empty` samples excluded.</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1740,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -2410,7 +2407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:C41"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2843,10 +2840,10 @@
         <v>193</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="14" customFormat="1">
@@ -2854,7 +2851,7 @@
         <v>194</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>184</v>
@@ -2865,7 +2862,7 @@
         <v>195</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>184</v>
@@ -3166,21 +3163,21 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>184</v>
@@ -3188,10 +3185,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>184</v>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="211">
   <si>
     <t>Header</t>
   </si>
@@ -1287,6 +1287,18 @@
   </si>
   <si>
     <t>Reference and `Empty` samples excluded.</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpsm</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpep</t>
+  </si>
+  <si>
+    <t>Count of unique, significant PSMs in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <t>Count of unique, significant peptide sequences in quantitation under a proposed protein</t>
   </si>
 </sst>
 </file>
@@ -3028,11 +3040,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3152,174 +3164,192 @@
     </row>
     <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="25.5">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>184</v>
-      </c>
+    <row r="13" spans="1:3" ht="25.5">
+      <c r="A13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25.5">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>166</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="25.5">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="25.5">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="25.5">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B21" r:id="rId2" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B19" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B23" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A323DB-0BB2-4C35-97A4-7337D6E2AE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52EF44F-5DF1-47CD-A12E-2326E9ECFA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="219">
   <si>
     <t>Header</t>
   </si>
@@ -95,11 +95,67 @@
     <t>N_I... (...)</t>
   </si>
   <si>
-    <t>log2_R (...)</t>
-  </si>
-  <si>
-    <r>
-      <t>log2FC</t>
+    <t>prot_acc</t>
+  </si>
+  <si>
+    <t>Protein accession string</t>
+  </si>
+  <si>
+    <t>prot_desc</t>
+  </si>
+  <si>
+    <t>Protein description taken from Fasta title line</t>
+  </si>
+  <si>
+    <t>prot_mass</t>
+  </si>
+  <si>
+    <t>Protein mass</t>
+  </si>
+  <si>
+    <t>prot_matches_sig</t>
+  </si>
+  <si>
+    <t>prot_sequences_sig</t>
+  </si>
+  <si>
+    <t>pep_seq</t>
+  </si>
+  <si>
+    <t>Protein sequence coverage</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>The attribute of proteins being kinases</t>
+  </si>
+  <si>
+    <t>The classes of kinases, e.g., TK, TKL...</t>
+  </si>
+  <si>
+    <t>The order of "kin_class" from the kinase tree diagram</t>
+  </si>
+  <si>
+    <t>Count of PSMs that have significant scores under a proposed protein</t>
+  </si>
+  <si>
+    <t>Count of distinct sequences that have significant scores under a proposed protein</t>
+  </si>
+  <si>
+    <t>Count of significant PSMs in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <t>Count of significant peptide sequences in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Counts of significant PSMs in</t>
     </r>
     <r>
       <rPr>
@@ -108,86 +164,204 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> relative to reference materials for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <t>N_log2_R (...)</t>
-  </si>
-  <si>
-    <t>Z_log2_R (...)</t>
-  </si>
-  <si>
-    <t>prot_acc</t>
-  </si>
-  <si>
-    <t>Protein accession string</t>
-  </si>
-  <si>
-    <t>prot_desc</t>
-  </si>
-  <si>
-    <t>Protein description taken from Fasta title line</t>
-  </si>
-  <si>
-    <t>prot_mass</t>
-  </si>
-  <si>
-    <t>Protein mass</t>
-  </si>
-  <si>
-    <t>prot_matches_sig</t>
-  </si>
-  <si>
-    <t>prot_sequences_sig</t>
-  </si>
-  <si>
-    <t>pep_seq</t>
-  </si>
-  <si>
-    <t>Protein sequence coverage</t>
-  </si>
-  <si>
-    <t>Linear FC relative to TMT-126</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>The attribute of proteins being kinases</t>
-  </si>
-  <si>
-    <t>The classes of kinases, e.g., TK, TKL...</t>
-  </si>
-  <si>
-    <t>The order of "kin_class" from the kinase tree diagram</t>
-  </si>
-  <si>
-    <t>Normalized reporter-ion intensity</t>
-  </si>
-  <si>
-    <t>Reporter-ion intensity from MS/MS ion search</t>
-  </si>
-  <si>
-    <t>Count of PSMs that have significant scores under a proposed protein</t>
-  </si>
-  <si>
-    <t>Count of distinct sequences that have significant scores under a proposed protein</t>
-  </si>
-  <si>
-    <t>Count of significant PSMs in quantitation under a proposed protein</t>
-  </si>
-  <si>
-    <t>Count of significant peptide sequences in quantitation under a proposed protein</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Counts of significant PSMs in</t>
+      <t xml:space="preserve"> quantitation under a proposed peptide</t>
+    </r>
+  </si>
+  <si>
+    <t>The number of amino acid residues under a proposed protein</t>
+  </si>
+  <si>
+    <t>MS file name(s) where peptides or proteins are identified</t>
+  </si>
+  <si>
+    <t>pep_calc_mr</t>
+  </si>
+  <si>
+    <t>pep_rank</t>
+  </si>
+  <si>
+    <t>pep_isbold</t>
+  </si>
+  <si>
+    <t>pep_exp_mz</t>
+  </si>
+  <si>
+    <t>pep_exp_mr</t>
+  </si>
+  <si>
+    <t>pep_exp_z</t>
+  </si>
+  <si>
+    <t>pep_delta</t>
+  </si>
+  <si>
+    <t>pep_score</t>
+  </si>
+  <si>
+    <t>pep_expect</t>
+  </si>
+  <si>
+    <t>pep_isunique</t>
+  </si>
+  <si>
+    <t>pep_start</t>
+  </si>
+  <si>
+    <t>pep_end</t>
+  </si>
+  <si>
+    <t>pep_miss</t>
+  </si>
+  <si>
+    <t>Mascot: ordinal position of last peptide residue in protein sequence</t>
+  </si>
+  <si>
+    <t>Uniprot ID</t>
+  </si>
+  <si>
+    <t>prot_hit_num</t>
+  </si>
+  <si>
+    <t>prot_family_member</t>
+  </si>
+  <si>
+    <t>prot_score</t>
+  </si>
+  <si>
+    <t>Ordinal number of the protein hit (or protein family when grouping enabled)</t>
+  </si>
+  <si>
+    <t>Ordinal number of the protein family member when grouping enabled</t>
+  </si>
+  <si>
+    <t>Protein Mascot score</t>
+  </si>
+  <si>
+    <t>prot_matches</t>
+  </si>
+  <si>
+    <t>Count of PSMs</t>
+  </si>
+  <si>
+    <t>prot_sequences</t>
+  </si>
+  <si>
+    <t>Count of distinct sequences</t>
+  </si>
+  <si>
+    <t>pep_query</t>
+  </si>
+  <si>
+    <t>Ordinal number of query after sorting by Mr</t>
+  </si>
+  <si>
+    <t>Peptide sequence match (PSM) rank. If two PSMs have same score they have the same rank.</t>
+  </si>
+  <si>
+    <t>If grouping enabled, then a significant PSM. Otherwise, indicates this is the highest scoring protein that contains a match to this query.</t>
+  </si>
+  <si>
+    <t>Observed or experimental m/z value</t>
+  </si>
+  <si>
+    <t>Molecular mass calculated from experimental m/z value</t>
+  </si>
+  <si>
+    <t>Observed or experimental charge</t>
+  </si>
+  <si>
+    <t>Molecular mass calculated from matched peptide sequence</t>
+  </si>
+  <si>
+    <t>pep_exp_mr – pep_calc_mr</t>
+  </si>
+  <si>
+    <t>Ordinal position of first peptide residue in protein sequence</t>
+  </si>
+  <si>
+    <t>Ordinal position of last peptide residue in protein sequence</t>
+  </si>
+  <si>
+    <t>Count of missed cleavage sites in peptide</t>
+  </si>
+  <si>
+    <t>pep_res_before</t>
+  </si>
+  <si>
+    <t>Flanking residue on N-term side of peptide</t>
+  </si>
+  <si>
+    <t>pep_res_after</t>
+  </si>
+  <si>
+    <t>Flanking residue on C-term side of peptide</t>
+  </si>
+  <si>
+    <t>pep_var_mod</t>
+  </si>
+  <si>
+    <t>pep_var_mod_pos</t>
+  </si>
+  <si>
+    <t>pep_summed_mod_pos</t>
+  </si>
+  <si>
+    <t>pep_local_mod_pos</t>
+  </si>
+  <si>
+    <t>pep_scan_title</t>
+  </si>
+  <si>
+    <t>Variable modifications from all sources as list of names</t>
+  </si>
+  <si>
+    <t>Variable modifications as a string of digits, e.g. ’0.0001000.0′. Non-zero digits identify mods according to key in export header. First and last positions are for terminus mods.</t>
+  </si>
+  <si>
+    <t>When two variable modifications occur at the same site, a string of digits defining the second mod</t>
+  </si>
+  <si>
+    <t>Query-level variable modifications as a string of digits. The names of the mods will be listed in pep_var_mod</t>
+  </si>
+  <si>
+    <t>Scan title taken from peak list</t>
+  </si>
+  <si>
+    <t>Counts of significant PSMs in quantitation under a proposed peptide</t>
+  </si>
+  <si>
+    <t>prot_...</t>
+  </si>
+  <si>
+    <t>pep_...</t>
+  </si>
+  <si>
+    <t>Cf. PSM keys</t>
+  </si>
+  <si>
+    <t>Cf. Peptide keys</t>
+  </si>
+  <si>
+    <t>prot_len</t>
+  </si>
+  <si>
+    <t>is_tryptic</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
+  </si>
+  <si>
+    <r>
+      <t>Cf. PSM keys; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_seq_mod`</t>
     </r>
     <r>
       <rPr>
@@ -196,185 +370,693 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> quantitation under a proposed peptide</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of amino acid residues under a proposed protein</t>
-  </si>
-  <si>
-    <t>MS file name(s) where peptides or proteins are identified</t>
-  </si>
-  <si>
-    <t>pep_calc_mr</t>
-  </si>
-  <si>
-    <t>pep_rank</t>
-  </si>
-  <si>
-    <t>pep_isbold</t>
-  </si>
-  <si>
-    <t>pep_exp_mz</t>
-  </si>
-  <si>
-    <t>pep_exp_mr</t>
-  </si>
-  <si>
-    <t>pep_exp_z</t>
-  </si>
-  <si>
-    <t>pep_delta</t>
-  </si>
-  <si>
-    <t>pep_score</t>
-  </si>
-  <si>
-    <t>pep_expect</t>
-  </si>
-  <si>
-    <t>pep_isunique</t>
-  </si>
-  <si>
-    <t>pep_start</t>
-  </si>
-  <si>
-    <t>pep_end</t>
-  </si>
-  <si>
-    <t>pep_miss</t>
-  </si>
-  <si>
-    <t>Mascot: ordinal position of last peptide residue in protein sequence</t>
-  </si>
-  <si>
-    <t>Uniprot ID</t>
-  </si>
-  <si>
-    <t>Reporter-ion intensity</t>
-  </si>
-  <si>
-    <t>sd_log2_R (...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation of protein log2FC </t>
-  </si>
-  <si>
-    <t>prot_hit_num</t>
-  </si>
-  <si>
-    <t>prot_family_member</t>
-  </si>
-  <si>
-    <t>prot_score</t>
-  </si>
-  <si>
-    <t>Ordinal number of the protein hit (or protein family when grouping enabled)</t>
-  </si>
-  <si>
-    <t>Ordinal number of the protein family member when grouping enabled</t>
-  </si>
-  <si>
-    <t>Protein Mascot score</t>
-  </si>
-  <si>
-    <t>prot_matches</t>
-  </si>
-  <si>
-    <t>Count of PSMs</t>
-  </si>
-  <si>
-    <t>prot_sequences</t>
-  </si>
-  <si>
-    <t>Count of distinct sequences</t>
-  </si>
-  <si>
-    <t>pep_query</t>
-  </si>
-  <si>
-    <t>Ordinal number of query after sorting by Mr</t>
-  </si>
-  <si>
-    <t>Peptide sequence match (PSM) rank. If two PSMs have same score they have the same rank.</t>
-  </si>
-  <si>
-    <t>If grouping enabled, then a significant PSM. Otherwise, indicates this is the highest scoring protein that contains a match to this query.</t>
-  </si>
-  <si>
-    <t>Observed or experimental m/z value</t>
-  </si>
-  <si>
-    <t>Molecular mass calculated from experimental m/z value</t>
-  </si>
-  <si>
-    <t>Observed or experimental charge</t>
-  </si>
-  <si>
-    <t>Molecular mass calculated from matched peptide sequence</t>
-  </si>
-  <si>
-    <t>pep_exp_mr – pep_calc_mr</t>
-  </si>
-  <si>
-    <t>Ordinal position of first peptide residue in protein sequence</t>
-  </si>
-  <si>
-    <t>Ordinal position of last peptide residue in protein sequence</t>
-  </si>
-  <si>
-    <t>Count of missed cleavage sites in peptide</t>
-  </si>
-  <si>
-    <t>pep_res_before</t>
-  </si>
-  <si>
-    <t>Flanking residue on N-term side of peptide</t>
-  </si>
-  <si>
-    <t>pep_res_after</t>
-  </si>
-  <si>
-    <t>Flanking residue on C-term side of peptide</t>
-  </si>
-  <si>
-    <t>pep_var_mod</t>
-  </si>
-  <si>
-    <t>pep_var_mod_pos</t>
-  </si>
-  <si>
-    <t>pep_summed_mod_pos</t>
-  </si>
-  <si>
-    <t>pep_local_mod_pos</t>
-  </si>
-  <si>
-    <t>pep_scan_title</t>
-  </si>
-  <si>
-    <t>Variable modifications from all sources as list of names</t>
-  </si>
-  <si>
-    <t>Variable modifications as a string of digits, e.g. ’0.0001000.0′. Non-zero digits identify mods according to key in export header. First and last positions are for terminus mods.</t>
-  </si>
-  <si>
-    <t>When two variable modifications occur at the same site, a string of digits defining the second mod</t>
-  </si>
-  <si>
-    <t>Query-level variable modifications as a string of digits. The names of the mods will be listed in pep_var_mod</t>
-  </si>
-  <si>
-    <t>Scan title taken from peak list</t>
-  </si>
-  <si>
-    <t>Counts of significant PSMs in quantitation under a proposed peptide</t>
-  </si>
-  <si>
-    <t>prot_...</t>
-  </si>
-  <si>
-    <t>pep_...</t>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. PSM keys; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_seq`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_len</t>
+  </si>
+  <si>
+    <t>Number of amino acid residues in a peptide sequence</t>
+  </si>
+  <si>
+    <t>I126 etc.</t>
+  </si>
+  <si>
+    <t>N_I126 etc.</t>
+  </si>
+  <si>
+    <t>sd_log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>R126 etc.</t>
+  </si>
+  <si>
+    <t>log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>N_log2_R126 etc.</t>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_pep_prn`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pep2Prn()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_locprob</t>
+  </si>
+  <si>
+    <t>pep_locdiff</t>
+  </si>
+  <si>
+    <t>pep_mod_protnt</t>
+  </si>
+  <si>
+    <t>pep_mod_protntac</t>
+  </si>
+  <si>
+    <t>pep_mod_pepnt</t>
+  </si>
+  <si>
+    <t>pep_mod_m</t>
+  </si>
+  <si>
+    <t>pep_mod_n</t>
+  </si>
+  <si>
+    <t>pep_mod_sty</t>
+  </si>
+  <si>
+    <t>pep_mod_pepct</t>
+  </si>
+  <si>
+    <t>pep_mod_protctam</t>
+  </si>
+  <si>
+    <t>pep_mod_protct</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains methionine oxidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains asparagine deamidation</t>
+  </si>
+  <si>
+    <t>v.s.</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains N-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence Protein N-terminal modification</t>
+  </si>
+  <si>
+    <t>pep_locprob – pep_locprob2</t>
+  </si>
+  <si>
+    <t>pep_mean_raw</t>
+  </si>
+  <si>
+    <t>pep_mean_n</t>
+  </si>
+  <si>
+    <t>pep_mean_z</t>
+  </si>
+  <si>
+    <t>prot_mean_raw</t>
+  </si>
+  <si>
+    <t>prot_mean_n</t>
+  </si>
+  <si>
+    <t>prot_mean_z</t>
+  </si>
+  <si>
+    <t>Mean log2_R (...) across samples</t>
+  </si>
+  <si>
+    <t>Mean N_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Mean Z_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Reference and `Empty` samples excluded.</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpsm</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpep</t>
+  </si>
+  <si>
+    <t>Count of unique, significant PSMs in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <t>Count of unique, significant peptide sequences in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <t>One-letter representation of peptide sequences without variable modifications</t>
+  </si>
+  <si>
+    <t>dat_file</t>
+  </si>
+  <si>
+    <t>File name(s) of PSM results</t>
+  </si>
+  <si>
+    <t>According to 'method_align' in 'standPrn()' without scaling normalization</t>
+  </si>
+  <si>
+    <t>The highest probablity from the Mascot site analysis of the variable modification sites</t>
+  </si>
+  <si>
+    <t>Optional at "normPSM(group_psm_by = pep_seq_mod, use_lowercase_aa = TRUE)". Cf. `?proteoQ::normPSM`.</t>
+  </si>
+  <si>
+    <t>`pep_seq` with variable modifications</t>
+  </si>
+  <si>
+    <t>E.g. "-.MASGVAVSDGVIK.V"; the flanking residues on the N- or C-terminal side of peptides separated by '.'; see also `proteoQ::normPSM`.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mascot only. Joint Mascot `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_matches_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (of shared peptides) are also included.</t>
+    </r>
+  </si>
+  <si>
+    <t>Score of PSM</t>
+  </si>
+  <si>
+    <t>Additional peptide keys from Mascot PSM exports by users</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Additional column keys</t>
+  </si>
+  <si>
+    <t>With MaxQuant, corrected or uncorrected intensities; c.f. `?normPSM`.</t>
+  </si>
+  <si>
+    <t>Mascot only.</t>
+  </si>
+  <si>
+    <t>MaxQuant, the leading entry in `Proteins`. Spectrum Mill, `accession_number`.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mascot only. Joint Mascot `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_sequences_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_sequences`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculated from the union of individual data sources.</t>
+  </si>
+  <si>
+    <t>Additional protein keys from Mascot PSM exports by users.</t>
+  </si>
+  <si>
+    <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_n_psm`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mascot: unique to hit (grouping off) or family member (grouping on). MaxQuant: unique at the levels of protein groups, protein IDs or none. Spectrum Mill: NA.</t>
+  </si>
+  <si>
+    <t>Peptide sequence is unique or not.</t>
+  </si>
+  <si>
+    <t>MaxQuant, `Score`. Spectrum Mill, `score`.</t>
+  </si>
+  <si>
+    <t>MaxQuant, `PEP`. Spectrum Mill, NA.</t>
+  </si>
+  <si>
+    <t>E.g. "-._mAsGVAVSDGVIK.V" with a methionine oxidation and a serine phosphorylation. The acetylation of a protein N-terminal is indicated by '_'.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mascot oprional with the selection of `Query Level Information` during  PSM export. The second highest probablity, `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_locprob2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>` is made implicit through `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_locdiff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`. Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pep_var_mod_conf` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>from Mascot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_n_psm`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optional for UniProt Fasta. The key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_acc`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> if the primary one is `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_id`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>MaxQuant, http://www.coxdocs.org/doku.php?id=maxquant:table:msmstable. Spectrum Mill, users' manual.</t>
+  </si>
+  <si>
+    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`.</t>
+  </si>
+  <si>
+    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`.</t>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kin_attr`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculated from contributing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSMs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> under each TMT channel.</t>
+    </r>
+  </si>
+  <si>
+    <t>Relative to the row-mean intensity within each multiplex TMT if no reference(s) are present.</t>
+  </si>
+  <si>
+    <t>Expectation value or posterior error probability of PSM</t>
+  </si>
+  <si>
+    <t>Mascot only. Cf. PSM keys.</t>
+  </si>
+  <si>
+    <t>Cf. PSM keys.</t>
+  </si>
+  <si>
+    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_rank`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Geometric-mean description from PSMs.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mascot only. Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_rank`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_psm_pep`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSM2Pep()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples.</t>
+    </r>
+  </si>
+  <si>
+    <t>The calibration factors for the alignment of log2FC are used to scale the reporter-ion intensity.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculated from contributing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peptides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> under each sample.</t>
+    </r>
+  </si>
+  <si>
+    <t>Before normalization.</t>
+  </si>
+  <si>
+    <t>sd_log2_R... (...)</t>
+  </si>
+  <si>
+    <t>log2_R... (...)</t>
+  </si>
+  <si>
+    <t>N_log2_R... (...)</t>
+  </si>
+  <si>
+    <t>Z_log2_R... (...)</t>
+  </si>
+  <si>
+    <t>Count of non-NA log2FC</t>
+  </si>
+  <si>
+    <t>Reporter-ion intensity from MS/MS ion search (void in LFQ)</t>
+  </si>
+  <si>
+    <t>Normalized I126 etc.(void in LFQ)</t>
   </si>
   <si>
     <r>
@@ -397,20 +1079,160 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> log2FC </t>
-    </r>
-  </si>
-  <si>
-    <t>Cf. PSM keys</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> log2FC (void in LFQ)</t>
+    </r>
+  </si>
+  <si>
+    <t>log2FC in relative to the average intensity of reference(s) under each multiplex TMT (void in LFQ)</t>
+  </si>
+  <si>
+    <t>Median-centered `log2_R...` (void in LFQ)</t>
+  </si>
+  <si>
+    <t>Linear FC relative to TMT-126 (void in LFQ)</t>
+  </si>
+  <si>
+    <t>Reporter-ion intensity; I000 for LFQ</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I... (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; N_I000 for LFQ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard deviation of protein log2FC; sd_log2_R000 for LFQ </t>
+  </si>
+  <si>
+    <t>log2FC relative to reference materials for indicated samples; log2_R000 for LFQ</t>
+  </si>
+  <si>
+    <r>
+      <t>Aligned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>log2_R... (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> according to '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>standPep()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without scaling normalization; N_log2_R000 for LFQ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N_log2_R... (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> with scaling normalization; Z_log2_R000 for LFQ</t>
+    </r>
+  </si>
+  <si>
+    <t>`Reference` and `Empty` samples excluded.</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>N_log2_R (...)</t>
+      <t>I... (...)</t>
     </r>
     <r>
       <rPr>
@@ -419,24 +1241,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> with scaling normalization</t>
-    </r>
-  </si>
-  <si>
-    <t>Cf. Peptide keys</t>
-  </si>
-  <si>
-    <r>
-      <t>Normalized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
+      <t>; N_I000 for LFQ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>log2FC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> relative to reference materials for indicated samples; log2_R000 for LFQ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aligned </t>
     </r>
     <r>
       <rPr>
@@ -444,7 +1268,7 @@
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>I... (...)</t>
+      <t>log2_R... (...)</t>
     </r>
     <r>
       <rPr>
@@ -453,836 +1277,38 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>prot_len</t>
-  </si>
-  <si>
-    <t>is_tryptic</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_seq_mod`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_seq`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_len</t>
-  </si>
-  <si>
-    <t>Number of amino acid residues in a peptide sequence</t>
-  </si>
-  <si>
-    <t>log2FC in relative to the average intensity of reference(s) under each multiplex TMT</t>
-  </si>
-  <si>
-    <t>I126 etc.</t>
-  </si>
-  <si>
-    <t>N_I126 etc.</t>
-  </si>
-  <si>
-    <t>sd_log2_R126 etc.</t>
-  </si>
-  <si>
-    <t>R126 etc.</t>
-  </si>
-  <si>
-    <t>log2_R126 etc.</t>
-  </si>
-  <si>
-    <t>N_log2_R126 etc.</t>
-  </si>
-  <si>
-    <t>Median-centered `log2_R...`</t>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_pep_prn`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pep2Prn()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_locprob</t>
-  </si>
-  <si>
-    <t>pep_locdiff</t>
-  </si>
-  <si>
-    <t>pep_mod_protnt</t>
-  </si>
-  <si>
-    <t>pep_mod_protntac</t>
-  </si>
-  <si>
-    <t>pep_mod_pepnt</t>
-  </si>
-  <si>
-    <t>pep_mod_m</t>
-  </si>
-  <si>
-    <t>pep_mod_n</t>
-  </si>
-  <si>
-    <t>pep_mod_sty</t>
-  </si>
-  <si>
-    <t>pep_mod_pepct</t>
-  </si>
-  <si>
-    <t>pep_mod_protctam</t>
-  </si>
-  <si>
-    <t>pep_mod_protct</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains methionine oxidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains asparagine deamidation</t>
-  </si>
-  <si>
-    <t>v.s.</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains C-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains N-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence Protein N-terminal modification</t>
-  </si>
-  <si>
-    <t>pep_locprob – pep_locprob2</t>
-  </si>
-  <si>
-    <t>pep_mean_raw</t>
-  </si>
-  <si>
-    <t>pep_mean_n</t>
-  </si>
-  <si>
-    <t>pep_mean_z</t>
-  </si>
-  <si>
-    <t>log2FC relative to reference materials for indicated samples</t>
-  </si>
-  <si>
-    <r>
-      <t>Normalized </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I... (...)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Aligned </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>log2_R (...)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> according to '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_align</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>standPep()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> without scaling normalization</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N_log2_R (...)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> with scaling normalization</t>
-    </r>
-  </si>
-  <si>
-    <t>prot_mean_raw</t>
-  </si>
-  <si>
-    <t>prot_mean_n</t>
-  </si>
-  <si>
-    <t>prot_mean_z</t>
-  </si>
-  <si>
-    <t>Mean log2_R (...) across samples</t>
-  </si>
-  <si>
-    <t>Mean N_log2FC(...) across samples</t>
-  </si>
-  <si>
-    <t>Mean Z_log2FC(...) across samples</t>
-  </si>
-  <si>
-    <t>Reference and `Empty` samples excluded.</t>
-  </si>
-  <si>
-    <t>prot_n_uniqpsm</t>
-  </si>
-  <si>
-    <t>prot_n_uniqpep</t>
-  </si>
-  <si>
-    <t>Count of unique, significant PSMs in quantitation under a proposed protein</t>
-  </si>
-  <si>
-    <t>Count of unique, significant peptide sequences in quantitation under a proposed protein</t>
-  </si>
-  <si>
-    <t>One-letter representation of peptide sequences without variable modifications</t>
-  </si>
-  <si>
-    <t>dat_file</t>
-  </si>
-  <si>
-    <t>File name(s) of PSM results</t>
-  </si>
-  <si>
-    <t>According to 'method_align' in 'standPrn()' without scaling normalization</t>
-  </si>
-  <si>
-    <r>
-      <t>Aligned </t>
-    </r>
+      <t>; N_log2_R000 for LFQ</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>log2_R (...)</t>
-    </r>
-  </si>
-  <si>
-    <t>The highest probablity from the Mascot site analysis of the variable modification sites</t>
-  </si>
-  <si>
-    <t>Optional at "normPSM(group_psm_by = pep_seq_mod, use_lowercase_aa = TRUE)". Cf. `?proteoQ::normPSM`.</t>
-  </si>
-  <si>
-    <t>`pep_seq` with variable modifications</t>
-  </si>
-  <si>
-    <t>E.g. "-.MASGVAVSDGVIK.V"; the flanking residues on the N- or C-terminal side of peptides separated by '.'; see also `proteoQ::normPSM`.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot only. Joint Mascot `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_matches_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (of shared peptides) are also included.</t>
-    </r>
-  </si>
-  <si>
-    <t>Score of PSM</t>
-  </si>
-  <si>
-    <t>Additional peptide keys from Mascot PSM exports by users</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Additional column keys</t>
-  </si>
-  <si>
-    <t>With MaxQuant, corrected or uncorrected intensities; c.f. `?normPSM`.</t>
-  </si>
-  <si>
-    <t>Mascot only.</t>
-  </si>
-  <si>
-    <t>MaxQuant, the leading entry in `Proteins`. Spectrum Mill, `accession_number`.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot only. Joint Mascot `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_sequences_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_sequences`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities.</t>
-    </r>
-  </si>
-  <si>
-    <t>Calculated from the union of individual data sources.</t>
-  </si>
-  <si>
-    <t>Additional protein keys from Mascot PSM exports by users.</t>
-  </si>
-  <si>
-    <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Mascot: unique to hit (grouping off) or family member (grouping on). MaxQuant: unique at the levels of protein groups, protein IDs or none. Spectrum Mill: NA.</t>
-  </si>
-  <si>
-    <t>Peptide sequence is unique or not.</t>
-  </si>
-  <si>
-    <t>MaxQuant, `Score`. Spectrum Mill, `score`.</t>
-  </si>
-  <si>
-    <t>MaxQuant, `PEP`. Spectrum Mill, NA.</t>
-  </si>
-  <si>
-    <t>E.g. "-._mAsGVAVSDGVIK.V" with a methionine oxidation and a serine phosphorylation. The acetylation of a protein N-terminal is indicated by '_'.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot oprional with the selection of `Query Level Information` during  PSM export. The second highest probablity, `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_locprob2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>` is made implicit through `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_locdiff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`. Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pep_var_mod_conf` </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>from Mascot.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Optional for UniProt Fasta. The key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_acc`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> if the primary one is `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_id`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>MaxQuant, http://www.coxdocs.org/doku.php?id=maxquant:table:msmstable. Spectrum Mill, users' manual.</t>
-  </si>
-  <si>
-    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`.</t>
-  </si>
-  <si>
-    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`.</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kin_attr`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Calculated from contributing </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PSMs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> under each TMT channel.</t>
-    </r>
-  </si>
-  <si>
-    <t>Relative to the row-mean intensity within each multiplex TMT if no reference(s) are present.</t>
-  </si>
-  <si>
-    <t>Expectation value or posterior error probability of PSM</t>
-  </si>
-  <si>
-    <t>Mascot only. Cf. PSM keys.</t>
-  </si>
-  <si>
-    <t>Cf. PSM keys.</t>
-  </si>
-  <si>
-    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_rank`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Geometric-mean description from PSMs.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot only. Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_rank`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_psm_pep`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PSM2Pep()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples.</t>
-    </r>
-  </si>
-  <si>
-    <t>The calibration factors for the alignment of log2FC are used to scale the reporter-ion intensity.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Calculated from contributing </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peptides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> under each sample.</t>
-    </r>
-  </si>
-  <si>
-    <t>Before normalization.</t>
+      <t>N_log2_R... (...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> with scaling normalization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>; Z_log2_R000 for LFQ</t>
+    </r>
+  </si>
+  <si>
+    <t>count_nna</t>
   </si>
 </sst>
 </file>
@@ -1787,9 +1813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1807,121 +1833,121 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A3" s="29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1">
       <c r="A6" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="28" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A9" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1">
       <c r="A10" s="28" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A11" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -1930,18 +1956,18 @@
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -1950,10 +1976,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5">
@@ -1961,150 +1987,150 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="38.25">
       <c r="A19" s="29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A29" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="19" customFormat="1" ht="25.5">
@@ -2112,143 +2138,143 @@
         <v>16</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1">
       <c r="A31" s="18" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" s="19" customFormat="1">
       <c r="A32" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" s="19" customFormat="1">
       <c r="A33" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" s="19" customFormat="1">
       <c r="A34" s="18" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" s="19" customFormat="1">
       <c r="A35" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="29" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51">
       <c r="A37" s="29" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5">
       <c r="A38" s="29" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" s="29" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="29" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="28" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="38.25">
       <c r="A42" s="29" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="29" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25.5">
@@ -2256,10 +2282,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2275,10 +2301,10 @@
         <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2305,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2313,10 +2339,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2324,10 +2350,10 @@
         <v>11</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2335,27 +2361,27 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25.5">
       <c r="A53" s="18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C54" s="9"/>
     </row>
@@ -2364,78 +2390,78 @@
         <v>18</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5">
       <c r="A56" s="30" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25.5">
       <c r="A58" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25.5">
       <c r="A61" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2450,11 +2476,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2472,67 +2498,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2540,10 +2566,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="38.25">
@@ -2551,10 +2577,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -2562,10 +2588,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
@@ -2573,40 +2599,40 @@
         <v>15</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="25.5">
@@ -2614,230 +2640,230 @@
         <v>16</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="18" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A17" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A18" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A19" s="18" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" s="19" customFormat="1">
       <c r="A20" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
       <c r="A23" s="29" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="31" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="26.25">
       <c r="A25" s="16" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="26.25">
       <c r="A26" s="16" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.25">
       <c r="A27" s="16" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.25">
       <c r="A28" s="16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="16" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A30" s="16" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A31" s="16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A32" s="16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A33" s="16" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="14" customFormat="1">
       <c r="A34" s="16" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="14" customFormat="1">
       <c r="A35" s="16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="14" customFormat="1">
       <c r="A36" s="16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="14" customFormat="1">
@@ -2854,10 +2880,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1">
@@ -2892,10 +2918,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2903,10 +2929,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2914,81 +2940,92 @@
         <v>12</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25.5">
       <c r="A45" s="18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.5">
-      <c r="A46" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>212</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25.5">
       <c r="A47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="25.5">
+      <c r="A48" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="B48" s="25" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25.5">
       <c r="A49" s="25" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25.5">
       <c r="A50" s="25" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>210</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="38.25">
       <c r="A51" s="25" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>156</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25.5">
+      <c r="A52" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3003,11 +3040,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3025,67 +3062,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3093,10 +3130,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
@@ -3104,18 +3141,18 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3124,52 +3161,52 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3186,10 +3223,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3224,10 +3261,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3235,10 +3272,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3246,64 +3283,75 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5">
-      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25.5">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>172</v>
+        <v>197</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="25.5">
       <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5">
+      <c r="A29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52EF44F-5DF1-47CD-A12E-2326E9ECFA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B480C502-D17D-4C8D-ACDD-FB99CC963D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="224">
   <si>
     <t>Header</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Mascot: ordinal position of last peptide residue in protein sequence</t>
   </si>
   <si>
-    <t>Uniprot ID</t>
-  </si>
-  <si>
     <t>prot_hit_num</t>
   </si>
   <si>
@@ -336,12 +333,6 @@
     <t>pep_...</t>
   </si>
   <si>
-    <t>Cf. PSM keys</t>
-  </si>
-  <si>
-    <t>Cf. Peptide keys</t>
-  </si>
-  <si>
     <t>prot_len</t>
   </si>
   <si>
@@ -351,8 +342,32 @@
     <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
   </si>
   <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
+    <t>pep_len</t>
+  </si>
+  <si>
+    <t>Number of amino acid residues in a peptide sequence</t>
+  </si>
+  <si>
+    <t>I126 etc.</t>
+  </si>
+  <si>
+    <t>N_I126 etc.</t>
+  </si>
+  <si>
+    <t>sd_log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>R126 etc.</t>
+  </si>
+  <si>
+    <t>log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>N_log2_R126 etc.</t>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
     </r>
     <r>
       <rPr>
@@ -361,21 +376,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>pep_seq_mod`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
+      <t>method_pep_prn`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
     </r>
     <r>
       <rPr>
@@ -384,45 +394,171 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>pep_seq`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_len</t>
-  </si>
-  <si>
-    <t>Number of amino acid residues in a peptide sequence</t>
-  </si>
-  <si>
-    <t>I126 etc.</t>
-  </si>
-  <si>
-    <t>N_I126 etc.</t>
-  </si>
-  <si>
-    <t>sd_log2_R126 etc.</t>
-  </si>
-  <si>
-    <t>R126 etc.</t>
-  </si>
-  <si>
-    <t>log2_R126 etc.</t>
-  </si>
-  <si>
-    <t>N_log2_R126 etc.</t>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
+      <t>Pep2Prn()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
+    </r>
+  </si>
+  <si>
+    <t>pep_locprob</t>
+  </si>
+  <si>
+    <t>pep_locdiff</t>
+  </si>
+  <si>
+    <t>pep_mod_protnt</t>
+  </si>
+  <si>
+    <t>pep_mod_protntac</t>
+  </si>
+  <si>
+    <t>pep_mod_pepnt</t>
+  </si>
+  <si>
+    <t>pep_mod_m</t>
+  </si>
+  <si>
+    <t>pep_mod_n</t>
+  </si>
+  <si>
+    <t>pep_mod_sty</t>
+  </si>
+  <si>
+    <t>pep_mod_pepct</t>
+  </si>
+  <si>
+    <t>pep_mod_protctam</t>
+  </si>
+  <si>
+    <t>pep_mod_protct</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains methionine oxidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains asparagine deamidation</t>
+  </si>
+  <si>
+    <t>v.s.</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains N-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence Protein N-terminal modification</t>
+  </si>
+  <si>
+    <t>pep_locprob – pep_locprob2</t>
+  </si>
+  <si>
+    <t>pep_mean_raw</t>
+  </si>
+  <si>
+    <t>pep_mean_n</t>
+  </si>
+  <si>
+    <t>pep_mean_z</t>
+  </si>
+  <si>
+    <t>prot_mean_raw</t>
+  </si>
+  <si>
+    <t>prot_mean_n</t>
+  </si>
+  <si>
+    <t>prot_mean_z</t>
+  </si>
+  <si>
+    <t>Mean log2_R (...) across samples</t>
+  </si>
+  <si>
+    <t>Mean N_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Mean Z_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Reference and `Empty` samples excluded.</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpsm</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpep</t>
+  </si>
+  <si>
+    <t>Count of unique, significant PSMs in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <t>Count of unique, significant peptide sequences in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <t>One-letter representation of peptide sequences without variable modifications</t>
+  </si>
+  <si>
+    <t>dat_file</t>
+  </si>
+  <si>
+    <t>File name(s) of PSM results</t>
+  </si>
+  <si>
+    <t>According to 'method_align' in 'standPrn()' without scaling normalization</t>
+  </si>
+  <si>
+    <t>The highest probablity from the Mascot site analysis of the variable modification sites</t>
+  </si>
+  <si>
+    <t>`pep_seq` with variable modifications</t>
+  </si>
+  <si>
+    <t>E.g. "-.MASGVAVSDGVIK.V"; the flanking residues on the N- or C-terminal side of peptides separated by '.'; see also `proteoQ::normPSM`.</t>
+  </si>
+  <si>
+    <t>Score of PSM</t>
+  </si>
+  <si>
+    <t>Additional peptide keys from Mascot PSM exports by users</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Additional column keys</t>
+  </si>
+  <si>
+    <t>With MaxQuant, corrected or uncorrected intensities; c.f. `?normPSM`.</t>
+  </si>
+  <si>
+    <t>Mascot only.</t>
+  </si>
+  <si>
+    <t>MaxQuant, the leading entry in `Proteins`. Spectrum Mill, `accession_number`.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mascot only. Joint Mascot `</t>
     </r>
     <r>
       <rPr>
@@ -431,7 +567,70 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>method_pep_prn`</t>
+      <t>prot_sequences_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_sequences`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculated from the union of individual data sources.</t>
+  </si>
+  <si>
+    <t>Additional protein keys from Mascot PSM exports by users.</t>
+  </si>
+  <si>
+    <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
+  </si>
+  <si>
+    <t>Mascot: unique to hit (grouping off) or family member (grouping on). MaxQuant: unique at the levels of protein groups, protein IDs or none. Spectrum Mill: NA.</t>
+  </si>
+  <si>
+    <t>Peptide sequence is unique or not.</t>
+  </si>
+  <si>
+    <t>MaxQuant, `Score`. Spectrum Mill, `score`.</t>
+  </si>
+  <si>
+    <t>MaxQuant, `PEP`. Spectrum Mill, NA.</t>
+  </si>
+  <si>
+    <t>E.g. "-._mAsGVAVSDGVIK.V" with a methionine oxidation and a serine phosphorylation. The acetylation of a protein N-terminal is indicated by '_'.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mascot oprional with the selection of `Query Level Information` during  PSM export. The second highest probablity, `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_locprob2</t>
     </r>
     <r>
       <rPr>
@@ -440,7 +639,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> in `</t>
+      <t>` is made implicit through `</t>
     </r>
     <r>
       <rPr>
@@ -449,7 +648,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Pep2Prn()`</t>
+      <t>pep_locdiff</t>
     </r>
     <r>
       <rPr>
@@ -458,144 +657,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <t>pep_locprob</t>
-  </si>
-  <si>
-    <t>pep_locdiff</t>
-  </si>
-  <si>
-    <t>pep_mod_protnt</t>
-  </si>
-  <si>
-    <t>pep_mod_protntac</t>
-  </si>
-  <si>
-    <t>pep_mod_pepnt</t>
-  </si>
-  <si>
-    <t>pep_mod_m</t>
-  </si>
-  <si>
-    <t>pep_mod_n</t>
-  </si>
-  <si>
-    <t>pep_mod_sty</t>
-  </si>
-  <si>
-    <t>pep_mod_pepct</t>
-  </si>
-  <si>
-    <t>pep_mod_protctam</t>
-  </si>
-  <si>
-    <t>pep_mod_protct</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains methionine oxidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains asparagine deamidation</t>
-  </si>
-  <si>
-    <t>v.s.</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains C-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains N-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence Protein N-terminal modification</t>
-  </si>
-  <si>
-    <t>pep_locprob – pep_locprob2</t>
-  </si>
-  <si>
-    <t>pep_mean_raw</t>
-  </si>
-  <si>
-    <t>pep_mean_n</t>
-  </si>
-  <si>
-    <t>pep_mean_z</t>
-  </si>
-  <si>
-    <t>prot_mean_raw</t>
-  </si>
-  <si>
-    <t>prot_mean_n</t>
-  </si>
-  <si>
-    <t>prot_mean_z</t>
-  </si>
-  <si>
-    <t>Mean log2_R (...) across samples</t>
-  </si>
-  <si>
-    <t>Mean N_log2FC(...) across samples</t>
-  </si>
-  <si>
-    <t>Mean Z_log2FC(...) across samples</t>
-  </si>
-  <si>
-    <t>Reference and `Empty` samples excluded.</t>
-  </si>
-  <si>
-    <t>prot_n_uniqpsm</t>
-  </si>
-  <si>
-    <t>prot_n_uniqpep</t>
-  </si>
-  <si>
-    <t>Count of unique, significant PSMs in quantitation under a proposed protein</t>
-  </si>
-  <si>
-    <t>Count of unique, significant peptide sequences in quantitation under a proposed protein</t>
-  </si>
-  <si>
-    <t>One-letter representation of peptide sequences without variable modifications</t>
-  </si>
-  <si>
-    <t>dat_file</t>
-  </si>
-  <si>
-    <t>File name(s) of PSM results</t>
-  </si>
-  <si>
-    <t>According to 'method_align' in 'standPrn()' without scaling normalization</t>
-  </si>
-  <si>
-    <t>The highest probablity from the Mascot site analysis of the variable modification sites</t>
-  </si>
-  <si>
-    <t>Optional at "normPSM(group_psm_by = pep_seq_mod, use_lowercase_aa = TRUE)". Cf. `?proteoQ::normPSM`.</t>
-  </si>
-  <si>
-    <t>`pep_seq` with variable modifications</t>
-  </si>
-  <si>
-    <t>E.g. "-.MASGVAVSDGVIK.V"; the flanking residues on the N- or C-terminal side of peptides separated by '.'; see also `proteoQ::normPSM`.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot only. Joint Mascot `</t>
+      <t>`. Cf. `</t>
     </r>
     <r>
       <rPr>
@@ -604,153 +666,36 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>prot_matches_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (of shared peptides) are also included.</t>
-    </r>
-  </si>
-  <si>
-    <t>Score of PSM</t>
-  </si>
-  <si>
-    <t>Additional peptide keys from Mascot PSM exports by users</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Additional column keys</t>
-  </si>
-  <si>
-    <t>With MaxQuant, corrected or uncorrected intensities; c.f. `?normPSM`.</t>
-  </si>
-  <si>
-    <t>Mascot only.</t>
-  </si>
-  <si>
-    <t>MaxQuant, the leading entry in `Proteins`. Spectrum Mill, `accession_number`.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot only. Joint Mascot `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_sequences_sig`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from individual data sources; the counts may be greater than `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_sequences`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> when peptides with different variable modifications are treated as different identities.</t>
-    </r>
-  </si>
-  <si>
-    <t>Calculated from the union of individual data sources.</t>
-  </si>
-  <si>
-    <t>Additional protein keys from Mascot PSM exports by users.</t>
-  </si>
-  <si>
-    <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Mascot: unique to hit (grouping off) or family member (grouping on). MaxQuant: unique at the levels of protein groups, protein IDs or none. Spectrum Mill: NA.</t>
-  </si>
-  <si>
-    <t>Peptide sequence is unique or not.</t>
-  </si>
-  <si>
-    <t>MaxQuant, `Score`. Spectrum Mill, `score`.</t>
-  </si>
-  <si>
-    <t>MaxQuant, `PEP`. Spectrum Mill, NA.</t>
-  </si>
-  <si>
-    <t>E.g. "-._mAsGVAVSDGVIK.V" with a methionine oxidation and a serine phosphorylation. The acetylation of a protein N-terminal is indicated by '_'.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot oprional with the selection of `Query Level Information` during  PSM export. The second highest probablity, `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_locprob2</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">pep_var_mod_conf` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>from Mascot.</t>
+    </r>
+  </si>
+  <si>
+    <t>MaxQuant, http://www.coxdocs.org/doku.php?id=maxquant:table:msmstable. Spectrum Mill, users' manual.</t>
+  </si>
+  <si>
+    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculated from contributing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>` is made implicit through `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_locdiff</t>
+      <t>PSMs</t>
     </r>
     <r>
       <rPr>
@@ -759,146 +704,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>`. Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pep_var_mod_conf` </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>from Mascot.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Optional for UniProt Fasta. The key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_acc`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> if the primary one is `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_id`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>MaxQuant, http://www.coxdocs.org/doku.php?id=maxquant:table:msmstable. Spectrum Mill, users' manual.</t>
-  </si>
-  <si>
-    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`.</t>
-  </si>
-  <si>
-    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`.</t>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kin_attr`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Calculated from contributing </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PSMs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> under each TMT channel.</t>
     </r>
   </si>
@@ -909,62 +714,10 @@
     <t>Expectation value or posterior error probability of PSM</t>
   </si>
   <si>
-    <t>Mascot only. Cf. PSM keys.</t>
-  </si>
-  <si>
-    <t>Cf. PSM keys.</t>
-  </si>
-  <si>
     <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
   </si>
   <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_rank`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Geometric-mean description from PSMs.</t>
-  </si>
-  <si>
-    <r>
-      <t>Mascot only. Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_rank`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1309,6 +1062,111 @@
   </si>
   <si>
     <t>count_nna</t>
+  </si>
+  <si>
+    <t>fasta_name</t>
+  </si>
+  <si>
+    <t>Protein name taken from Fasta title line</t>
+  </si>
+  <si>
+    <t>uniprot_acc</t>
+  </si>
+  <si>
+    <t>refseq_acc</t>
+  </si>
+  <si>
+    <t>other_acc</t>
+  </si>
+  <si>
+    <t>Protein UniProt entry name</t>
+  </si>
+  <si>
+    <t>Protein UniProt accession</t>
+  </si>
+  <si>
+    <t>Protein RefSeq accession</t>
+  </si>
+  <si>
+    <t>Protein accession with formats other than UniProt or RefSeq</t>
+  </si>
+  <si>
+    <t>The character string before the first white space.</t>
+  </si>
+  <si>
+    <r>
+      <t>See also `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_n_psm`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>See also PSM keys.</t>
+  </si>
+  <si>
+    <t>See also PSM keys; the key will become `pep_seq_mod` at `normPSM(group_psm_by = pep_seq_mod)`</t>
+  </si>
+  <si>
+    <t>See also PSM keys; the key will become `pep_seq` at `normPSM(group_psm_by = pep_seq)`</t>
+  </si>
+  <si>
+    <t>See also `pep_rank`.</t>
+  </si>
+  <si>
+    <t>Mascot only. See also `pep_rank`.</t>
+  </si>
+  <si>
+    <t>Mascot only. See also PSM keys.</t>
+  </si>
+  <si>
+    <t>One of `refseq_acc`, `uniprot_acc`, `uniprot_id` or `other_acc`.</t>
+  </si>
+  <si>
+    <t>Optional at "normPSM(group_psm_by = pep_seq_mod, use_lowercase_aa = TRUE)". See also. `?proteoQ::normPSM`.</t>
+  </si>
+  <si>
+    <t>See also PSM keys</t>
+  </si>
+  <si>
+    <t>See also Peptide keys</t>
+  </si>
+  <si>
+    <r>
+      <t>Mascot only. Joint Mascot `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_matches_sig`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (e.g. due to shared peptide sequences across protein IDs) are also included.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1811,18 +1669,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1838,24 +1696,24 @@
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A3" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1">
@@ -1866,7 +1724,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1">
@@ -1880,13 +1738,13 @@
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1">
       <c r="A6" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1">
@@ -1900,16 +1758,16 @@
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A9" s="28" t="s">
         <v>28</v>
       </c>
@@ -1917,18 +1775,18 @@
         <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1">
       <c r="A10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1" ht="38.25">
@@ -1939,12 +1797,12 @@
         <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>41</v>
@@ -1959,15 +1817,15 @@
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -1979,7 +1837,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5">
@@ -1990,18 +1848,18 @@
         <v>39</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5">
@@ -2009,10 +1867,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="38.25">
@@ -2020,10 +1878,10 @@
         <v>45</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
@@ -2031,10 +1889,10 @@
         <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2042,10 +1900,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2053,10 +1911,10 @@
         <v>47</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2064,10 +1922,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2075,10 +1933,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2086,10 +1944,10 @@
         <v>49</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2097,10 +1955,10 @@
         <v>50</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2108,18 +1966,18 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="19" customFormat="1" ht="25.5">
@@ -2127,10 +1985,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="19" customFormat="1" ht="25.5">
@@ -2138,18 +1996,18 @@
         <v>16</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1">
       <c r="A31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="C31" s="18"/>
     </row>
@@ -2158,7 +2016,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="23"/>
     </row>
@@ -2167,16 +2025,16 @@
         <v>54</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" s="19" customFormat="1">
       <c r="A34" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C34" s="23"/>
     </row>
@@ -2185,96 +2043,96 @@
         <v>55</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51">
       <c r="A37" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5">
       <c r="A38" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="38.25">
       <c r="A42" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25.5">
@@ -2282,10 +2140,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2296,178 +2154,206 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="25.5">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B48" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="A49" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>180</v>
-      </c>
+      <c r="A50" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>181</v>
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="25.5">
-      <c r="A53" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="25.5">
-      <c r="A56" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="25.5">
-      <c r="A58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="25.5">
+      <c r="A57" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="18"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>203</v>
+        <v>18</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="25.5">
+      <c r="A60" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="25.5">
-      <c r="A61" s="3" t="s">
-        <v>110</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="25.5">
       <c r="A62" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="25.5">
+      <c r="A65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B47" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B56" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B51" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2476,17 +2362,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" style="18" customWidth="1"/>
     <col min="3" max="3" width="50.85546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2536,7 +2422,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
@@ -2547,19 +2433,17 @@
         <v>37</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>187</v>
-      </c>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="25" t="s">
@@ -2569,7 +2453,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="38.25">
@@ -2580,7 +2464,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -2591,7 +2475,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
@@ -2602,7 +2486,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2610,18 +2494,18 @@
         <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
@@ -2629,10 +2513,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="25.5">
@@ -2640,26 +2524,26 @@
         <v>16</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="19" customFormat="1" ht="25.5">
+    </row>
+    <row r="17" spans="1:3" s="19" customFormat="1">
       <c r="A17" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="18"/>
     </row>
@@ -2672,12 +2556,12 @@
       </c>
       <c r="C18" s="18"/>
     </row>
-    <row r="19" spans="1:3" s="19" customFormat="1" ht="25.5">
+    <row r="19" spans="1:3" s="19" customFormat="1">
       <c r="A19" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C19" s="25"/>
     </row>
@@ -2686,7 +2570,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -2695,10 +2579,10 @@
         <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2706,164 +2590,164 @@
         <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
       <c r="A23" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="31" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="26.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="39">
       <c r="A25" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="26.25">
       <c r="A26" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="26.25">
       <c r="A27" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.25">
       <c r="A28" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A30" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A31" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A32" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A33" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="14" customFormat="1">
       <c r="A34" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="14" customFormat="1">
       <c r="A35" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="14" customFormat="1">
       <c r="A36" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="14" customFormat="1">
@@ -2875,163 +2759,188 @@
       </c>
       <c r="C37" s="18"/>
     </row>
-    <row r="38" spans="1:3" s="14" customFormat="1">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="14" customFormat="1">
-      <c r="A39" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="18"/>
-    </row>
-    <row r="40" spans="1:3" s="14" customFormat="1">
-      <c r="A40" s="18" t="s">
-        <v>6</v>
-      </c>
       <c r="B40" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="1:3" s="14" customFormat="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="18"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="14" customFormat="1">
       <c r="A43" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" s="14" customFormat="1">
       <c r="A44" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="25.5">
+        <v>6</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="18"/>
+    </row>
+    <row r="45" spans="1:3" s="14" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>187</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="25.5">
-      <c r="A47" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:3" ht="25.5">
+      <c r="A49" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="25.5">
+      <c r="A51" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="25.5">
-      <c r="A48" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="25.5">
-      <c r="A49" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="25.5">
-      <c r="A50" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="38.25">
-      <c r="A51" s="25" t="s">
-        <v>198</v>
-      </c>
       <c r="B51" s="25" t="s">
-        <v>211</v>
+        <v>190</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5">
       <c r="A52" s="25" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>212</v>
+        <v>191</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="25.5">
+      <c r="A54" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="38.25">
+      <c r="A55" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="25.5">
+      <c r="A56" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B39" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B48" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B43" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3040,11 +2949,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3100,7 +3009,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
@@ -3111,19 +3020,17 @@
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -3133,7 +3040,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
@@ -3144,15 +3051,15 @@
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3164,49 +3071,49 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3219,144 +3126,174 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="B19" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="A20" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A21" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="25.5">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.5">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="25.5">
-      <c r="A28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5">
       <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="25.5">
+      <c r="A31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="25.5">
+      <c r="A32" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="25.5">
+      <c r="A33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B23" r:id="rId2" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B27" r:id="rId2" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B480C502-D17D-4C8D-ACDD-FB99CC963D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA34CDD-CF87-4E4F-A964-3CA40BA75C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
   <si>
     <t>Header</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
-  </si>
-  <si>
-    <t>Mascot: unique to hit (grouping off) or family member (grouping on). MaxQuant: unique at the levels of protein groups, protein IDs or none. Spectrum Mill: NA.</t>
   </si>
   <si>
     <t>Peptide sequence is unique or not.</t>
@@ -1167,6 +1164,66 @@
       </rPr>
       <t xml:space="preserve"> from individual data sources; PSMs with void reporter-ion intensity (e.g. due to shared peptide sequences across protein IDs) are also included.</t>
     </r>
+  </si>
+  <si>
+    <t>pep_literal_unique</t>
+  </si>
+  <si>
+    <t>pep_razor_unique</t>
+  </si>
+  <si>
+    <t>Peptide sequence is unique to hit or not.</t>
+  </si>
+  <si>
+    <t>Peptide sequence is unique to group or not.</t>
+  </si>
+  <si>
+    <t>Mascot: need to enable same-set and sub-set proteins during PSM exports; otherwise equivalent to `pep_isunique`.</t>
+  </si>
+  <si>
+    <t>Mascot: unique to hit (grouping off) or family member (grouping on). MaxQuant: unique at the levels of protein groups, protein IDs or none. Spectrum Mill: NA. See also ?normPSM argument `pep_unique_by`.</t>
+  </si>
+  <si>
+    <t>pep_tot_int</t>
+  </si>
+  <si>
+    <t>pep_unique_int</t>
+  </si>
+  <si>
+    <t>pep_razor_int</t>
+  </si>
+  <si>
+    <t>Total MS1 intenisty of a peptide match</t>
+  </si>
+  <si>
+    <t>Unique MS1 intenisty of a peptide match</t>
+  </si>
+  <si>
+    <t>Razor MS1 intenisty of a peptide match</t>
+  </si>
+  <si>
+    <t>pep_tot_int (...)</t>
+  </si>
+  <si>
+    <t>LFQ</t>
+  </si>
+  <si>
+    <t>LFQ; various descriptive statistics from PSMs</t>
+  </si>
+  <si>
+    <t>pep_unique_int (...)</t>
+  </si>
+  <si>
+    <t>pep_razor_int (...)</t>
+  </si>
+  <si>
+    <t>Total MS1 intenisty of a peptide</t>
+  </si>
+  <si>
+    <t>Unique MS1 intenisty of a peptide</t>
+  </si>
+  <si>
+    <t>Razor MS1 intenisty of a peptide</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1283,6 +1340,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1297,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1387,6 +1456,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1669,11 +1744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1716,7 +1791,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1850,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1">
@@ -1789,7 +1864,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="38.25">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="51">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -1821,7 +1896,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1884,45 +1959,45 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25.5">
+    <row r="20" spans="1:3" ht="38.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="29" t="s">
-        <v>46</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25.5">
+      <c r="A21" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>156</v>
+        <v>225</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="29" t="s">
-        <v>47</v>
+      <c r="A22" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>156</v>
+        <v>226</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>156</v>
@@ -1930,10 +2005,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>156</v>
@@ -1941,419 +2016,474 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
+      <c r="A26" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>164</v>
+        <v>74</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>165</v>
+      <c r="A27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="19" customFormat="1" ht="25.5">
-      <c r="A29" s="18" t="s">
+    <row r="31" spans="1:3" s="19" customFormat="1" ht="38.25">
+      <c r="A31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B31" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="19" customFormat="1" ht="25.5">
-      <c r="A30" s="18" t="s">
+    <row r="32" spans="1:3" s="19" customFormat="1" ht="38.25">
+      <c r="A32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B32" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="19" customFormat="1">
-      <c r="A31" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" s="19" customFormat="1">
-      <c r="A32" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="33" spans="1:3" s="19" customFormat="1">
       <c r="A33" s="18" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" s="19" customFormat="1">
       <c r="A34" s="18" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" s="19" customFormat="1">
       <c r="A35" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:3" s="19" customFormat="1">
+      <c r="A36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3" s="19" customFormat="1">
+      <c r="A37" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B37" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="29" t="s">
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="51">
-      <c r="A37" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="25.5">
-      <c r="A38" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="25.5">
+    <row r="39" spans="1:3" ht="51">
       <c r="A39" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="25.5">
       <c r="A40" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>152</v>
+    <row r="41" spans="1:3" ht="25.5">
+      <c r="A41" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="38.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="38.25">
+      <c r="A44" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="29" t="s">
+      <c r="C44" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="25.5">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="25.5">
+      <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="25" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="C51" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="25" t="s">
+      <c r="B52" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="18"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B54" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="18"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="18" t="s">
+      <c r="C54" s="18"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B55" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="18"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="18"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="25.5">
-      <c r="A57" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="18"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="25.5">
-      <c r="A60" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>168</v>
+        <v>33</v>
+      </c>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>12</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25.5">
-      <c r="A62" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="A62" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="38.25">
+      <c r="A65" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="25.5">
+      <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="25.5">
+      <c r="A67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="3" t="s">
+      <c r="B68" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="25.5">
+      <c r="A70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="25.5">
-      <c r="A65" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B56" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B51" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B61" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B56" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2362,16 +2492,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" style="18" customWidth="1"/>
     <col min="3" max="3" width="50.85546875" style="18" customWidth="1"/>
   </cols>
@@ -2422,7 +2552,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
@@ -2433,7 +2563,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2453,7 +2583,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="38.25">
@@ -2464,7 +2594,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -2494,453 +2624,517 @@
         <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="25.5">
+      <c r="A16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.5">
-      <c r="A14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="25" t="s">
+    <row r="17" spans="1:3" ht="25.5">
+      <c r="A17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.5">
-      <c r="A15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="19" customFormat="1">
-      <c r="A17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" s="19" customFormat="1" ht="25.5">
-      <c r="A18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" s="19" customFormat="1">
       <c r="A19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" s="19" customFormat="1" ht="25.5">
+      <c r="A20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" s="19" customFormat="1">
+      <c r="A21" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:3" s="19" customFormat="1">
-      <c r="A20" s="18" t="s">
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3" s="19" customFormat="1">
+      <c r="A22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="18" t="s">
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C23" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25.5">
+      <c r="A25" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="31" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="39">
-      <c r="A25" s="16" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="39">
+      <c r="A30" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="26.25">
-      <c r="A26" s="16" t="s">
+      <c r="C30" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="26.25">
+      <c r="A31" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B31" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="26.25">
-      <c r="A27" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="26.25">
-      <c r="A28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="26.25">
-      <c r="A29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="26.25">
-      <c r="A30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" ht="26.25">
-      <c r="A31" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="14" customFormat="1" ht="26.25">
+    <row r="32" spans="1:3" ht="26.25">
       <c r="A32" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="14" customFormat="1" ht="26.25">
+    <row r="33" spans="1:3" ht="26.25">
       <c r="A33" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="14" customFormat="1">
+    <row r="34" spans="1:3" ht="26.25">
       <c r="A34" s="16" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="14" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A35" s="16" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="14" customFormat="1">
+    <row r="36" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A36" s="16" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="14" customFormat="1">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A37" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="14" customFormat="1" ht="26.25">
+      <c r="A38" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="14" customFormat="1">
+      <c r="A39" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="14" customFormat="1">
+      <c r="A40" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="14" customFormat="1">
+      <c r="A41" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="14" customFormat="1">
+      <c r="A42" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B42" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="25" t="s">
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="C43" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="18" t="s">
+      <c r="B44" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="18" t="s">
+      <c r="B45" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="14" customFormat="1">
-      <c r="A43" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="18"/>
-    </row>
-    <row r="44" spans="1:3" s="14" customFormat="1">
-      <c r="A44" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="18"/>
-    </row>
-    <row r="45" spans="1:3" s="14" customFormat="1">
-      <c r="A45" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="18" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="25"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1">
+      <c r="A48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="18"/>
+    </row>
+    <row r="49" spans="1:3" s="14" customFormat="1">
+      <c r="A49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="18"/>
+    </row>
+    <row r="50" spans="1:3" s="14" customFormat="1">
+      <c r="A50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="18"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B52" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="18" t="s">
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B53" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="25"/>
-    </row>
-    <row r="49" spans="1:3" ht="25.5">
-      <c r="A49" s="18" t="s">
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:3" ht="25.5">
+      <c r="A54" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B54" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="25"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="25.5">
-      <c r="A51" s="25" t="s">
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="25.5">
+      <c r="A57" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B57" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="25.5">
+      <c r="A58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.5">
-      <c r="A52" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="25" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="25" t="s">
+    <row r="60" spans="1:3" ht="25.5">
+      <c r="A60" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B60" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="25.5">
-      <c r="A54" s="25" t="s">
+    <row r="61" spans="1:3" ht="38.25">
+      <c r="A61" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B61" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="38.25">
-      <c r="A55" s="25" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="25.5">
+      <c r="A62" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B62" s="25" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="25.5">
-      <c r="A56" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B43" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B53" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B48" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2951,9 +3145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3002,25 +3196,25 @@
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="25.5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3040,7 +3234,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
@@ -3051,7 +3245,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -3071,7 +3265,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5">
@@ -3127,21 +3321,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="C17" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="25"/>
     </row>
@@ -3150,25 +3344,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="18"/>
     </row>
@@ -3228,13 +3422,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5">
@@ -3242,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>107</v>
@@ -3253,29 +3447,29 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>147</v>
@@ -3283,10 +3477,10 @@
     </row>
     <row r="33" spans="1:3" ht="25.5">
       <c r="A33" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="2"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA34CDD-CF87-4E4F-A964-3CA40BA75C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF2326F-9798-475D-A74B-38814A814A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="249">
   <si>
     <t>Header</t>
   </si>
@@ -1224,6 +1224,24 @@
   </si>
   <si>
     <t>Razor MS1 intenisty of a peptide</t>
+  </si>
+  <si>
+    <t>prot_icover</t>
+  </si>
+  <si>
+    <t>Protein sequence coverage by tryptic peptides</t>
+  </si>
+  <si>
+    <t>Protein sequence coverage by amino acid residues</t>
+  </si>
+  <si>
+    <t>Number of observed divided by number of possible</t>
+  </si>
+  <si>
+    <t>mean_lint</t>
+  </si>
+  <si>
+    <t>Mean log10 intensity (N_I...) across samples</t>
   </si>
 </sst>
 </file>
@@ -1744,11 +1762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1886,129 +1904,129 @@
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1">
       <c r="A13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1">
-      <c r="A14" s="28" t="s">
+    <row r="15" spans="1:3" s="6" customFormat="1">
+      <c r="A15" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" ht="25.5">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>161</v>
-      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="25.5">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="29" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.5">
-      <c r="A18" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="38.25">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="38.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="38.25">
+      <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:3" ht="25.5">
+      <c r="A22" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>156</v>
@@ -2016,10 +2034,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>156</v>
@@ -2027,10 +2045,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>156</v>
@@ -2038,140 +2056,140 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>50</v>
+      <c r="A28" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>163</v>
+        <v>75</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>171</v>
+        <v>50</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="19" customFormat="1" ht="38.25">
-      <c r="A31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="19" customFormat="1" ht="38.25">
       <c r="A32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="19" customFormat="1" ht="38.25">
+      <c r="A33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="19" customFormat="1">
-      <c r="A33" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" s="19" customFormat="1">
       <c r="A34" s="18" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" s="19" customFormat="1">
       <c r="A35" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" s="19" customFormat="1">
       <c r="A36" s="18" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" s="19" customFormat="1">
       <c r="A37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:3" s="19" customFormat="1">
+      <c r="A38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="29" t="s">
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="51">
-      <c r="A39" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5">
+    <row r="40" spans="1:3" ht="51">
       <c r="A40" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>156</v>
@@ -2179,311 +2197,322 @@
     </row>
     <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>152</v>
+      <c r="A43" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="38.25">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="38.25">
+      <c r="A45" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="29" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="25.5">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="25.5">
+      <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B53" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="25"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="18" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B56" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="18"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="25.5">
-      <c r="A62" s="18" t="s">
+    <row r="63" spans="1:3" ht="25.5">
+      <c r="A63" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B63" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="18"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="38.25">
-      <c r="A65" s="30" t="s">
+    <row r="66" spans="1:3" ht="38.25">
+      <c r="A66" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25.5">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:3" ht="25.5">
+      <c r="A67" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="25.5">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:3" ht="25.5">
+      <c r="A68" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="25.5">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:3" ht="25.5">
+      <c r="A71" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B61" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B56" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B62" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B57" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2492,11 +2521,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2576,261 +2605,261 @@
       <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>31</v>
+      <c r="A8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="38.25">
+      <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="25.5">
-      <c r="A10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5">
-      <c r="A16" s="18" t="s">
+    <row r="17" spans="1:3" ht="25.5">
+      <c r="A17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.5">
-      <c r="A17" s="33" t="s">
+    <row r="18" spans="1:3" ht="25.5">
+      <c r="A18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="19" customFormat="1">
-      <c r="A19" s="18" t="s">
+    <row r="20" spans="1:3" s="19" customFormat="1">
+      <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" s="19" customFormat="1" ht="25.5">
-      <c r="A20" s="18" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" s="19" customFormat="1" ht="25.5">
+      <c r="A21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" s="19" customFormat="1">
-      <c r="A21" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" s="19" customFormat="1">
       <c r="A22" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" s="19" customFormat="1">
+      <c r="A23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>215</v>
-      </c>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25.5">
-      <c r="A25" s="29" t="s">
+    <row r="26" spans="1:3" ht="25.5">
+      <c r="A26" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="31" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="39">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="39">
+      <c r="A31" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B31" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="26.25">
-      <c r="A31" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.25">
       <c r="A32" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>122</v>
@@ -2838,10 +2867,10 @@
     </row>
     <row r="33" spans="1:3" ht="26.25">
       <c r="A33" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>122</v>
@@ -2849,21 +2878,21 @@
     </row>
     <row r="34" spans="1:3" ht="26.25">
       <c r="A34" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" ht="26.25">
+    <row r="35" spans="1:3" ht="26.25">
       <c r="A35" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>122</v>
@@ -2871,10 +2900,10 @@
     </row>
     <row r="36" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A36" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>122</v>
@@ -2882,10 +2911,10 @@
     </row>
     <row r="37" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A37" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>122</v>
@@ -2893,248 +2922,270 @@
     </row>
     <row r="38" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A38" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="14" customFormat="1">
+    <row r="39" spans="1:3" s="14" customFormat="1" ht="26.25">
       <c r="A39" s="16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="14" customFormat="1">
       <c r="A40" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="14" customFormat="1">
       <c r="A41" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="14" customFormat="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="14" customFormat="1">
+      <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B43" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>212</v>
-      </c>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B45" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>206</v>
-      </c>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="18" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B48" s="25" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" s="14" customFormat="1">
-      <c r="A48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" s="14" customFormat="1">
       <c r="A49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" s="14" customFormat="1">
       <c r="A50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="18"/>
+    </row>
+    <row r="51" spans="1:3" s="14" customFormat="1">
+      <c r="A51" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B51" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="18"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B54" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="25"/>
-    </row>
-    <row r="54" spans="1:3" ht="25.5">
-      <c r="A54" s="18" t="s">
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:3" ht="25.5">
+      <c r="A55" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B55" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="25"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="30" t="s">
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="25"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="18" t="s">
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B58" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="25.5">
-      <c r="A57" s="25" t="s">
+      <c r="C58" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="25.5">
+      <c r="A59" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B59" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="25.5">
-      <c r="A58" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25.5">
       <c r="A60" s="25" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="38.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25.5">
       <c r="A62" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="38.25">
+      <c r="A63" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="25.5">
+      <c r="A64" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B64" s="25" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B53" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B48" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B54" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B49" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3143,11 +3194,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3228,266 +3279,288 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="25.5">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="25.5">
+      <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>139</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>212</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B19" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="18" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B30" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="25.5">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>221</v>
+      <c r="C30" s="25" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>197</v>
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="25.5">
-      <c r="A32" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5">
       <c r="A33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="25.5">
+      <c r="A34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="25.5">
+      <c r="A35" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B27" r:id="rId2" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B28" r:id="rId2" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36680217-ED05-4614-96F5-0F5662FEA221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68F473-0F54-4C71-8A6C-A2F9250D1E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="285">
   <si>
     <t>Header</t>
   </si>
@@ -863,9 +863,6 @@
     <t>Mascot sum of MS2 fragment-ion intensity of a peptide match</t>
   </si>
   <si>
-    <t>Mascot count of matched fragment ions of a peptide match</t>
-  </si>
-  <si>
     <r>
       <t>The second highest probablity, `</t>
     </r>
@@ -1293,6 +1290,12 @@
       </rPr>
       <t>Pep2Prn(method_pep_prn = ...)`</t>
     </r>
+  </si>
+  <si>
+    <t>Mascot count of matched and unmatched fragment ions of a peptide query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSFragger at UniProt fasta(s): fasta_name(s) being used for non-primary protein(s). </t>
   </si>
 </sst>
 </file>
@@ -1815,8 +1818,8 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1956,7 +1959,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
@@ -1973,7 +1976,7 @@
         <v>180</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="9"/>
     </row>
@@ -2081,7 +2084,7 @@
         <v>125</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5">
@@ -2092,7 +2095,7 @@
         <v>161</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2114,7 +2117,7 @@
         <v>166</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2301,7 +2304,7 @@
         <v>186</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C49" s="18"/>
     </row>
@@ -2386,12 +2389,12 @@
       </c>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="12.75">
+    <row r="59" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A59" s="18" t="s">
         <v>179</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="C59" s="9"/>
     </row>
@@ -2400,10 +2403,10 @@
         <v>85</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="32" customFormat="1" ht="12.75">
@@ -2420,7 +2423,7 @@
         <v>190</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -2429,7 +2432,7 @@
         <v>191</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -2438,10 +2441,10 @@
         <v>192</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="32" customFormat="1" ht="25.5">
@@ -2449,7 +2452,7 @@
         <v>193</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>98</v>
@@ -2460,7 +2463,7 @@
         <v>194</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>98</v>
@@ -2483,7 +2486,7 @@
         <v>145</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="32" customFormat="1" ht="12.75">
@@ -2549,12 +2552,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="25.5">
       <c r="A76" s="18" t="s">
         <v>188</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2562,7 +2568,7 @@
         <v>189</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2629,7 +2635,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25.5">
@@ -2637,7 +2643,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>126</v>
@@ -2648,7 +2654,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5">
@@ -2656,7 +2662,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>127</v>
@@ -2667,7 +2673,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>128</v>
@@ -2678,7 +2684,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2696,8 +2702,8 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2759,7 +2765,7 @@
         <v>180</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2887,10 +2893,10 @@
         <v>163</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2898,7 +2904,7 @@
         <v>164</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>98</v>
@@ -2909,7 +2915,7 @@
         <v>165</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>98</v>
@@ -2994,7 +3000,7 @@
         <v>186</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3002,10 +3008,10 @@
         <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3013,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>131</v>
@@ -3024,10 +3030,10 @@
         <v>85</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3046,7 +3052,7 @@
         <v>190</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
@@ -3054,7 +3060,7 @@
         <v>191</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39">
@@ -3062,7 +3068,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>158</v>
@@ -3073,7 +3079,7 @@
         <v>88</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>98</v>
@@ -3139,7 +3145,7 @@
         <v>94</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>98</v>
@@ -3150,7 +3156,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>98</v>
@@ -3274,16 +3280,18 @@
         <v>188</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="18"/>
+        <v>239</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="59" spans="1:3" s="14" customFormat="1">
       <c r="A59" s="18" t="s">
         <v>189</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="18"/>
     </row>
@@ -3359,7 +3367,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>132</v>
@@ -3370,7 +3378,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>133</v>
@@ -3381,7 +3389,7 @@
         <v>136</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>134</v>
@@ -3392,7 +3400,7 @@
         <v>137</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>135</v>
@@ -3403,7 +3411,7 @@
         <v>138</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25.5">
@@ -3429,8 +3437,8 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3492,7 +3500,7 @@
         <v>180</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="7"/>
     </row>
@@ -3588,21 +3596,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>98</v>
@@ -3610,10 +3618,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>98</v>
@@ -3777,10 +3785,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3788,7 +3796,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -3797,7 +3805,7 @@
         <v>137</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -3806,10 +3814,10 @@
         <v>138</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
@@ -3817,7 +3825,7 @@
         <v>139</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C41" s="2"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68F473-0F54-4C71-8A6C-A2F9250D1E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773843B2-1A7A-4BF6-8B7B-0BF0B1BE6893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -425,13 +425,7 @@
     <t>Calculated from the union of individual data sources.</t>
   </si>
   <si>
-    <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
-  </si>
-  <si>
     <t>Peptide sequence is unique or not.</t>
-  </si>
-  <si>
-    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity.</t>
   </si>
   <si>
     <r>
@@ -464,9 +458,6 @@
     <t>Expectation value or posterior error probability of PSM</t>
   </si>
   <si>
-    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users.</t>
-  </si>
-  <si>
     <t>Geometric-mean description from PSMs.</t>
   </si>
   <si>
@@ -511,9 +502,6 @@
     </r>
   </si>
   <si>
-    <t>The calibration factors for the alignment of log2FC are used to scale the reporter-ion intensity.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Calculated from contributing </t>
     </r>
@@ -644,9 +632,6 @@
     <t>One of `refseq_acc`, `uniprot_acc`, `uniprot_id` or `other_acc`.</t>
   </si>
   <si>
-    <t>Optional at "normPSM(group_psm_by = pep_seq_mod, use_lowercase_aa = TRUE)". See also. `?proteoQ::normPSM`.</t>
-  </si>
-  <si>
     <t>pep_literal_unique</t>
   </si>
   <si>
@@ -686,9 +671,6 @@
     <t>Protein sequence coverage by amino acid residues</t>
   </si>
   <si>
-    <t>Number of observed divided by number of possible</t>
-  </si>
-  <si>
     <t>mean_lint</t>
   </si>
   <si>
@@ -782,9 +764,6 @@
     <t>Mascot empirical protein abundance index</t>
   </si>
   <si>
-    <t>No data joining taken into account etc.</t>
-  </si>
-  <si>
     <t>Protein taxonomy as string</t>
   </si>
   <si>
@@ -831,9 +810,6 @@
   </si>
   <si>
     <t>MaxQuant, `PEP`. MSFragger, `Expectation`. Spectrum Mill, NA.</t>
-  </si>
-  <si>
-    <t>E.g. "_mAsGVAVSDGVIK" with a methionine oxidation and a serine phosphorylation. The acetylation of a protein N-terminal is indicated by '_'.</t>
   </si>
   <si>
     <t>Mascot variable modifications from all sources as list of names</t>
@@ -936,12 +912,6 @@
     <t>Mascot: the second series of ions being matched under a PSM query</t>
   </si>
   <si>
-    <t>Need enabled MS/MS peak lists during PSM exports</t>
-  </si>
-  <si>
-    <t>By default, the character string before the first white space. See also ?read_fasta for additional options.</t>
-  </si>
-  <si>
     <t>List of protein accesssions under the same group</t>
   </si>
   <si>
@@ -1296,6 +1266,36 @@
   </si>
   <si>
     <t xml:space="preserve">MSFragger at UniProt fasta(s): fasta_name(s) being used for non-primary protein(s). </t>
+  </si>
+  <si>
+    <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity across all channels or filtered by users.</t>
+  </si>
+  <si>
+    <t>No data joining taken into account.</t>
+  </si>
+  <si>
+    <t>Number of observed divided by number of possibles.</t>
+  </si>
+  <si>
+    <t>E.g.`_mAsGVAVSDGVIK` with a methionine oxidation and a serine phosphorylation. The acetylation of a protein N-terminal is indicated by `_`.</t>
+  </si>
+  <si>
+    <t>Need enabled `MS/MS peak lists` during PSM exports</t>
+  </si>
+  <si>
+    <t>By default, the character string before the first white space. See also `?read_fasta` for additional options.</t>
+  </si>
+  <si>
+    <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity across samples.</t>
+  </si>
+  <si>
+    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity across all samples or filtered by users.</t>
+  </si>
+  <si>
+    <t>Optional at `normPSM(group_psm_by = pep_seq_mod, use_lowercase_aa = TRUE)`. See also. `?proteoQ::normPSM`.</t>
+  </si>
+  <si>
+    <t>The calibration factors for the alignment of log2FC are used to scale the reporter-ion intensity across samples.</t>
   </si>
 </sst>
 </file>
@@ -1817,9 +1817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1845,7 +1845,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -1854,7 +1854,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -1866,7 +1866,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1">
@@ -1883,7 +1883,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7"/>
     </row>
@@ -1901,10 +1901,10 @@
         <v>58</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
@@ -1912,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>98</v>
@@ -1923,7 +1923,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>98</v>
@@ -1934,7 +1934,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>98</v>
@@ -1948,7 +1948,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
@@ -1959,7 +1959,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
@@ -1973,58 +1973,58 @@
     </row>
     <row r="15" spans="1:3" s="6" customFormat="1">
       <c r="A15" s="18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1">
       <c r="A16" s="33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="33" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="33" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A20" s="25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -2032,7 +2032,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>123</v>
@@ -2043,7 +2043,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C22" s="7"/>
     </row>
@@ -2052,7 +2052,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C23" s="7"/>
     </row>
@@ -2064,7 +2064,7 @@
         <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="38.25">
@@ -2072,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C25" s="7"/>
     </row>
@@ -2081,29 +2081,29 @@
         <v>50</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>98</v>
@@ -2111,21 +2111,21 @@
     </row>
     <row r="29" spans="1:3" ht="38.25">
       <c r="A29" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>98</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>98</v>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C32" s="7"/>
     </row>
@@ -2156,7 +2156,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C33" s="7"/>
     </row>
@@ -2165,7 +2165,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C34" s="7"/>
     </row>
@@ -2174,7 +2174,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C35" s="7"/>
     </row>
@@ -2183,7 +2183,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C36" s="7"/>
     </row>
@@ -2195,23 +2195,23 @@
         <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5">
@@ -2219,10 +2219,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="19" customFormat="1">
@@ -2251,7 +2251,7 @@
         <v>119</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="19" customFormat="1">
@@ -2301,10 +2301,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C49" s="18"/>
     </row>
@@ -2313,7 +2313,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C50" s="7"/>
     </row>
@@ -2322,7 +2322,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C51" s="7"/>
     </row>
@@ -2331,7 +2331,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -2340,16 +2340,16 @@
         <v>71</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3" ht="25.5">
       <c r="A54" s="33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C54" s="7"/>
     </row>
@@ -2358,43 +2358,43 @@
         <v>72</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" s="32" customFormat="1" ht="12.75">
       <c r="A57" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A58" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A59" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C59" s="9"/>
     </row>
@@ -2403,10 +2403,10 @@
         <v>85</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="32" customFormat="1" ht="12.75">
@@ -2420,39 +2420,39 @@
     </row>
     <row r="62" spans="1:3" s="32" customFormat="1" ht="12.75">
       <c r="A62" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A63" s="18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A64" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A65" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>98</v>
@@ -2460,10 +2460,10 @@
     </row>
     <row r="66" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A66" s="18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>98</v>
@@ -2480,21 +2480,21 @@
     </row>
     <row r="68" spans="1:3" s="32" customFormat="1" ht="25.5">
       <c r="A68" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="32" customFormat="1" ht="12.75">
       <c r="A69" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="C69" s="25"/>
     </row>
@@ -2503,25 +2503,25 @@
         <v>19</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C70" s="18"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="C71" s="18"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="C72" s="18"/>
     </row>
@@ -2549,26 +2549,26 @@
         <v>3</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25.5">
       <c r="A76" s="18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2635,18 +2635,18 @@
         <v>79</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="25.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="38.25">
       <c r="A86" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5">
@@ -2662,10 +2662,10 @@
         <v>81</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25.5">
@@ -2673,10 +2673,10 @@
         <v>83</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2684,7 +2684,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2701,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2762,53 +2762,53 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="33" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="33" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
@@ -2860,18 +2860,18 @@
         <v>50</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>98</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>98</v>
@@ -2890,21 +2890,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>98</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>98</v>
@@ -2937,7 +2937,7 @@
         <v>116</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5">
@@ -2948,7 +2948,7 @@
         <v>119</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2997,10 +2997,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3008,10 +3008,10 @@
         <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3019,10 +3019,10 @@
         <v>49</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5">
@@ -3030,10 +3030,10 @@
         <v>85</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3044,23 +3044,23 @@
         <v>102</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
       <c r="A36" s="34" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39">
@@ -3068,10 +3068,10 @@
         <v>87</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.25">
@@ -3079,7 +3079,7 @@
         <v>88</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>98</v>
@@ -3145,7 +3145,7 @@
         <v>94</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>98</v>
@@ -3156,7 +3156,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>98</v>
@@ -3170,7 +3170,7 @@
         <v>109</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="14" customFormat="1">
@@ -3206,21 +3206,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="C51" s="25"/>
     </row>
@@ -3229,23 +3229,23 @@
         <v>19</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="14" customFormat="1">
@@ -3277,21 +3277,21 @@
     </row>
     <row r="58" spans="1:3" s="14" customFormat="1">
       <c r="A58" s="18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="14" customFormat="1">
       <c r="A59" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C59" s="18"/>
     </row>
@@ -3333,21 +3333,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>98</v>
@@ -3367,10 +3367,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25.5">
@@ -3378,48 +3378,48 @@
         <v>21</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25.5">
       <c r="A70" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="38.25">
       <c r="A71" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25.5">
       <c r="A72" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3436,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3497,55 +3497,55 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="33" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="33" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -3596,21 +3596,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>98</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>98</v>
@@ -3665,19 +3665,19 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="C25" s="25"/>
     </row>
@@ -3686,25 +3686,25 @@
         <v>19</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="C28" s="18"/>
     </row>
@@ -3764,19 +3764,19 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C36" s="25"/>
     </row>
@@ -3785,10 +3785,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3796,36 +3796,36 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C41" s="2"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773843B2-1A7A-4BF6-8B7B-0BF0B1BE6893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67840150-A74C-4FDC-8916-1109B20996CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,13 +1289,13 @@
     <t>The calibration factors for the alignment of `log2R...` are used to scale the reporter-ion intensity across samples.</t>
   </si>
   <si>
-    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity across all samples or filtered by users.</t>
-  </si>
-  <si>
     <t>Optional at `normPSM(group_psm_by = pep_seq_mod, use_lowercase_aa = TRUE)`. See also. `?proteoQ::normPSM`.</t>
   </si>
   <si>
     <t>The calibration factors for the alignment of log2FC are used to scale the reporter-ion intensity across samples.</t>
+  </si>
+  <si>
+    <t>Joint results from individual PSM tables; the counts exclude entries that are filtered by users.</t>
   </si>
 </sst>
 </file>
@@ -2702,14 +2702,14 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="18" customWidth="1"/>
     <col min="3" max="3" width="50.85546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2822,7 +2822,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="38.25">
+    <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
@@ -3071,7 +3071,7 @@
         <v>242</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.25">
@@ -3381,7 +3381,7 @@
         <v>247</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:3">

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67840150-A74C-4FDC-8916-1109B20996CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
     <sheet name="mascot_pep" sheetId="5" r:id="rId2"/>
     <sheet name="mascot_prot" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -939,9 +938,6 @@
     <t>The highest probablity from site analysis of the variable modification sites</t>
   </si>
   <si>
-    <t>Score of PSM(s)</t>
-  </si>
-  <si>
     <t>Expectation value or posterior error probability of PSM(s)</t>
   </si>
   <si>
@@ -1296,12 +1292,15 @@
   </si>
   <si>
     <t>Joint results from individual PSM tables; the counts exclude entries that are filtered by users.</t>
+  </si>
+  <si>
+    <t>Score of peptide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1814,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1904,7 +1903,7 @@
         <v>190</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
@@ -1948,7 +1947,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
@@ -2024,7 +2023,7 @@
         <v>201</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -2251,7 +2250,7 @@
         <v>119</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="19" customFormat="1">
@@ -2394,7 +2393,7 @@
         <v>173</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" s="9"/>
     </row>
@@ -2444,7 +2443,7 @@
         <v>226</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="32" customFormat="1" ht="25.5">
@@ -2486,7 +2485,7 @@
         <v>141</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="32" customFormat="1" ht="12.75">
@@ -2560,7 +2559,7 @@
         <v>229</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2635,7 +2634,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="38.25">
@@ -2643,10 +2642,10 @@
         <v>80</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2654,7 +2653,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5">
@@ -2662,7 +2661,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>125</v>
@@ -2673,7 +2672,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>126</v>
@@ -2684,13 +2683,13 @@
         <v>84</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B80" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B73" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B80" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B73" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2698,12 +2697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2800,7 +2799,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
@@ -2844,7 +2843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.5">
+    <row r="15" spans="1:3">
       <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
@@ -2893,10 +2892,10 @@
         <v>158</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2904,7 +2903,7 @@
         <v>159</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>98</v>
@@ -2915,7 +2914,7 @@
         <v>160</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>98</v>
@@ -2968,7 +2967,7 @@
       </c>
       <c r="C26" s="18"/>
     </row>
-    <row r="27" spans="1:3" s="19" customFormat="1" ht="25.5">
+    <row r="27" spans="1:3" s="19" customFormat="1">
       <c r="A27" s="18" t="s">
         <v>52</v>
       </c>
@@ -3008,10 +3007,10 @@
         <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3019,7 +3018,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>128</v>
@@ -3033,7 +3032,7 @@
         <v>237</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3068,10 +3067,10 @@
         <v>87</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.25">
@@ -3079,13 +3078,13 @@
         <v>88</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="26.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="16" t="s">
         <v>89</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="26.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
         <v>90</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="26.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="16" t="s">
         <v>91</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="14" customFormat="1" ht="26.25">
+    <row r="43" spans="1:3" s="14" customFormat="1">
       <c r="A43" s="16" t="s">
         <v>93</v>
       </c>
@@ -3140,12 +3139,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" ht="26.25">
+    <row r="44" spans="1:3" s="14" customFormat="1">
       <c r="A44" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>98</v>
@@ -3156,7 +3155,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>98</v>
@@ -3322,7 +3321,7 @@
       </c>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:3" ht="25.5">
+    <row r="63" spans="1:3">
       <c r="A63" s="18" t="s">
         <v>75</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>129</v>
@@ -3378,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3389,7 +3388,7 @@
         <v>132</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>130</v>
@@ -3400,21 +3399,21 @@
         <v>133</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="38.25">
+    <row r="71" spans="1:3" ht="25.5">
       <c r="A71" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="25.5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="25" t="s">
         <v>135</v>
       </c>
@@ -3424,8 +3423,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B62" r:id="rId1" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B55" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B62" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B55" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3433,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3596,21 +3595,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>98</v>
@@ -3618,10 +3617,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>98</v>
@@ -3785,10 +3784,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3796,7 +3795,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -3805,7 +3804,7 @@
         <v>133</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -3814,10 +3813,10 @@
         <v>134</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
@@ -3825,14 +3824,14 @@
         <v>135</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C41" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B34" r:id="rId2" display="http://kinase.com/human/kinome/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B29" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B34" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
-    <sheet name="mascot_pep" sheetId="5" r:id="rId2"/>
+    <sheet name="mascot_pep" sheetId="7" r:id="rId2"/>
     <sheet name="mascot_prot" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="328">
   <si>
     <t>Header</t>
   </si>
@@ -45,9 +45,6 @@
     <t>acc_type</t>
   </si>
   <si>
-    <t>The type of accession names</t>
-  </si>
-  <si>
     <t>entrez</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>species</t>
   </si>
   <si>
-    <t>The species of a protein entry</t>
-  </si>
-  <si>
     <t>gene</t>
   </si>
   <si>
@@ -133,15 +127,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>The attribute of proteins being kinases</t>
-  </si>
-  <si>
-    <t>The classes of kinases, e.g., TK, TKL...</t>
-  </si>
-  <si>
-    <t>The order of "kin_class" from the kinase tree diagram</t>
   </si>
   <si>
     <t>Count of significant PSMs in quantitation under a proposed protein</t>
@@ -169,12 +154,6 @@
     </r>
   </si>
   <si>
-    <t>The number of amino acid residues under a proposed protein</t>
-  </si>
-  <si>
-    <t>MS file name(s) where peptides or proteins are identified</t>
-  </si>
-  <si>
     <t>pep_calc_mr</t>
   </si>
   <si>
@@ -271,18 +250,12 @@
     <t>pep_scan_title</t>
   </si>
   <si>
-    <t>Counts of significant PSMs in quantitation under a proposed peptide</t>
-  </si>
-  <si>
     <t>prot_len</t>
   </si>
   <si>
     <t>is_tryptic</t>
   </si>
   <si>
-    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
-  </si>
-  <si>
     <t>pep_len</t>
   </si>
   <si>
@@ -340,24 +313,9 @@
     <t>pep_mod_protct</t>
   </si>
   <si>
-    <t>Logical indicating if a sequence contains methionine oxidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains asparagine deamidation</t>
-  </si>
-  <si>
     <t>v.s.</t>
   </si>
   <si>
-    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains C-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains N-terminal modification</t>
-  </si>
-  <si>
     <t>pep_locprob – pep_locprob2</t>
   </si>
   <si>
@@ -404,9 +362,6 @@
   </si>
   <si>
     <t>dat_file</t>
-  </si>
-  <si>
-    <t>File name(s) of PSM results</t>
   </si>
   <si>
     <t>`pep_seq` with variable modifications</t>
@@ -664,12 +619,6 @@
     <t>prot_icover</t>
   </si>
   <si>
-    <t>Protein sequence coverage by tryptic peptides</t>
-  </si>
-  <si>
-    <t>Protein sequence coverage by amino acid residues</t>
-  </si>
-  <si>
     <t>mean_lint</t>
   </si>
   <si>
@@ -745,12 +694,6 @@
     <t>Mascot protein score</t>
   </si>
   <si>
-    <t>Mascot ordinal number of the protein hit (or protein family when grouping enabled)</t>
-  </si>
-  <si>
-    <t>Mascot ordinal number of the protein family member when grouping enabled</t>
-  </si>
-  <si>
     <t>Mascot count of PSMs that have significant scores under a proposed protein</t>
   </si>
   <si>
@@ -763,18 +706,6 @@
     <t>Mascot empirical protein abundance index</t>
   </si>
   <si>
-    <t>Protein taxonomy as string</t>
-  </si>
-  <si>
-    <t>Protein taxonomy as Tax ID</t>
-  </si>
-  <si>
-    <t>Protein sequence in 1 letter code</t>
-  </si>
-  <si>
-    <t>Integerized protein sequence coverage by counts of tryptic peptides</t>
-  </si>
-  <si>
     <t>Mascot ordinal number of query after sorting by Mr</t>
   </si>
   <si>
@@ -784,21 +715,6 @@
     <t>Mascot: if grouping enabled, then a significant PSM. Otherwise, indicates this is the highest scoring protein that contains a match to this query.</t>
   </si>
   <si>
-    <t>Mascot observed or experimental m/z value</t>
-  </si>
-  <si>
-    <t>Mascot molecular mass calculated from experimental m/z value</t>
-  </si>
-  <si>
-    <t>Mascot observed or experimental charge</t>
-  </si>
-  <si>
-    <t>Mascot molecular mass calculated from matched peptide sequence</t>
-  </si>
-  <si>
-    <t>Mascot pep_exp_mr – pep_calc_mr</t>
-  </si>
-  <si>
     <t>MaxQuant, `Score`. MSFragger, `Hyperscore`. Spectrum Mill, `score`.</t>
   </si>
   <si>
@@ -808,9 +724,6 @@
     <t>Mascot identity threshold score for PSM</t>
   </si>
   <si>
-    <t>MaxQuant, `PEP`. MSFragger, `Expectation`. Spectrum Mill, NA.</t>
-  </si>
-  <si>
     <t>Mascot variable modifications from all sources as list of names</t>
   </si>
   <si>
@@ -826,13 +739,7 @@
     <t>Mascot count of fragment ion matches in ion series used to calculate the score</t>
   </si>
   <si>
-    <t>Mascot scan title taken from peak list</t>
-  </si>
-  <si>
     <t>Mascot scan number range of a peptide match</t>
-  </si>
-  <si>
-    <t>Mascot retention time range of a peptide match</t>
   </si>
   <si>
     <t>Mascot sum of MS2 fragment-ion intensity of a peptide match</t>
@@ -917,15 +824,9 @@
     <t>List of genes under the same group</t>
   </si>
   <si>
-    <t>v.s.; at `group_pep_by = pep_seq_mod`, the same peptide with different variable modifications will be counted as different sequences.</t>
-  </si>
-  <si>
     <t>Mascot calculation of protein isoelectric point</t>
   </si>
   <si>
-    <t>Floating indicator at the levels of protein groups, protein IDs or none, according to  `normPSM(pep_unique_by = ...)`. Spectrum Mill: NA.</t>
-  </si>
-  <si>
     <t>Mascot: need enabled `Raw peptide match data` in PSM exports; also `MS/MS peak list` for `pep_ms2_sumint` and `pep_n_ions`.</t>
   </si>
   <si>
@@ -941,22 +842,7 @@
     <t>Expectation value or posterior error probability of PSM(s)</t>
   </si>
   <si>
-    <t>Mean description from PSMs.</t>
-  </si>
-  <si>
     <t>Sum statistics from PSMs</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains protein N-terminal modification</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains protein N-terminal acetylation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains protein C-terminal amidation</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence contains protein C-terminal modification</t>
   </si>
   <si>
     <t>Reporter-ion intensity; I000 in LFQ</t>
@@ -1264,15 +1150,6 @@
     <t xml:space="preserve">MSFragger at UniProt fasta(s): fasta_name(s) being used for non-primary protein(s). </t>
   </si>
   <si>
-    <t>By each TMT experiment and LC/MS series; the counts exclude entries that are void in reporter-ion intensity across all channels or filtered by users.</t>
-  </si>
-  <si>
-    <t>No data joining taken into account.</t>
-  </si>
-  <si>
-    <t>Number of observed divided by number of possibles.</t>
-  </si>
-  <si>
     <t>E.g.`_mAsGVAVSDGVIK` with a methionine oxidation and a serine phosphorylation. The acetylation of a protein N-terminal is indicated by `_`.</t>
   </si>
   <si>
@@ -1295,6 +1172,258 @@
   </si>
   <si>
     <t>Score of peptide</t>
+  </si>
+  <si>
+    <t>pep_ret_sd</t>
+  </si>
+  <si>
+    <t>v.s.; at `group_psm_by = pep_seq_mod`, the same peptide with different variable modifications will be counted as different sequences.</t>
+  </si>
+  <si>
+    <t>pep_n_exp_z</t>
+  </si>
+  <si>
+    <t>Experimental charge state</t>
+  </si>
+  <si>
+    <t>prot_issig</t>
+  </si>
+  <si>
+    <t>prot_isess</t>
+  </si>
+  <si>
+    <t>Protein identification is significant or not</t>
+  </si>
+  <si>
+    <t>Protein identification is essential or not</t>
+  </si>
+  <si>
+    <t>prot_tier</t>
+  </si>
+  <si>
+    <t>Protein tier</t>
+  </si>
+  <si>
+    <t>prot_es</t>
+  </si>
+  <si>
+    <t>Protein enrichment score</t>
+  </si>
+  <si>
+    <t>prot_es_co</t>
+  </si>
+  <si>
+    <t>Protein enrichment score cut-off</t>
+  </si>
+  <si>
+    <t>Ordinal number of the protein family member</t>
+  </si>
+  <si>
+    <t>Ordinal number of the protein hit</t>
+  </si>
+  <si>
+    <t>Mascot protein taxonomy as string</t>
+  </si>
+  <si>
+    <t>Mascot protein taxonomy as Tax ID</t>
+  </si>
+  <si>
+    <t>Mascot protein sequence in 1 letter code</t>
+  </si>
+  <si>
+    <t>pep_scan_num</t>
+  </si>
+  <si>
+    <t>pep_mod_group</t>
+  </si>
+  <si>
+    <t>pep_fmod</t>
+  </si>
+  <si>
+    <t>pep_vmod</t>
+  </si>
+  <si>
+    <t>pep_isdecoy</t>
+  </si>
+  <si>
+    <t>Is peptide identication a decoy or not</t>
+  </si>
+  <si>
+    <t>pep_ivmod</t>
+  </si>
+  <si>
+    <t>Number of neutral losses under the same `group_psm_by`</t>
+  </si>
+  <si>
+    <t>pep_issig</t>
+  </si>
+  <si>
+    <t>Is peptide identication significant or not</t>
+  </si>
+  <si>
+    <t>pep_score_co</t>
+  </si>
+  <si>
+    <t>Peptide enrichment score cut-off</t>
+  </si>
+  <si>
+    <t>pep_rank_nl</t>
+  </si>
+  <si>
+    <t>pep_n_nl</t>
+  </si>
+  <si>
+    <t>Number of amino acid residues under a proposed protein</t>
+  </si>
+  <si>
+    <t>Molecular mass calculated from experimental m/z value</t>
+  </si>
+  <si>
+    <t>Molecular mass calculated from matched peptide sequence</t>
+  </si>
+  <si>
+    <t>pep_exp_mr – pep_calc_mr</t>
+  </si>
+  <si>
+    <t>Scan title taken from peak list</t>
+  </si>
+  <si>
+    <t>proteoM: `pep_scan_num`</t>
+  </si>
+  <si>
+    <t>Species of a protein entry</t>
+  </si>
+  <si>
+    <t>Type of accession names</t>
+  </si>
+  <si>
+    <t>'Mascot calculation of translation frame number</t>
+  </si>
+  <si>
+    <t>pep_n_ms2</t>
+  </si>
+  <si>
+    <t>Before data joining.</t>
+  </si>
+  <si>
+    <t>Number of observed sequences divided by number of possible sequences (only applied to tryptic sequences).</t>
+  </si>
+  <si>
+    <t>Count of significant PSMs in quantitation under a proposed peptide</t>
+  </si>
+  <si>
+    <t>Floating indicator at the levels of protein groups, protein IDs or none, according to  `normPSM(pep_unique_by = ...)`.</t>
+  </si>
+  <si>
+    <t>Experimental m/z value</t>
+  </si>
+  <si>
+    <t>Number of neutral losses under the same `pep_seq_mod`</t>
+  </si>
+  <si>
+    <t>Is protein with an attribute of kinase or not</t>
+  </si>
+  <si>
+    <t>Class of kinases, e.g., TK, TKL...</t>
+  </si>
+  <si>
+    <t>Order of "kin_class" from the kinase tree diagram</t>
+  </si>
+  <si>
+    <t>Is a peptide sequence a canonical tryptic peptide or not</t>
+  </si>
+  <si>
+    <t>File name of PSM results</t>
+  </si>
+  <si>
+    <t>MS file name where peptides or proteins are identified</t>
+  </si>
+  <si>
+    <t>See also PSM keys for levels of uniqueness</t>
+  </si>
+  <si>
+    <t>Median description from PSMs.</t>
+  </si>
+  <si>
+    <t>Median description from PSMs. The levels of peptide uniqueness are according to `group_psm_by`.</t>
+  </si>
+  <si>
+    <t>Number of unique charge states under a peptide sequence</t>
+  </si>
+  <si>
+    <t>Is if a sequence contains protein N-terminal modification</t>
+  </si>
+  <si>
+    <t>Is a sequence contains protein N-terminal acetylation</t>
+  </si>
+  <si>
+    <t>Is a sequence contains N-terminal modification</t>
+  </si>
+  <si>
+    <t>Is a sequence contains methionine oxidation</t>
+  </si>
+  <si>
+    <t>Is a sequence contains asparagine deamidation</t>
+  </si>
+  <si>
+    <t>Is a sequence contains the phospholyration of serine, threonine or tyrosine</t>
+  </si>
+  <si>
+    <t>Is a sequence contains C-terminal modification</t>
+  </si>
+  <si>
+    <t>Is a sequence contains protein C-terminal amidation</t>
+  </si>
+  <si>
+    <t>Is a sequence contains protein C-terminal modification</t>
+  </si>
+  <si>
+    <t>By each TMT (LFQ) experiment and/or LC/MS series; the counts exclude entries that are void in reporter-ion intensity across all channels or filtered by users.</t>
+  </si>
+  <si>
+    <t>Coverage of protein sequence by amino acid residues</t>
+  </si>
+  <si>
+    <t>Protein sequence coverage by counts of tryptic peptides</t>
+  </si>
+  <si>
+    <t>The levels of peptide uniqueness are according to `group_psm_by`.</t>
+  </si>
+  <si>
+    <t>MaxQuant, `PEP`. MSFragger, `Expectation`.</t>
+  </si>
+  <si>
+    <t>Range of LCMS retention times of a peptide match</t>
+  </si>
+  <si>
+    <t>Standard deviation of `pep_ret_range`</t>
+  </si>
+  <si>
+    <t>Number of entries in a peak list</t>
+  </si>
+  <si>
+    <t>MS scan number of peptide</t>
+  </si>
+  <si>
+    <t>Fix modifications of peptide</t>
+  </si>
+  <si>
+    <t>Variable modificaiton of peptide</t>
+  </si>
+  <si>
+    <t>Index of peptide modification group</t>
+  </si>
+  <si>
+    <t>Variable modificaiton of peptide as a string of hexcodes</t>
+  </si>
+  <si>
+    <t>Ordinal number of neutral loss under the same peptide including modifications (`pep_seq_mod`)</t>
+  </si>
+  <si>
+    <t>Ordianl number of neutral lossin in square brackets for fixed modifications and in round parentheses for variable modifications.</t>
+  </si>
+  <si>
+    <t>Standard deviation of `pep_ret_range` across samples and LCMS series</t>
   </si>
 </sst>
 </file>
@@ -1392,18 +1521,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1413,13 +1536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1522,16 +1657,57 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1540,6 +1716,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1814,17 +1996,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="48.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1836,860 +2018,1032 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="25.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="25.5">
+    <row r="3" spans="1:3" s="6" customFormat="1">
       <c r="A3" s="18" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1">
-      <c r="A6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="A6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1">
       <c r="A7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1">
+      <c r="A8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
+      <c r="A9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B9" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1">
+      <c r="A10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="25.5">
+      <c r="A11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1">
-      <c r="A8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
-      <c r="A9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1">
-      <c r="A10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="25.5">
-      <c r="A11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>98</v>
+      <c r="B11" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A12" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A13" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
       <c r="A14" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" s="6" customFormat="1">
-      <c r="A15" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="A15" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1">
-      <c r="A16" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="9"/>
+      <c r="A16" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
-      <c r="A17" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="A17" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
-      <c r="A18" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="9"/>
+      <c r="A18" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
-      <c r="A19" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="7"/>
+      <c r="A19" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A20" s="25" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
       <c r="A21" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="45" customFormat="1">
+      <c r="A22" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" s="45" customFormat="1">
+      <c r="A23" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" s="45" customFormat="1">
+      <c r="A24" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3" s="45" customFormat="1">
+      <c r="A25" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" s="45" customFormat="1">
+      <c r="A26" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="34"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="1:3" ht="25.5">
+      <c r="A28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="38.25">
+      <c r="A30" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="38"/>
+    </row>
+    <row r="31" spans="1:3" ht="38.25">
+      <c r="A31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="25.5">
+      <c r="A32" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" ht="25.5">
-      <c r="A24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="38.25">
-      <c r="A25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" ht="38.25">
-      <c r="A26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.5">
-      <c r="A27" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="38.25">
-      <c r="A29" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" ht="25.5">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="38.25">
       <c r="A34" s="18" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" ht="25.5">
+        <v>146</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" ht="25.5">
+        <v>148</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>211</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="18" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="25.5">
-      <c r="A40" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="19" customFormat="1">
+        <v>247</v>
+      </c>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" s="19" customFormat="1" ht="25.5">
+      <c r="A40" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" s="19" customFormat="1" ht="25.5">
+        <v>279</v>
+      </c>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="22"/>
-    </row>
-    <row r="43" spans="1:3" s="19" customFormat="1" ht="38.25">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" ht="25.5">
       <c r="A43" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="19" customFormat="1">
-      <c r="A44" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="18"/>
-    </row>
-    <row r="45" spans="1:3" s="19" customFormat="1">
-      <c r="A45" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="23"/>
-    </row>
-    <row r="46" spans="1:3" s="19" customFormat="1">
-      <c r="A46" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="37"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="37"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="47" spans="1:3" s="19" customFormat="1">
       <c r="A47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" s="19" customFormat="1" ht="25.5">
+      <c r="A48" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="1:3" s="19" customFormat="1" ht="38.25">
+      <c r="A49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="19" customFormat="1">
+      <c r="A50" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="18"/>
+    </row>
+    <row r="51" spans="1:3" s="19" customFormat="1">
+      <c r="A51" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="23"/>
+    </row>
+    <row r="52" spans="1:3" s="19" customFormat="1">
+      <c r="A52" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="23"/>
+    </row>
+    <row r="53" spans="1:3" s="19" customFormat="1">
+      <c r="A53" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="18"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="37"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="38"/>
+    </row>
+    <row r="57" spans="1:3" ht="38.25">
+      <c r="A57" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="38"/>
+    </row>
+    <row r="58" spans="1:3" ht="25.5">
+      <c r="A58" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="38"/>
+    </row>
+    <row r="59" spans="1:3" ht="25.5">
+      <c r="A59" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="38"/>
+    </row>
+    <row r="60" spans="1:3" ht="25.5">
+      <c r="A60" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="38"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A63" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="22"/>
+    </row>
+    <row r="64" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A64" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A65" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="41"/>
+    </row>
+    <row r="66" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A66" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="41"/>
+    </row>
+    <row r="67" spans="1:3" s="30" customFormat="1" ht="38.25">
+      <c r="A67" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A68" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="23"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="18"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="18"/>
-    </row>
-    <row r="50" spans="1:3" ht="25.5">
-      <c r="A50" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" ht="51">
-      <c r="A51" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" ht="25.5">
-      <c r="A52" s="18" t="s">
+      <c r="B68" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A69" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A70" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A71" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A72" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A73" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A74" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" s="32"/>
+    </row>
+    <row r="75" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A75" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" s="32"/>
+    </row>
+    <row r="76" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A76" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" s="32"/>
+    </row>
+    <row r="77" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A77" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" s="32"/>
+    </row>
+    <row r="78" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A78" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78" s="32"/>
+    </row>
+    <row r="79" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A79" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" s="32"/>
+    </row>
+    <row r="80" spans="1:3" s="31" customFormat="1" ht="38.25">
+      <c r="A80" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A81" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="32"/>
+    </row>
+    <row r="82" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A82" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="32"/>
+    </row>
+    <row r="83" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A83" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" s="32"/>
+    </row>
+    <row r="84" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A84" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" s="32"/>
+    </row>
+    <row r="85" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A85" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A86" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A87" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A88" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="18"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="18"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="18"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="25.5">
+      <c r="A93" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="25.5">
+      <c r="A94" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:3" ht="25.5">
-      <c r="A53" s="18" t="s">
+      <c r="B103" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="38.25">
+      <c r="A104" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" ht="25.5">
-      <c r="A54" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="18" t="s">
+      <c r="B104" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="25.5">
+      <c r="A106" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:3" s="32" customFormat="1" ht="12.75">
-      <c r="A57" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="1:3" s="32" customFormat="1" ht="25.5">
-      <c r="A58" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:3" s="32" customFormat="1" ht="25.5">
-      <c r="A59" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:3" s="32" customFormat="1" ht="38.25">
-      <c r="A60" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="32" customFormat="1" ht="12.75">
-      <c r="A61" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" s="32" customFormat="1" ht="12.75">
-      <c r="A62" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="B106" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" s="32" customFormat="1" ht="25.5">
-      <c r="A63" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="C106" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="25.5">
+      <c r="A107" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" s="32" customFormat="1" ht="25.5">
-      <c r="A64" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="C107" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="32" customFormat="1" ht="25.5">
-      <c r="A65" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="32" customFormat="1" ht="25.5">
-      <c r="A66" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="32" customFormat="1" ht="12.75">
-      <c r="A67" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" s="32" customFormat="1" ht="25.5">
-      <c r="A68" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="32" customFormat="1" ht="12.75">
-      <c r="A69" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="25"/>
-    </row>
-    <row r="70" spans="1:3" s="32" customFormat="1" ht="12.75">
-      <c r="A70" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="18"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="18"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="18"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="25.5">
-      <c r="A75" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="25.5">
-      <c r="A76" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="25.5">
-      <c r="A81" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="18"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="38.25">
-      <c r="A86" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="25.5">
-      <c r="A88" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="25.5">
-      <c r="A89" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B80" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B73" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B98" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B91" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2698,18 +3052,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2720,711 +3075,833 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="A6" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="A7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="A8" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>200</v>
-      </c>
+      <c r="A9" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="A10" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="25.5">
+      <c r="A18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.5">
-      <c r="A13" s="18" t="s">
+      <c r="C18" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="25.5">
+      <c r="A28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5">
+      <c r="A29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.5">
-      <c r="A14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5">
-      <c r="A24" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="19" customFormat="1">
-      <c r="A26" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:3" s="19" customFormat="1">
-      <c r="A27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:3" s="19" customFormat="1">
-      <c r="A28" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="25"/>
-    </row>
-    <row r="29" spans="1:3" s="19" customFormat="1">
-      <c r="A29" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="25.5">
-      <c r="A33" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="19" customFormat="1">
+      <c r="A31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" s="19" customFormat="1">
+      <c r="A32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:3" s="19" customFormat="1">
+      <c r="A33" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:3" s="19" customFormat="1">
+      <c r="A34" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="37"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="33"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="33"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="25.5">
+      <c r="A42" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="33"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="25.5">
+      <c r="A48" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="49" customFormat="1" ht="39">
+      <c r="A49" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="14" customFormat="1">
+      <c r="A54" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="14" customFormat="1">
+      <c r="A55" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="14" customFormat="1">
+      <c r="A56" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="30" t="s">
+      <c r="B56" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="14" customFormat="1">
+      <c r="A57" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="25.5">
-      <c r="A36" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="39">
-      <c r="A37" s="16" t="s">
+      <c r="B57" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="26.25">
-      <c r="A38" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="16" t="s">
+    </row>
+    <row r="58" spans="1:3" s="14" customFormat="1">
+      <c r="A58" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="16" t="s">
+      <c r="B58" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="14" customFormat="1">
+      <c r="A59" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B59" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="16" t="s">
+      <c r="C59" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="14" customFormat="1">
+      <c r="A60" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="14" customFormat="1" ht="26.25">
-      <c r="A42" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="14" customFormat="1">
-      <c r="A43" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="14" customFormat="1">
-      <c r="A44" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="14" customFormat="1" ht="26.25">
-      <c r="A45" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="14" customFormat="1">
-      <c r="A46" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="14" customFormat="1">
-      <c r="A47" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="14" customFormat="1">
-      <c r="A48" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="14" customFormat="1">
-      <c r="A49" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="18"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="25"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="14" customFormat="1">
-      <c r="A55" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="18"/>
-    </row>
-    <row r="56" spans="1:3" s="14" customFormat="1">
-      <c r="A56" s="18" t="s">
+      <c r="C60" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="14" customFormat="1">
+      <c r="A61" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B61" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="18"/>
-    </row>
-    <row r="57" spans="1:3" s="14" customFormat="1">
-      <c r="A57" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="18"/>
-    </row>
-    <row r="58" spans="1:3" s="14" customFormat="1">
-      <c r="A58" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="14" customFormat="1">
-      <c r="A59" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C59" s="18"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="25"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="25"/>
+      <c r="A62" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>76</v>
+      <c r="A63" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>138</v>
+        <v>17</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>98</v>
+        <v>128</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="14" customFormat="1">
+      <c r="A67" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="18"/>
+    </row>
+    <row r="68" spans="1:3" s="14" customFormat="1">
+      <c r="A68" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="18"/>
+    </row>
+    <row r="69" spans="1:3" s="14" customFormat="1">
+      <c r="A69" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="18"/>
+    </row>
+    <row r="70" spans="1:3" s="14" customFormat="1">
+      <c r="A70" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="14" customFormat="1">
+      <c r="A71" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="18"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C77" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="25"/>
+    </row>
+    <row r="79" spans="1:3" ht="25.5">
+      <c r="A79" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="25.5">
+      <c r="A80" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="25.5">
+      <c r="A83" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="C66" s="25"/>
-    </row>
-    <row r="67" spans="1:3" ht="25.5">
-      <c r="A67" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="25.5">
-      <c r="A68" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="25.5">
-      <c r="A70" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="25.5">
-      <c r="A71" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B62" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B55" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B67" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B74" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3436,8 +3913,8 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3455,273 +3932,273 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="A6" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="7"/>
+      <c r="A7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="A8" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="A9" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="7"/>
+      <c r="A10" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="25.5">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="16" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -3730,101 +4207,101 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>284</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="C41" s="2"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="327">
   <si>
     <t>Header</t>
   </si>
@@ -1295,9 +1295,6 @@
   </si>
   <si>
     <t>Type of accession names</t>
-  </si>
-  <si>
-    <t>'Mascot calculation of translation frame number</t>
   </si>
   <si>
     <t>pep_n_ms2</t>
@@ -1521,7 +1518,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1552,12 +1549,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1572,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1690,12 +1681,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1998,9 +1983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2085,7 +2070,7 @@
         <v>173</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
@@ -2129,7 +2114,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
@@ -2197,15 +2182,15 @@
       </c>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="25.5">
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A20" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -2219,7 +2204,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="45" customFormat="1">
+    <row r="22" spans="1:3" s="43" customFormat="1">
       <c r="A22" s="35" t="s">
         <v>248</v>
       </c>
@@ -2228,7 +2213,7 @@
       </c>
       <c r="C22" s="34"/>
     </row>
-    <row r="23" spans="1:3" s="45" customFormat="1">
+    <row r="23" spans="1:3" s="43" customFormat="1">
       <c r="A23" s="35" t="s">
         <v>249</v>
       </c>
@@ -2237,7 +2222,7 @@
       </c>
       <c r="C23" s="34"/>
     </row>
-    <row r="24" spans="1:3" s="45" customFormat="1">
+    <row r="24" spans="1:3" s="43" customFormat="1">
       <c r="A24" s="35" t="s">
         <v>252</v>
       </c>
@@ -2246,7 +2231,7 @@
       </c>
       <c r="C24" s="34"/>
     </row>
-    <row r="25" spans="1:3" s="45" customFormat="1">
+    <row r="25" spans="1:3" s="43" customFormat="1">
       <c r="A25" s="35" t="s">
         <v>254</v>
       </c>
@@ -2255,7 +2240,7 @@
       </c>
       <c r="C25" s="34"/>
     </row>
-    <row r="26" spans="1:3" s="45" customFormat="1">
+    <row r="26" spans="1:3" s="43" customFormat="1">
       <c r="A26" s="35" t="s">
         <v>256</v>
       </c>
@@ -2287,7 +2272,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>134</v>
@@ -2310,7 +2295,7 @@
         <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
@@ -2373,7 +2358,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C37" s="7"/>
     </row>
@@ -2400,10 +2385,10 @@
         <v>246</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2454,14 +2439,14 @@
       <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>316</v>
+      <c r="C46" s="18" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="19" customFormat="1">
@@ -2543,7 +2528,7 @@
         <v>163</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="C55" s="37"/>
     </row>
@@ -2617,7 +2602,7 @@
         <v>154</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C63" s="22"/>
     </row>
@@ -2626,10 +2611,10 @@
         <v>244</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="30" customFormat="1" ht="12.75">
@@ -2723,10 +2708,10 @@
     </row>
     <row r="74" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A74" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C74" s="32"/>
     </row>
@@ -2735,7 +2720,7 @@
         <v>263</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C75" s="32"/>
     </row>
@@ -2744,7 +2729,7 @@
         <v>264</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C76" s="32"/>
     </row>
@@ -2753,7 +2738,7 @@
         <v>265</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C77" s="32"/>
     </row>
@@ -2762,7 +2747,7 @@
         <v>266</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C78" s="32"/>
     </row>
@@ -2780,10 +2765,10 @@
         <v>269</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="31" customFormat="1" ht="12.75">
@@ -2809,7 +2794,7 @@
         <v>275</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C83" s="32"/>
     </row>
@@ -2818,7 +2803,7 @@
         <v>276</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C84" s="32"/>
     </row>
@@ -2929,7 +2914,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C96" s="9"/>
     </row>
@@ -2938,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2946,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2954,7 +2939,7 @@
         <v>67</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C99" s="18"/>
     </row>
@@ -2963,7 +2948,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C100" s="9"/>
     </row>
@@ -2980,7 +2965,7 @@
         <v>16</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3054,9 +3039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3164,7 +3149,7 @@
         <v>149</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>135</v>
@@ -3175,14 +3160,14 @@
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -3191,7 +3176,7 @@
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -3200,7 +3185,7 @@
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="44" t="s">
         <v>252</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -3209,7 +3194,7 @@
       <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="44" t="s">
         <v>254</v>
       </c>
       <c r="B16" s="34" t="s">
@@ -3218,7 +3203,7 @@
       <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="44" t="s">
         <v>256</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -3267,7 +3252,7 @@
         <v>109</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3409,7 +3394,7 @@
       <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="44" t="s">
         <v>267</v>
       </c>
       <c r="B36" s="33" t="s">
@@ -3418,7 +3403,7 @@
       <c r="C36" s="33"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="44" t="s">
         <v>271</v>
       </c>
       <c r="B37" s="33" t="s">
@@ -3427,18 +3412,18 @@
       <c r="C37" s="33"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="44" t="s">
         <v>273</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>274</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="45" t="s">
         <v>276</v>
       </c>
       <c r="B39" s="33" t="s">
@@ -3471,14 +3456,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>302</v>
+      <c r="B42" s="45" t="s">
+        <v>301</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3486,18 +3471,18 @@
         <v>154</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="B44" s="48" t="s">
-        <v>327</v>
+      <c r="B44" s="46" t="s">
+        <v>326</v>
       </c>
       <c r="C44" s="33"/>
     </row>
@@ -3509,7 +3494,7 @@
         <v>204</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3539,12 +3524,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="49" customFormat="1" ht="39">
+    <row r="49" spans="1:3" s="47" customFormat="1" ht="39">
       <c r="A49" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>240</v>
@@ -3555,7 +3540,7 @@
         <v>79</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>87</v>
@@ -3566,7 +3551,7 @@
         <v>80</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>87</v>
@@ -3577,7 +3562,7 @@
         <v>81</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>87</v>
@@ -3588,7 +3573,7 @@
         <v>82</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>87</v>
@@ -3599,7 +3584,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>87</v>
@@ -3610,7 +3595,7 @@
         <v>84</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>87</v>
@@ -3621,7 +3606,7 @@
         <v>85</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>87</v>
@@ -3632,7 +3617,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>87</v>
@@ -3776,7 +3761,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C72" s="25"/>
     </row>
@@ -3785,7 +3770,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C73" s="25"/>
     </row>
@@ -3794,7 +3779,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C74" s="25"/>
     </row>
@@ -3803,7 +3788,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C75" s="25"/>
     </row>
@@ -4021,7 +4006,7 @@
         <v>149</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -4216,7 +4201,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -4225,7 +4210,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -4234,7 +4219,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="3"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="325">
   <si>
     <t>Header</t>
   </si>
@@ -575,12 +575,6 @@
   </si>
   <si>
     <t>See also PSM keys.</t>
-  </si>
-  <si>
-    <t>See also PSM keys; the key will become `pep_seq_mod` at `normPSM(group_psm_by = pep_seq_mod)`</t>
-  </si>
-  <si>
-    <t>See also PSM keys; the key will become `pep_seq` at `normPSM(group_psm_by = pep_seq)`</t>
   </si>
   <si>
     <t>One of `refseq_acc`, `uniprot_acc`, `uniprot_id` or `other_acc`.</t>
@@ -1983,9 +1977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2011,7 +2005,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -2020,7 +2014,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -2032,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1">
@@ -2049,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="38"/>
     </row>
@@ -2067,10 +2061,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
@@ -2078,7 +2072,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>87</v>
@@ -2089,7 +2083,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>87</v>
@@ -2100,7 +2094,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>87</v>
@@ -2114,7 +2108,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
@@ -2125,7 +2119,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
@@ -2133,64 +2127,64 @@
         <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" s="6" customFormat="1">
       <c r="A15" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1">
       <c r="A16" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A20" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -2206,46 +2200,46 @@
     </row>
     <row r="22" spans="1:3" s="43" customFormat="1">
       <c r="A22" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>248</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>250</v>
       </c>
       <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" s="43" customFormat="1">
       <c r="A23" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>251</v>
       </c>
       <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:3" s="43" customFormat="1">
       <c r="A24" s="35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:3" s="43" customFormat="1">
       <c r="A25" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:3" s="43" customFormat="1">
       <c r="A26" s="35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C26" s="34"/>
     </row>
@@ -2254,7 +2248,7 @@
         <v>53</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="38"/>
     </row>
@@ -2263,7 +2257,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="38"/>
     </row>
@@ -2272,7 +2266,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>134</v>
@@ -2283,7 +2277,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="38"/>
     </row>
@@ -2295,26 +2289,26 @@
         <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>87</v>
@@ -2322,21 +2316,21 @@
     </row>
     <row r="34" spans="1:3" ht="38.25">
       <c r="A34" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>87</v>
@@ -2344,10 +2338,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>87</v>
@@ -2358,7 +2352,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C37" s="7"/>
     </row>
@@ -2367,7 +2361,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C38" s="7"/>
     </row>
@@ -2376,19 +2370,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A40" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2396,7 +2390,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C41" s="7"/>
     </row>
@@ -2405,7 +2399,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C42" s="7"/>
     </row>
@@ -2417,24 +2411,24 @@
         <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" s="37"/>
     </row>
@@ -2446,7 +2440,7 @@
         <v>112</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="19" customFormat="1">
@@ -2475,7 +2469,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="19" customFormat="1">
@@ -2525,10 +2519,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C55" s="37"/>
     </row>
@@ -2537,7 +2531,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" s="38"/>
     </row>
@@ -2546,7 +2540,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" s="38"/>
     </row>
@@ -2555,7 +2549,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C58" s="38"/>
     </row>
@@ -2564,16 +2558,16 @@
         <v>64</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59" s="38"/>
     </row>
     <row r="60" spans="1:3" ht="25.5">
       <c r="A60" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60" s="38"/>
     </row>
@@ -2582,56 +2576,56 @@
         <v>65</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A63" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" s="31" customFormat="1" ht="25.5">
       <c r="A64" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A65" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="41"/>
     </row>
     <row r="66" spans="1:3" s="30" customFormat="1" ht="25.5">
       <c r="A66" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C66" s="41"/>
     </row>
@@ -2640,10 +2634,10 @@
         <v>76</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="30" customFormat="1" ht="12.75">
@@ -2657,39 +2651,39 @@
     </row>
     <row r="69" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A69" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" s="30" customFormat="1" ht="25.5">
       <c r="A70" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A71" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="30" customFormat="1" ht="25.5">
       <c r="A72" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>87</v>
@@ -2697,10 +2691,10 @@
     </row>
     <row r="73" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A73" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>87</v>
@@ -2708,102 +2702,102 @@
     </row>
     <row r="74" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A74" s="32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C74" s="32"/>
     </row>
     <row r="75" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A75" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C75" s="32"/>
     </row>
     <row r="76" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A76" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C76" s="32"/>
     </row>
     <row r="77" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A77" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C77" s="32"/>
     </row>
     <row r="78" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A78" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C78" s="32"/>
     </row>
     <row r="79" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A79" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C79" s="32"/>
     </row>
     <row r="80" spans="1:3" s="31" customFormat="1" ht="38.25">
       <c r="A80" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B80" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="32" t="s">
         <v>323</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A81" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C81" s="32"/>
     </row>
     <row r="82" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A82" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C82" s="32"/>
     </row>
     <row r="83" spans="1:3" s="31" customFormat="1" ht="25.5">
       <c r="A83" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C83" s="32"/>
     </row>
     <row r="84" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A84" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C84" s="32"/>
     </row>
@@ -2824,7 +2818,7 @@
         <v>126</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="30" customFormat="1" ht="12.75">
@@ -2876,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25.5">
@@ -2884,29 +2878,29 @@
         <v>2</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25.5">
       <c r="A94" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2914,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C96" s="9"/>
     </row>
@@ -2923,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2931,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2939,7 +2933,7 @@
         <v>67</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C99" s="18"/>
     </row>
@@ -2948,7 +2942,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C100" s="9"/>
     </row>
@@ -2965,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2973,7 +2967,7 @@
         <v>70</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="38.25">
@@ -2981,10 +2975,10 @@
         <v>71</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2992,7 +2986,7 @@
         <v>73</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="25.5">
@@ -3000,7 +2994,7 @@
         <v>72</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>110</v>
@@ -3011,7 +3005,7 @@
         <v>74</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>111</v>
@@ -3022,7 +3016,7 @@
         <v>75</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3039,9 +3033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3095,61 +3089,61 @@
         <v>66</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>135</v>
@@ -3160,7 +3154,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>87</v>
@@ -3168,46 +3162,46 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>248</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>250</v>
       </c>
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>251</v>
       </c>
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="44" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="34"/>
     </row>
@@ -3219,7 +3213,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3252,15 +3246,15 @@
         <v>109</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>87</v>
@@ -3268,10 +3262,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>87</v>
@@ -3279,21 +3273,21 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>87</v>
@@ -3301,10 +3295,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>87</v>
@@ -3318,27 +3312,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25.5">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="25.5">
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>137</v>
-      </c>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
@@ -3386,48 +3376,48 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C36" s="33"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C37" s="33"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>87</v>
@@ -3438,7 +3428,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>87</v>
@@ -3449,7 +3439,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>113</v>
@@ -3457,21 +3447,21 @@
     </row>
     <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>87</v>
@@ -3479,10 +3469,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C44" s="33"/>
     </row>
@@ -3491,10 +3481,10 @@
         <v>76</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3510,18 +3500,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5">
       <c r="A48" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="47" customFormat="1" ht="39">
@@ -3529,10 +3519,10 @@
         <v>78</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3540,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>87</v>
@@ -3551,7 +3541,7 @@
         <v>80</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>87</v>
@@ -3562,7 +3552,7 @@
         <v>81</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>87</v>
@@ -3573,7 +3563,7 @@
         <v>82</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>87</v>
@@ -3584,7 +3574,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>87</v>
@@ -3595,7 +3585,7 @@
         <v>84</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>87</v>
@@ -3606,7 +3596,7 @@
         <v>85</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>87</v>
@@ -3617,7 +3607,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>87</v>
@@ -3723,7 +3713,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C68" s="18"/>
     </row>
@@ -3732,16 +3722,16 @@
         <v>2</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1">
       <c r="A70" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>135</v>
@@ -3749,10 +3739,10 @@
     </row>
     <row r="71" spans="1:3" s="14" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" s="18"/>
     </row>
@@ -3761,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C72" s="25"/>
     </row>
@@ -3770,7 +3760,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C73" s="25"/>
     </row>
@@ -3779,7 +3769,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C74" s="25"/>
     </row>
@@ -3788,16 +3778,16 @@
         <v>67</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>123</v>
@@ -3828,7 +3818,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>114</v>
@@ -3839,10 +3829,10 @@
         <v>19</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3850,7 +3840,7 @@
         <v>117</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>115</v>
@@ -3861,7 +3851,7 @@
         <v>118</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>116</v>
@@ -3872,7 +3862,7 @@
         <v>119</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3898,7 +3888,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3952,61 +3942,61 @@
         <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -4057,21 +4047,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>87</v>
@@ -4079,10 +4069,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>87</v>
@@ -4183,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -4192,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -4201,7 +4191,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -4210,7 +4200,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -4219,16 +4209,16 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" s="25"/>
     </row>
@@ -4246,10 +4236,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4257,7 +4247,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -4266,7 +4256,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -4275,10 +4265,10 @@
         <v>119</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
@@ -4286,7 +4276,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C41" s="2"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="322">
   <si>
     <t>Header</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>prot_len</t>
-  </si>
-  <si>
-    <t>is_tryptic</t>
   </si>
   <si>
     <t>pep_len</t>
@@ -1246,9 +1243,6 @@
     <t>pep_ivmod</t>
   </si>
   <si>
-    <t>Number of neutral losses under the same `group_psm_by`</t>
-  </si>
-  <si>
     <t>pep_issig</t>
   </si>
   <si>
@@ -1264,9 +1258,6 @@
     <t>pep_rank_nl</t>
   </si>
   <si>
-    <t>pep_n_nl</t>
-  </si>
-  <si>
     <t>Number of amino acid residues under a proposed protein</t>
   </si>
   <si>
@@ -1309,9 +1300,6 @@
     <t>Experimental m/z value</t>
   </si>
   <si>
-    <t>Number of neutral losses under the same `pep_seq_mod`</t>
-  </si>
-  <si>
     <t>Is protein with an attribute of kinase or not</t>
   </si>
   <si>
@@ -1405,16 +1393,19 @@
     <t>Index of peptide modification group</t>
   </si>
   <si>
-    <t>Variable modificaiton of peptide as a string of hexcodes</t>
-  </si>
-  <si>
     <t>Ordinal number of neutral loss under the same peptide including modifications (`pep_seq_mod`)</t>
   </si>
   <si>
-    <t>Ordianl number of neutral lossin in square brackets for fixed modifications and in round parentheses for variable modifications.</t>
-  </si>
-  <si>
     <t>Standard deviation of `pep_ret_range` across samples and LCMS series</t>
+  </si>
+  <si>
+    <t>Variable Anywhere modificaiton of peptide as a string of hexcodes</t>
+  </si>
+  <si>
+    <t>Ordianl number of neutral lossin in square brackets for fixed modifications and in round parentheses for variable modifications. Terminal modifications are not indicated by the string.</t>
+  </si>
+  <si>
+    <t>pep_istryptic</t>
   </si>
 </sst>
 </file>
@@ -1975,11 +1966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2005,7 +1996,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -2014,7 +2005,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -2026,7 +2017,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1">
@@ -2043,7 +2034,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="38"/>
     </row>
@@ -2061,10 +2052,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
@@ -2072,10 +2063,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1">
@@ -2083,10 +2074,10 @@
         <v>52</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1" ht="25.5">
@@ -2094,10 +2085,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="38.25">
@@ -2108,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
@@ -2119,7 +2110,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1">
@@ -2127,64 +2118,64 @@
         <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" s="6" customFormat="1">
       <c r="A15" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1">
       <c r="A16" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A20" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -2195,51 +2186,51 @@
         <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="43" customFormat="1">
       <c r="A22" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" s="43" customFormat="1">
       <c r="A23" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:3" s="43" customFormat="1">
       <c r="A24" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>250</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>251</v>
       </c>
       <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:3" s="43" customFormat="1">
       <c r="A25" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>252</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>253</v>
       </c>
       <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:3" s="43" customFormat="1">
       <c r="A26" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>254</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>255</v>
       </c>
       <c r="C26" s="34"/>
     </row>
@@ -2248,7 +2239,7 @@
         <v>53</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="38"/>
     </row>
@@ -2257,7 +2248,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="38"/>
     </row>
@@ -2266,10 +2257,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="38.25">
@@ -2277,7 +2268,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="38"/>
     </row>
@@ -2286,65 +2277,65 @@
         <v>43</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="38.25">
       <c r="A34" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2352,7 +2343,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C37" s="7"/>
     </row>
@@ -2361,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C38" s="7"/>
     </row>
@@ -2370,19 +2361,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A40" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2390,7 +2381,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C41" s="7"/>
     </row>
@@ -2399,7 +2390,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C42" s="7"/>
     </row>
@@ -2408,27 +2399,27 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="37"/>
     </row>
@@ -2437,10 +2428,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="19" customFormat="1">
@@ -2457,7 +2448,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="22"/>
     </row>
@@ -2466,10 +2457,10 @@
         <v>14</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="19" customFormat="1">
@@ -2501,10 +2492,10 @@
     </row>
     <row r="53" spans="1:3" s="19" customFormat="1">
       <c r="A53" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="C53" s="23"/>
     </row>
@@ -2518,286 +2509,286 @@
       <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="37"/>
+      <c r="A55" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="37"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B57" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="38"/>
+    </row>
+    <row r="58" spans="1:3" ht="38.25">
+      <c r="A58" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>183</v>
-      </c>
-      <c r="C56" s="38"/>
-    </row>
-    <row r="57" spans="1:3" ht="38.25">
-      <c r="A57" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="38"/>
-    </row>
-    <row r="58" spans="1:3" ht="25.5">
-      <c r="A58" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>185</v>
       </c>
       <c r="C58" s="38"/>
     </row>
     <row r="59" spans="1:3" ht="25.5">
       <c r="A59" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="38"/>
+    </row>
+    <row r="60" spans="1:3" ht="25.5">
+      <c r="A60" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B60" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="38"/>
+    </row>
+    <row r="61" spans="1:3" ht="25.5">
+      <c r="A61" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="38"/>
-    </row>
-    <row r="60" spans="1:3" ht="25.5">
-      <c r="A60" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" s="40" t="s">
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="38"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="37" t="s">
+      <c r="C63" s="41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A64" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B64" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="22"/>
+    </row>
+    <row r="65" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A65" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A66" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A63" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" s="22"/>
-    </row>
-    <row r="64" spans="1:3" s="31" customFormat="1" ht="25.5">
-      <c r="A64" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A65" s="37" t="s">
+      <c r="C66" s="41"/>
+    </row>
+    <row r="67" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A67" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B67" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="41"/>
+    </row>
+    <row r="68" spans="1:3" s="30" customFormat="1" ht="38.25">
+      <c r="A68" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="41"/>
-    </row>
-    <row r="66" spans="1:3" s="30" customFormat="1" ht="25.5">
-      <c r="A66" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" s="41"/>
-    </row>
-    <row r="67" spans="1:3" s="30" customFormat="1" ht="38.25">
-      <c r="A67" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A68" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A69" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A70" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A71" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" s="30" customFormat="1" ht="25.5">
-      <c r="A70" s="18" t="s">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A72" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B72" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A71" s="37" t="s">
+      <c r="C72" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A73" s="37" t="s">
         <v>167</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="30" customFormat="1" ht="25.5">
-      <c r="A72" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A73" s="37" t="s">
-        <v>169</v>
       </c>
       <c r="B73" s="40" t="s">
         <v>194</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="31" customFormat="1" ht="12.75">
-      <c r="A74" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="C74" s="32"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A74" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="75" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A75" s="32" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C75" s="32"/>
     </row>
     <row r="76" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A76" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C76" s="32"/>
     </row>
     <row r="77" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A77" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C77" s="32"/>
     </row>
     <row r="78" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A78" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C78" s="32"/>
     </row>
     <row r="79" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A79" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="32"/>
+    </row>
+    <row r="80" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A80" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="C80" s="32"/>
+    </row>
+    <row r="81" spans="1:3" s="31" customFormat="1" ht="51">
+      <c r="A81" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="C79" s="32"/>
-    </row>
-    <row r="80" spans="1:3" s="31" customFormat="1" ht="38.25">
-      <c r="A80" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="31" customFormat="1" ht="12.75">
-      <c r="A81" s="32" t="s">
-        <v>269</v>
-      </c>
       <c r="B81" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81" s="32"/>
+        <v>319</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="82" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A82" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="32"/>
+    </row>
+    <row r="83" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A83" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" s="32"/>
+    </row>
+    <row r="84" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A84" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B82" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C82" s="32"/>
-    </row>
-    <row r="83" spans="1:3" s="31" customFormat="1" ht="25.5">
-      <c r="A83" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C83" s="32"/>
-    </row>
-    <row r="84" spans="1:3" s="31" customFormat="1" ht="12.75">
-      <c r="A84" s="32" t="s">
-        <v>274</v>
-      </c>
       <c r="B84" s="33" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C84" s="32"/>
     </row>
@@ -2812,21 +2803,21 @@
     </row>
     <row r="86" spans="1:3" s="30" customFormat="1" ht="25.5">
       <c r="A86" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>126</v>
-      </c>
       <c r="C86" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A87" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C87" s="25"/>
     </row>
@@ -2835,25 +2826,25 @@
         <v>17</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="18"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="18"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="18"/>
     </row>
@@ -2870,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25.5">
@@ -2878,29 +2869,29 @@
         <v>2</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25.5">
       <c r="A94" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2908,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C96" s="9"/>
     </row>
@@ -2917,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2925,98 +2916,92 @@
         <v>10</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C99" s="18"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C100" s="9"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>295</v>
+        <v>105</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="38.25">
-      <c r="A104" s="25" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="25.5">
-      <c r="A106" s="25" t="s">
+    </row>
+    <row r="105" spans="1:3" ht="38.25">
+      <c r="A105" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>110</v>
+      <c r="B106" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="25.5">
       <c r="A107" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="25.5">
+      <c r="A108" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3031,11 +3016,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3089,64 +3074,64 @@
         <v>66</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3154,54 +3139,54 @@
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>250</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>251</v>
       </c>
       <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>252</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>253</v>
       </c>
       <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>254</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>255</v>
       </c>
       <c r="C17" s="34"/>
     </row>
@@ -3213,7 +3198,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3224,7 +3209,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3235,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3243,65 +3228,65 @@
         <v>43</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3317,7 +3302,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="25"/>
     </row>
@@ -3326,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="25"/>
     </row>
@@ -3358,10 +3343,10 @@
     </row>
     <row r="33" spans="1:3" s="19" customFormat="1">
       <c r="A33" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="C33" s="25"/>
     </row>
@@ -3375,52 +3360,50 @@
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C35" s="37"/>
+      <c r="A35" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="33"/>
+      <c r="A36" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="37"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="44" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C37" s="33"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="44" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>297</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="45" t="s">
-        <v>274</v>
+      <c r="A39" s="44" t="s">
+        <v>269</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3428,10 +3411,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3439,211 +3422,211 @@
         <v>42</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C44" s="33"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5">
       <c r="A48" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="47" customFormat="1" ht="39">
       <c r="A49" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="14" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="14" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="14" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="14" customFormat="1">
       <c r="A57" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="14" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="14" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="14" customFormat="1">
       <c r="A60" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="14" customFormat="1">
@@ -3657,21 +3640,21 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>126</v>
-      </c>
       <c r="C62" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="25"/>
     </row>
@@ -3680,23 +3663,23 @@
         <v>17</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="14" customFormat="1">
@@ -3713,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C68" s="18"/>
     </row>
@@ -3722,27 +3705,27 @@
         <v>2</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1">
       <c r="A70" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="14" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71" s="18"/>
     </row>
@@ -3751,7 +3734,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C72" s="25"/>
     </row>
@@ -3760,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C73" s="25"/>
     </row>
@@ -3769,70 +3752,72 @@
         <v>10</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" s="25"/>
+        <v>147</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="28" t="s">
+      <c r="A77" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="25"/>
+      <c r="C77" s="25"/>
+    </row>
+    <row r="78" spans="1:3" ht="25.5">
+      <c r="A78" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="25.5">
       <c r="A79" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>205</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="25.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="25" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>206</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3846,31 +3831,20 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="25.5">
       <c r="A82" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="25.5">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +3862,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3942,61 +3916,61 @@
         <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -4020,10 +3994,10 @@
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -4038,70 +4012,70 @@
     </row>
     <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="16"/>
     </row>
@@ -4116,19 +4090,19 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="25"/>
     </row>
@@ -4137,25 +4111,25 @@
         <v>17</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="18"/>
     </row>
@@ -4173,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -4182,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -4191,7 +4165,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -4200,7 +4174,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -4209,25 +4183,25 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="25"/>
     </row>
@@ -4236,10 +4210,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4247,36 +4221,36 @@
         <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C41" s="2"/>
     </row>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -1402,10 +1402,10 @@
     <t>Variable Anywhere modificaiton of peptide as a string of hexcodes</t>
   </si>
   <si>
-    <t>Ordianl number of neutral lossin in square brackets for fixed modifications and in round parentheses for variable modifications. Terminal modifications are not indicated by the string.</t>
-  </si>
-  <si>
     <t>pep_istryptic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal modifications are not part of the string. proteoM: ordianl number indicating neutral losses in square brackets for fixed modifications and in round parentheses for variable modifications; the numbers are removed during proteoQ. </t>
   </si>
 </sst>
 </file>
@@ -1968,9 +1968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>289</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C80" s="32"/>
     </row>
-    <row r="81" spans="1:3" s="31" customFormat="1" ht="51">
+    <row r="81" spans="1:3" s="31" customFormat="1" ht="63.75">
       <c r="A81" s="32" t="s">
         <v>266</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>319</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="31" customFormat="1" ht="12.75">
@@ -2955,7 +2955,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="38.25">
+    <row r="105" spans="1:3" ht="25.5">
       <c r="A105" s="25" t="s">
         <v>70</v>
       </c>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>289</v>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="342">
   <si>
     <t>Header</t>
   </si>
@@ -1405,7 +1405,67 @@
     <t>pep_istryptic</t>
   </si>
   <si>
-    <t xml:space="preserve">Terminal modifications are not part of the string. proteoM: ordianl number indicating neutral losses in square brackets for fixed modifications and in round parentheses for variable modifications; the numbers are removed during proteoQ. </t>
+    <t>pep_ms2_moverzs</t>
+  </si>
+  <si>
+    <t>pep_ms2_ints</t>
+  </si>
+  <si>
+    <t>pep_ms2_theos</t>
+  </si>
+  <si>
+    <t>pep_ms2_theos2</t>
+  </si>
+  <si>
+    <t>pep_ms2_deltas</t>
+  </si>
+  <si>
+    <t>pep_ms2_ideltas</t>
+  </si>
+  <si>
+    <t>pep_ms2_deltas2</t>
+  </si>
+  <si>
+    <t>pep_ms2_ideltas2</t>
+  </si>
+  <si>
+    <t>pep_ms2_deltas_mean</t>
+  </si>
+  <si>
+    <t>pep_ms2_deltas_sd</t>
+  </si>
+  <si>
+    <t>Experimental MS2 m/z values</t>
+  </si>
+  <si>
+    <t>Experimental MS2 intensity values</t>
+  </si>
+  <si>
+    <t>Theoretical MS2 m/z values (primary ions)</t>
+  </si>
+  <si>
+    <t>Theoretical MS2 m/z values (secondary ions)</t>
+  </si>
+  <si>
+    <t>Mass deltas between experimentals and theoreticals (primary)</t>
+  </si>
+  <si>
+    <t>Mass deltas between experimentals and theoreticals (secondary)</t>
+  </si>
+  <si>
+    <t>The indexes of pep_ms2_deltas along the sequence of theoretical MS2 ions (primary)</t>
+  </si>
+  <si>
+    <t>The indexes of pep_ms2_deltas along the sequence of theoretical MS2 ions (secondary)</t>
+  </si>
+  <si>
+    <t>The mean of pep_ms2_deltas</t>
+  </si>
+  <si>
+    <t>The standard deviation of pep_ms2_deltas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal modifications are not part of the string. proteoM: ordianl number in square brackets indicating neutral losses for fixed modifications and in round parentheses for variable modifications; the numbers are removed during proteoQ. </t>
   </si>
 </sst>
 </file>
@@ -1966,21 +2026,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63" style="2" customWidth="1"/>
     <col min="3" max="3" width="48.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +2052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1">
+    <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="25" t="s">
         <v>48</v>
       </c>
@@ -1999,8 +2060,9 @@
         <v>256</v>
       </c>
       <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2070,9 @@
         <v>255</v>
       </c>
       <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1">
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -2019,8 +2082,9 @@
       <c r="C4" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1">
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -2028,8 +2092,9 @@
         <v>23</v>
       </c>
       <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="37" t="s">
         <v>50</v>
       </c>
@@ -2037,8 +2102,9 @@
         <v>171</v>
       </c>
       <c r="C6" s="38"/>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1">
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
@@ -2046,8 +2112,9 @@
         <v>25</v>
       </c>
       <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1">
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="39" t="s">
         <v>51</v>
       </c>
@@ -2057,8 +2124,9 @@
       <c r="C8" s="38" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="25.5">
       <c r="A9" s="39" t="s">
         <v>26</v>
       </c>
@@ -2068,8 +2136,9 @@
       <c r="C9" s="38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1">
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>52</v>
       </c>
@@ -2079,8 +2148,9 @@
       <c r="C10" s="38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="25.5">
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" ht="25.5">
       <c r="A11" s="39" t="s">
         <v>27</v>
       </c>
@@ -2091,7 +2161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="38.25">
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="38.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +2172,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
+    <row r="13" spans="1:4" s="6" customFormat="1" ht="38.25">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2183,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1">
+    <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="18" t="s">
         <v>66</v>
       </c>
@@ -2122,7 +2192,7 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1">
+    <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="37" t="s">
         <v>154</v>
       </c>
@@ -2131,7 +2201,7 @@
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" s="6" customFormat="1">
+    <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="42" t="s">
         <v>155</v>
       </c>
@@ -2140,7 +2210,7 @@
       </c>
       <c r="C16" s="41"/>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1">
+    <row r="17" spans="1:4" s="6" customFormat="1">
       <c r="A17" s="42" t="s">
         <v>156</v>
       </c>
@@ -2149,7 +2219,7 @@
       </c>
       <c r="C17" s="41"/>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1">
+    <row r="18" spans="1:4" s="6" customFormat="1">
       <c r="A18" s="42" t="s">
         <v>157</v>
       </c>
@@ -2158,7 +2228,7 @@
       </c>
       <c r="C18" s="41"/>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1">
+    <row r="19" spans="1:4" s="6" customFormat="1">
       <c r="A19" s="39" t="s">
         <v>149</v>
       </c>
@@ -2167,7 +2237,7 @@
       </c>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="38.25">
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="38.25">
       <c r="A20" s="25" t="s">
         <v>146</v>
       </c>
@@ -2178,7 +2248,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1">
+    <row r="21" spans="1:4" s="6" customFormat="1">
       <c r="A21" s="25" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="43" customFormat="1">
+    <row r="22" spans="1:4" s="43" customFormat="1">
       <c r="A22" s="35" t="s">
         <v>245</v>
       </c>
@@ -2198,7 +2268,7 @@
       </c>
       <c r="C22" s="34"/>
     </row>
-    <row r="23" spans="1:3" s="43" customFormat="1">
+    <row r="23" spans="1:4" s="43" customFormat="1">
       <c r="A23" s="35" t="s">
         <v>246</v>
       </c>
@@ -2207,7 +2277,7 @@
       </c>
       <c r="C23" s="34"/>
     </row>
-    <row r="24" spans="1:3" s="43" customFormat="1">
+    <row r="24" spans="1:4" s="43" customFormat="1">
       <c r="A24" s="35" t="s">
         <v>249</v>
       </c>
@@ -2216,7 +2286,7 @@
       </c>
       <c r="C24" s="34"/>
     </row>
-    <row r="25" spans="1:3" s="43" customFormat="1">
+    <row r="25" spans="1:4" s="43" customFormat="1">
       <c r="A25" s="35" t="s">
         <v>251</v>
       </c>
@@ -2225,7 +2295,7 @@
       </c>
       <c r="C25" s="34"/>
     </row>
-    <row r="26" spans="1:3" s="43" customFormat="1">
+    <row r="26" spans="1:4" s="43" customFormat="1">
       <c r="A26" s="35" t="s">
         <v>253</v>
       </c>
@@ -2234,7 +2304,7 @@
       </c>
       <c r="C26" s="34"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="37" t="s">
         <v>53</v>
       </c>
@@ -2243,7 +2313,7 @@
       </c>
       <c r="C27" s="38"/>
     </row>
-    <row r="28" spans="1:3" ht="25.5">
+    <row r="28" spans="1:4" ht="25.5">
       <c r="A28" s="37" t="s">
         <v>35</v>
       </c>
@@ -2252,7 +2322,7 @@
       </c>
       <c r="C28" s="38"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>13</v>
       </c>
@@ -2262,8 +2332,9 @@
       <c r="C29" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="38.25">
+      <c r="D29" s="47"/>
+    </row>
+    <row r="30" spans="1:4" ht="38.25">
       <c r="A30" s="37" t="s">
         <v>36</v>
       </c>
@@ -2271,8 +2342,9 @@
         <v>178</v>
       </c>
       <c r="C30" s="38"/>
-    </row>
-    <row r="31" spans="1:3" ht="38.25">
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="1:4" ht="38.25">
       <c r="A31" s="18" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2354,9 @@
       <c r="C31" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="25.5">
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" ht="25.5">
       <c r="A32" s="18" t="s">
         <v>136</v>
       </c>
@@ -2293,8 +2366,9 @@
       <c r="C32" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="18" t="s">
         <v>137</v>
       </c>
@@ -2304,8 +2378,9 @@
       <c r="C33" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="38.25">
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:4" ht="38.25">
       <c r="A34" s="18" t="s">
         <v>140</v>
       </c>
@@ -2315,8 +2390,9 @@
       <c r="C34" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="47"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
         <v>141</v>
       </c>
@@ -2326,8 +2402,9 @@
       <c r="C35" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
         <v>142</v>
       </c>
@@ -2337,8 +2414,9 @@
       <c r="C36" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="47"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
         <v>37</v>
       </c>
@@ -2346,8 +2424,9 @@
         <v>285</v>
       </c>
       <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
         <v>38</v>
       </c>
@@ -2355,8 +2434,9 @@
         <v>273</v>
       </c>
       <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>39</v>
       </c>
@@ -2364,8 +2444,9 @@
         <v>244</v>
       </c>
       <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" s="19" customFormat="1" ht="25.5">
+      <c r="D39" s="47"/>
+    </row>
+    <row r="40" spans="1:4" s="19" customFormat="1" ht="25.5">
       <c r="A40" s="32" t="s">
         <v>243</v>
       </c>
@@ -2375,8 +2456,9 @@
       <c r="C40" s="34" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="47"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="18" t="s">
         <v>34</v>
       </c>
@@ -2384,8 +2466,9 @@
         <v>274</v>
       </c>
       <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="47"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="18" t="s">
         <v>40</v>
       </c>
@@ -2393,8 +2476,9 @@
         <v>275</v>
       </c>
       <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" ht="25.5">
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:4" ht="25.5">
       <c r="A43" s="18" t="s">
         <v>41</v>
       </c>
@@ -2404,8 +2488,9 @@
       <c r="C43" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="37" t="s">
         <v>158</v>
       </c>
@@ -2413,8 +2498,9 @@
         <v>180</v>
       </c>
       <c r="C44" s="37"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="37" t="s">
         <v>159</v>
       </c>
@@ -2422,8 +2508,9 @@
         <v>181</v>
       </c>
       <c r="C45" s="37"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="18" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2521,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="19" customFormat="1">
+    <row r="47" spans="1:4" s="19" customFormat="1">
       <c r="A47" s="18" t="s">
         <v>57</v>
       </c>
@@ -2443,7 +2530,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" s="19" customFormat="1" ht="25.5">
+    <row r="48" spans="1:4" s="19" customFormat="1" ht="25.5">
       <c r="A48" s="18" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +2539,7 @@
       </c>
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3" s="19" customFormat="1" ht="38.25">
+    <row r="49" spans="1:4" s="19" customFormat="1" ht="38.25">
       <c r="A49" s="18" t="s">
         <v>14</v>
       </c>
@@ -2463,7 +2550,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="19" customFormat="1">
+    <row r="50" spans="1:4" s="19" customFormat="1">
       <c r="A50" s="18" t="s">
         <v>59</v>
       </c>
@@ -2472,7 +2559,7 @@
       </c>
       <c r="C50" s="18"/>
     </row>
-    <row r="51" spans="1:3" s="19" customFormat="1">
+    <row r="51" spans="1:4" s="19" customFormat="1">
       <c r="A51" s="18" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2568,7 @@
       </c>
       <c r="C51" s="23"/>
     </row>
-    <row r="52" spans="1:3" s="19" customFormat="1">
+    <row r="52" spans="1:4" s="19" customFormat="1">
       <c r="A52" s="18" t="s">
         <v>45</v>
       </c>
@@ -2490,7 +2577,7 @@
       </c>
       <c r="C52" s="23"/>
     </row>
-    <row r="53" spans="1:3" s="19" customFormat="1">
+    <row r="53" spans="1:4" s="19" customFormat="1">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -2499,7 +2586,7 @@
       </c>
       <c r="C53" s="23"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" s="18" t="s">
         <v>46</v>
       </c>
@@ -2508,7 +2595,7 @@
       </c>
       <c r="C54" s="18"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" s="18" t="s">
         <v>320</v>
       </c>
@@ -2517,7 +2604,7 @@
       </c>
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" s="37" t="s">
         <v>160</v>
       </c>
@@ -2525,8 +2612,9 @@
         <v>200</v>
       </c>
       <c r="C56" s="37"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="47"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="37" t="s">
         <v>61</v>
       </c>
@@ -2534,8 +2622,9 @@
         <v>182</v>
       </c>
       <c r="C57" s="38"/>
-    </row>
-    <row r="58" spans="1:3" ht="38.25">
+      <c r="D57" s="47"/>
+    </row>
+    <row r="58" spans="1:4" ht="38.25">
       <c r="A58" s="37" t="s">
         <v>62</v>
       </c>
@@ -2543,8 +2632,9 @@
         <v>183</v>
       </c>
       <c r="C58" s="38"/>
-    </row>
-    <row r="59" spans="1:3" ht="25.5">
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="1:4" ht="25.5">
       <c r="A59" s="37" t="s">
         <v>63</v>
       </c>
@@ -2552,8 +2642,9 @@
         <v>184</v>
       </c>
       <c r="C59" s="38"/>
-    </row>
-    <row r="60" spans="1:3" ht="25.5">
+      <c r="D59" s="47"/>
+    </row>
+    <row r="60" spans="1:4" ht="25.5">
       <c r="A60" s="37" t="s">
         <v>64</v>
       </c>
@@ -2561,8 +2652,9 @@
         <v>185</v>
       </c>
       <c r="C60" s="38"/>
-    </row>
-    <row r="61" spans="1:3" ht="25.5">
+      <c r="D60" s="47"/>
+    </row>
+    <row r="61" spans="1:4" ht="25.5">
       <c r="A61" s="42" t="s">
         <v>161</v>
       </c>
@@ -2570,8 +2662,9 @@
         <v>186</v>
       </c>
       <c r="C61" s="38"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="47"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="18" t="s">
         <v>65</v>
       </c>
@@ -2579,8 +2672,9 @@
         <v>276</v>
       </c>
       <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="47"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="37" t="s">
         <v>150</v>
       </c>
@@ -2590,8 +2684,9 @@
       <c r="C63" s="41" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="D63" s="47"/>
+    </row>
+    <row r="64" spans="1:4" s="30" customFormat="1">
       <c r="A64" s="18" t="s">
         <v>151</v>
       </c>
@@ -2599,8 +2694,9 @@
         <v>310</v>
       </c>
       <c r="C64" s="22"/>
-    </row>
-    <row r="65" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="D64" s="47"/>
+    </row>
+    <row r="65" spans="1:4" s="31" customFormat="1" ht="25.5">
       <c r="A65" s="32" t="s">
         <v>241</v>
       </c>
@@ -2610,8 +2706,9 @@
       <c r="C65" s="34" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="D65" s="47"/>
+    </row>
+    <row r="66" spans="1:4" s="30" customFormat="1" ht="12.75">
       <c r="A66" s="37" t="s">
         <v>152</v>
       </c>
@@ -2620,7 +2717,7 @@
       </c>
       <c r="C66" s="41"/>
     </row>
-    <row r="67" spans="1:3" s="30" customFormat="1" ht="25.5">
+    <row r="67" spans="1:4" s="30" customFormat="1" ht="25.5">
       <c r="A67" s="37" t="s">
         <v>153</v>
       </c>
@@ -2629,7 +2726,7 @@
       </c>
       <c r="C67" s="41"/>
     </row>
-    <row r="68" spans="1:3" s="30" customFormat="1" ht="38.25">
+    <row r="68" spans="1:4" s="30" customFormat="1" ht="38.25">
       <c r="A68" s="18" t="s">
         <v>75</v>
       </c>
@@ -2640,7 +2737,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="30" customFormat="1" ht="12.75">
+    <row r="69" spans="1:4" s="30" customFormat="1" ht="12.75">
       <c r="A69" s="18" t="s">
         <v>76</v>
       </c>
@@ -2649,7 +2746,7 @@
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" s="30" customFormat="1" ht="12.75">
+    <row r="70" spans="1:4" s="30" customFormat="1" ht="12.75">
       <c r="A70" s="18" t="s">
         <v>164</v>
       </c>
@@ -2658,7 +2755,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" ht="25.5">
+    <row r="71" spans="1:4" s="30" customFormat="1" ht="25.5">
       <c r="A71" s="18" t="s">
         <v>165</v>
       </c>
@@ -2667,7 +2764,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" s="30" customFormat="1" ht="12.75">
+    <row r="72" spans="1:4" s="30" customFormat="1" ht="12.75">
       <c r="A72" s="37" t="s">
         <v>166</v>
       </c>
@@ -2678,7 +2775,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="30" customFormat="1" ht="25.5">
+    <row r="73" spans="1:4" s="30" customFormat="1" ht="12.75">
       <c r="A73" s="37" t="s">
         <v>167</v>
       </c>
@@ -2689,7 +2786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="30" customFormat="1" ht="12.75">
+    <row r="74" spans="1:4" s="30" customFormat="1" ht="12.75">
       <c r="A74" s="37" t="s">
         <v>168</v>
       </c>
@@ -2700,7 +2797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="31" customFormat="1" ht="12.75">
+    <row r="75" spans="1:4" s="31" customFormat="1" ht="12.75">
       <c r="A75" s="32" t="s">
         <v>280</v>
       </c>
@@ -2709,7 +2806,7 @@
       </c>
       <c r="C75" s="32"/>
     </row>
-    <row r="76" spans="1:3" s="31" customFormat="1" ht="12.75">
+    <row r="76" spans="1:4" s="31" customFormat="1" ht="12.75">
       <c r="A76" s="32" t="s">
         <v>260</v>
       </c>
@@ -2718,7 +2815,7 @@
       </c>
       <c r="C76" s="32"/>
     </row>
-    <row r="77" spans="1:3" s="31" customFormat="1" ht="12.75">
+    <row r="77" spans="1:4" s="31" customFormat="1" ht="12.75">
       <c r="A77" s="32" t="s">
         <v>261</v>
       </c>
@@ -2727,7 +2824,7 @@
       </c>
       <c r="C77" s="32"/>
     </row>
-    <row r="78" spans="1:3" s="31" customFormat="1" ht="12.75">
+    <row r="78" spans="1:4" s="31" customFormat="1" ht="12.75">
       <c r="A78" s="32" t="s">
         <v>262</v>
       </c>
@@ -2736,7 +2833,7 @@
       </c>
       <c r="C78" s="32"/>
     </row>
-    <row r="79" spans="1:3" s="31" customFormat="1" ht="12.75">
+    <row r="79" spans="1:4" s="31" customFormat="1" ht="12.75">
       <c r="A79" s="32" t="s">
         <v>263</v>
       </c>
@@ -2745,7 +2842,7 @@
       </c>
       <c r="C79" s="32"/>
     </row>
-    <row r="80" spans="1:3" s="31" customFormat="1" ht="12.75">
+    <row r="80" spans="1:4" s="31" customFormat="1" ht="12.75">
       <c r="A80" s="32" t="s">
         <v>264</v>
       </c>
@@ -2762,7 +2859,7 @@
         <v>319</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="31" customFormat="1" ht="12.75">
@@ -2792,222 +2889,312 @@
       </c>
       <c r="C84" s="32"/>
     </row>
-    <row r="85" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:3" s="31" customFormat="1">
+      <c r="A85" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="32"/>
+    </row>
+    <row r="86" spans="1:3" s="31" customFormat="1">
+      <c r="A86" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="32"/>
+    </row>
+    <row r="87" spans="1:3" s="31" customFormat="1">
+      <c r="A87" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="32"/>
+    </row>
+    <row r="88" spans="1:3" s="31" customFormat="1">
+      <c r="A88" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="32"/>
+    </row>
+    <row r="89" spans="1:3" s="31" customFormat="1">
+      <c r="A89" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C89" s="32"/>
+    </row>
+    <row r="90" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A90" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90" s="32"/>
+    </row>
+    <row r="91" spans="1:3" s="31" customFormat="1">
+      <c r="A91" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="32"/>
+    </row>
+    <row r="92" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A92" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="32"/>
+    </row>
+    <row r="93" spans="1:3" s="31" customFormat="1" ht="30">
+      <c r="A93" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="32"/>
+    </row>
+    <row r="94" spans="1:3" s="31" customFormat="1">
+      <c r="A94" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="32"/>
+    </row>
+    <row r="95" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A95" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B95" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" s="30" customFormat="1" ht="25.5">
-      <c r="A86" s="25" t="s">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A96" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B96" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C96" s="25" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A87" s="25" t="s">
+    <row r="97" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A97" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B97" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="25"/>
-    </row>
-    <row r="88" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A88" s="18" t="s">
+      <c r="C97" s="25"/>
+    </row>
+    <row r="98" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A98" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="18"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="18" t="s">
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B99" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C89" s="18"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="18" t="s">
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B100" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="18"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="25.5">
-      <c r="A93" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="25.5">
-      <c r="A94" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="B99" s="4"/>
+      <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C101" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="25.5">
       <c r="A103" s="18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="25.5">
       <c r="A104" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="25.5">
-      <c r="A105" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>162</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="38.25">
+      <c r="A115" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="25.5">
-      <c r="A107" s="25" t="s">
+    <row r="117" spans="1:3" ht="25.5">
+      <c r="A117" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="25.5">
-      <c r="A108" s="25" t="s">
+    <row r="118" spans="1:3" ht="25.5">
+      <c r="A118" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="25" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B98" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B91" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B108" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B101" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -2026,11 +2026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2038,10 +2038,9 @@
     <col min="1" max="1" width="21" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="2" customWidth="1"/>
     <col min="3" max="3" width="48.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1">
+    <row r="2" spans="1:3" s="6" customFormat="1">
       <c r="A2" s="25" t="s">
         <v>48</v>
       </c>
@@ -2060,9 +2059,8 @@
         <v>256</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1">
       <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
@@ -2070,9 +2068,8 @@
         <v>255</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="47"/>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -2082,9 +2079,8 @@
       <c r="C4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="47"/>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -2092,9 +2088,8 @@
         <v>23</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="47"/>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
       <c r="A6" s="37" t="s">
         <v>50</v>
       </c>
@@ -2102,9 +2097,8 @@
         <v>171</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1">
       <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
@@ -2112,9 +2106,8 @@
         <v>25</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="47"/>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="39" t="s">
         <v>51</v>
       </c>
@@ -2124,9 +2117,8 @@
       <c r="C8" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="47"/>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="25.5">
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A9" s="39" t="s">
         <v>26</v>
       </c>
@@ -2136,9 +2128,8 @@
       <c r="C9" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="47"/>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1">
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>52</v>
       </c>
@@ -2148,9 +2139,8 @@
       <c r="C10" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="47"/>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" ht="25.5">
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="25.5">
       <c r="A11" s="39" t="s">
         <v>27</v>
       </c>
@@ -2161,7 +2151,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="38.25">
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2162,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" ht="38.25">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2173,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1">
+    <row r="14" spans="1:3" s="6" customFormat="1">
       <c r="A14" s="18" t="s">
         <v>66</v>
       </c>
@@ -2192,7 +2182,7 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1">
+    <row r="15" spans="1:3" s="6" customFormat="1">
       <c r="A15" s="37" t="s">
         <v>154</v>
       </c>
@@ -2201,7 +2191,7 @@
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:4" s="6" customFormat="1">
+    <row r="16" spans="1:3" s="6" customFormat="1">
       <c r="A16" s="42" t="s">
         <v>155</v>
       </c>
@@ -2210,7 +2200,7 @@
       </c>
       <c r="C16" s="41"/>
     </row>
-    <row r="17" spans="1:4" s="6" customFormat="1">
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="42" t="s">
         <v>156</v>
       </c>
@@ -2219,7 +2209,7 @@
       </c>
       <c r="C17" s="41"/>
     </row>
-    <row r="18" spans="1:4" s="6" customFormat="1">
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="42" t="s">
         <v>157</v>
       </c>
@@ -2228,7 +2218,7 @@
       </c>
       <c r="C18" s="41"/>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1">
+    <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="39" t="s">
         <v>149</v>
       </c>
@@ -2237,7 +2227,7 @@
       </c>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="38.25">
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="38.25">
       <c r="A20" s="25" t="s">
         <v>146</v>
       </c>
@@ -2248,7 +2238,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1">
+    <row r="21" spans="1:3" s="6" customFormat="1">
       <c r="A21" s="25" t="s">
         <v>15</v>
       </c>
@@ -2259,7 +2249,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="43" customFormat="1">
+    <row r="22" spans="1:3" s="43" customFormat="1">
       <c r="A22" s="35" t="s">
         <v>245</v>
       </c>
@@ -2268,7 +2258,7 @@
       </c>
       <c r="C22" s="34"/>
     </row>
-    <row r="23" spans="1:4" s="43" customFormat="1">
+    <row r="23" spans="1:3" s="43" customFormat="1">
       <c r="A23" s="35" t="s">
         <v>246</v>
       </c>
@@ -2277,7 +2267,7 @@
       </c>
       <c r="C23" s="34"/>
     </row>
-    <row r="24" spans="1:4" s="43" customFormat="1">
+    <row r="24" spans="1:3" s="43" customFormat="1">
       <c r="A24" s="35" t="s">
         <v>249</v>
       </c>
@@ -2286,7 +2276,7 @@
       </c>
       <c r="C24" s="34"/>
     </row>
-    <row r="25" spans="1:4" s="43" customFormat="1">
+    <row r="25" spans="1:3" s="43" customFormat="1">
       <c r="A25" s="35" t="s">
         <v>251</v>
       </c>
@@ -2295,7 +2285,7 @@
       </c>
       <c r="C25" s="34"/>
     </row>
-    <row r="26" spans="1:4" s="43" customFormat="1">
+    <row r="26" spans="1:3" s="43" customFormat="1">
       <c r="A26" s="35" t="s">
         <v>253</v>
       </c>
@@ -2304,7 +2294,7 @@
       </c>
       <c r="C26" s="34"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="37" t="s">
         <v>53</v>
       </c>
@@ -2313,7 +2303,7 @@
       </c>
       <c r="C27" s="38"/>
     </row>
-    <row r="28" spans="1:4" ht="25.5">
+    <row r="28" spans="1:3" ht="25.5">
       <c r="A28" s="37" t="s">
         <v>35</v>
       </c>
@@ -2322,7 +2312,7 @@
       </c>
       <c r="C28" s="38"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>13</v>
       </c>
@@ -2332,9 +2322,8 @@
       <c r="C29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="47"/>
-    </row>
-    <row r="30" spans="1:4" ht="38.25">
+    </row>
+    <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="37" t="s">
         <v>36</v>
       </c>
@@ -2342,9 +2331,8 @@
         <v>178</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="47"/>
-    </row>
-    <row r="31" spans="1:4" ht="38.25">
+    </row>
+    <row r="31" spans="1:3" ht="38.25">
       <c r="A31" s="18" t="s">
         <v>43</v>
       </c>
@@ -2354,9 +2342,8 @@
       <c r="C31" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D31" s="47"/>
-    </row>
-    <row r="32" spans="1:4" ht="25.5">
+    </row>
+    <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="18" t="s">
         <v>136</v>
       </c>
@@ -2366,9 +2353,8 @@
       <c r="C32" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="47"/>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>137</v>
       </c>
@@ -2378,9 +2364,8 @@
       <c r="C33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="47"/>
-    </row>
-    <row r="34" spans="1:4" ht="38.25">
+    </row>
+    <row r="34" spans="1:3" ht="38.25">
       <c r="A34" s="18" t="s">
         <v>140</v>
       </c>
@@ -2390,9 +2375,8 @@
       <c r="C34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="47"/>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>141</v>
       </c>
@@ -2402,9 +2386,8 @@
       <c r="C35" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="47"/>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>142</v>
       </c>
@@ -2414,9 +2397,8 @@
       <c r="C36" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="47"/>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>37</v>
       </c>
@@ -2424,9 +2406,8 @@
         <v>285</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="47"/>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>38</v>
       </c>
@@ -2434,9 +2415,8 @@
         <v>273</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="47"/>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="18" t="s">
         <v>39</v>
       </c>
@@ -2444,9 +2424,8 @@
         <v>244</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="47"/>
-    </row>
-    <row r="40" spans="1:4" s="19" customFormat="1" ht="25.5">
+    </row>
+    <row r="40" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A40" s="32" t="s">
         <v>243</v>
       </c>
@@ -2456,9 +2435,8 @@
       <c r="C40" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D40" s="47"/>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>34</v>
       </c>
@@ -2466,9 +2444,8 @@
         <v>274</v>
       </c>
       <c r="C41" s="7"/>
-      <c r="D41" s="47"/>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>40</v>
       </c>
@@ -2476,9 +2453,8 @@
         <v>275</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="47"/>
-    </row>
-    <row r="43" spans="1:4" ht="25.5">
+    </row>
+    <row r="43" spans="1:3" ht="25.5">
       <c r="A43" s="18" t="s">
         <v>41</v>
       </c>
@@ -2488,9 +2464,8 @@
       <c r="C43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="37" t="s">
         <v>158</v>
       </c>
@@ -2498,9 +2473,8 @@
         <v>180</v>
       </c>
       <c r="C44" s="37"/>
-      <c r="D44" s="47"/>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="37" t="s">
         <v>159</v>
       </c>
@@ -2508,9 +2482,8 @@
         <v>181</v>
       </c>
       <c r="C45" s="37"/>
-      <c r="D45" s="47"/>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="18" t="s">
         <v>42</v>
       </c>
@@ -2521,7 +2494,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="19" customFormat="1">
+    <row r="47" spans="1:3" s="19" customFormat="1">
       <c r="A47" s="18" t="s">
         <v>57</v>
       </c>
@@ -2530,7 +2503,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:4" s="19" customFormat="1" ht="25.5">
+    <row r="48" spans="1:3" s="19" customFormat="1" ht="25.5">
       <c r="A48" s="18" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +2512,7 @@
       </c>
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:4" s="19" customFormat="1" ht="38.25">
+    <row r="49" spans="1:3" s="19" customFormat="1" ht="38.25">
       <c r="A49" s="18" t="s">
         <v>14</v>
       </c>
@@ -2550,7 +2523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="19" customFormat="1">
+    <row r="50" spans="1:3" s="19" customFormat="1">
       <c r="A50" s="18" t="s">
         <v>59</v>
       </c>
@@ -2559,7 +2532,7 @@
       </c>
       <c r="C50" s="18"/>
     </row>
-    <row r="51" spans="1:4" s="19" customFormat="1">
+    <row r="51" spans="1:3" s="19" customFormat="1">
       <c r="A51" s="18" t="s">
         <v>44</v>
       </c>
@@ -2568,7 +2541,7 @@
       </c>
       <c r="C51" s="23"/>
     </row>
-    <row r="52" spans="1:4" s="19" customFormat="1">
+    <row r="52" spans="1:3" s="19" customFormat="1">
       <c r="A52" s="18" t="s">
         <v>45</v>
       </c>
@@ -2577,7 +2550,7 @@
       </c>
       <c r="C52" s="23"/>
     </row>
-    <row r="53" spans="1:4" s="19" customFormat="1">
+    <row r="53" spans="1:3" s="19" customFormat="1">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -2586,7 +2559,7 @@
       </c>
       <c r="C53" s="23"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:3">
       <c r="A54" s="18" t="s">
         <v>46</v>
       </c>
@@ -2595,7 +2568,7 @@
       </c>
       <c r="C54" s="18"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:3">
       <c r="A55" s="18" t="s">
         <v>320</v>
       </c>
@@ -2604,7 +2577,7 @@
       </c>
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:3">
       <c r="A56" s="37" t="s">
         <v>160</v>
       </c>
@@ -2612,9 +2585,8 @@
         <v>200</v>
       </c>
       <c r="C56" s="37"/>
-      <c r="D56" s="47"/>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="37" t="s">
         <v>61</v>
       </c>
@@ -2622,9 +2594,8 @@
         <v>182</v>
       </c>
       <c r="C57" s="38"/>
-      <c r="D57" s="47"/>
-    </row>
-    <row r="58" spans="1:4" ht="38.25">
+    </row>
+    <row r="58" spans="1:3" ht="38.25">
       <c r="A58" s="37" t="s">
         <v>62</v>
       </c>
@@ -2632,9 +2603,8 @@
         <v>183</v>
       </c>
       <c r="C58" s="38"/>
-      <c r="D58" s="47"/>
-    </row>
-    <row r="59" spans="1:4" ht="25.5">
+    </row>
+    <row r="59" spans="1:3" ht="25.5">
       <c r="A59" s="37" t="s">
         <v>63</v>
       </c>
@@ -2642,9 +2612,8 @@
         <v>184</v>
       </c>
       <c r="C59" s="38"/>
-      <c r="D59" s="47"/>
-    </row>
-    <row r="60" spans="1:4" ht="25.5">
+    </row>
+    <row r="60" spans="1:3" ht="25.5">
       <c r="A60" s="37" t="s">
         <v>64</v>
       </c>
@@ -2652,9 +2621,8 @@
         <v>185</v>
       </c>
       <c r="C60" s="38"/>
-      <c r="D60" s="47"/>
-    </row>
-    <row r="61" spans="1:4" ht="25.5">
+    </row>
+    <row r="61" spans="1:3" ht="25.5">
       <c r="A61" s="42" t="s">
         <v>161</v>
       </c>
@@ -2662,9 +2630,8 @@
         <v>186</v>
       </c>
       <c r="C61" s="38"/>
-      <c r="D61" s="47"/>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="18" t="s">
         <v>65</v>
       </c>
@@ -2672,9 +2639,8 @@
         <v>276</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="47"/>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="37" t="s">
         <v>150</v>
       </c>
@@ -2684,9 +2650,8 @@
       <c r="C63" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="D63" s="47"/>
-    </row>
-    <row r="64" spans="1:4" s="30" customFormat="1">
+    </row>
+    <row r="64" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A64" s="18" t="s">
         <v>151</v>
       </c>
@@ -2694,9 +2659,8 @@
         <v>310</v>
       </c>
       <c r="C64" s="22"/>
-      <c r="D64" s="47"/>
-    </row>
-    <row r="65" spans="1:4" s="31" customFormat="1" ht="25.5">
+    </row>
+    <row r="65" spans="1:3" s="31" customFormat="1" ht="25.5">
       <c r="A65" s="32" t="s">
         <v>241</v>
       </c>
@@ -2706,9 +2670,8 @@
       <c r="C65" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D65" s="47"/>
-    </row>
-    <row r="66" spans="1:4" s="30" customFormat="1" ht="12.75">
+    </row>
+    <row r="66" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A66" s="37" t="s">
         <v>152</v>
       </c>
@@ -2717,7 +2680,7 @@
       </c>
       <c r="C66" s="41"/>
     </row>
-    <row r="67" spans="1:4" s="30" customFormat="1" ht="25.5">
+    <row r="67" spans="1:3" s="30" customFormat="1" ht="25.5">
       <c r="A67" s="37" t="s">
         <v>153</v>
       </c>
@@ -2726,7 +2689,7 @@
       </c>
       <c r="C67" s="41"/>
     </row>
-    <row r="68" spans="1:4" s="30" customFormat="1" ht="38.25">
+    <row r="68" spans="1:3" s="30" customFormat="1" ht="38.25">
       <c r="A68" s="18" t="s">
         <v>75</v>
       </c>
@@ -2737,7 +2700,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="30" customFormat="1" ht="12.75">
+    <row r="69" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A69" s="18" t="s">
         <v>76</v>
       </c>
@@ -2746,7 +2709,7 @@
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:4" s="30" customFormat="1" ht="12.75">
+    <row r="70" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A70" s="18" t="s">
         <v>164</v>
       </c>
@@ -2755,7 +2718,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:4" s="30" customFormat="1" ht="25.5">
+    <row r="71" spans="1:3" s="30" customFormat="1" ht="25.5">
       <c r="A71" s="18" t="s">
         <v>165</v>
       </c>
@@ -2764,7 +2727,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:4" s="30" customFormat="1" ht="12.75">
+    <row r="72" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A72" s="37" t="s">
         <v>166</v>
       </c>
@@ -2775,7 +2738,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="30" customFormat="1" ht="12.75">
+    <row r="73" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A73" s="37" t="s">
         <v>167</v>
       </c>
@@ -2786,7 +2749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="30" customFormat="1" ht="12.75">
+    <row r="74" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A74" s="37" t="s">
         <v>168</v>
       </c>
@@ -2797,7 +2760,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="31" customFormat="1" ht="12.75">
+    <row r="75" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A75" s="32" t="s">
         <v>280</v>
       </c>
@@ -2806,7 +2769,7 @@
       </c>
       <c r="C75" s="32"/>
     </row>
-    <row r="76" spans="1:4" s="31" customFormat="1" ht="12.75">
+    <row r="76" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A76" s="32" t="s">
         <v>260</v>
       </c>
@@ -2815,7 +2778,7 @@
       </c>
       <c r="C76" s="32"/>
     </row>
-    <row r="77" spans="1:4" s="31" customFormat="1" ht="12.75">
+    <row r="77" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A77" s="32" t="s">
         <v>261</v>
       </c>
@@ -2824,7 +2787,7 @@
       </c>
       <c r="C77" s="32"/>
     </row>
-    <row r="78" spans="1:4" s="31" customFormat="1" ht="12.75">
+    <row r="78" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A78" s="32" t="s">
         <v>262</v>
       </c>
@@ -2833,7 +2796,7 @@
       </c>
       <c r="C78" s="32"/>
     </row>
-    <row r="79" spans="1:4" s="31" customFormat="1" ht="12.75">
+    <row r="79" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A79" s="32" t="s">
         <v>263</v>
       </c>
@@ -2842,7 +2805,7 @@
       </c>
       <c r="C79" s="32"/>
     </row>
-    <row r="80" spans="1:4" s="31" customFormat="1" ht="12.75">
+    <row r="80" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A80" s="32" t="s">
         <v>264</v>
       </c>

--- a/inst/extdata/mascot_keys.xlsx
+++ b/inst/extdata/mascot_keys.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mascot_psm" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="344">
   <si>
     <t>Header</t>
   </si>
@@ -1466,6 +1466,12 @@
   </si>
   <si>
     <t xml:space="preserve">Terminal modifications are not part of the string. proteoM: ordianl number in square brackets indicating neutral losses for fixed modifications and in round parentheses for variable modifications; the numbers are removed during proteoQ. </t>
+  </si>
+  <si>
+    <t>pep_semitryptic</t>
+  </si>
+  <si>
+    <t>Charateristics of semi-tryptic peptides</t>
   </si>
 </sst>
 </file>
@@ -2026,11 +2032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2323,7 +2329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.5">
+    <row r="30" spans="1:3" ht="38.25">
       <c r="A30" s="37" t="s">
         <v>36</v>
       </c>
@@ -2578,586 +2584,595 @@
       <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="37"/>
+      <c r="A56" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="37"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B58" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="38"/>
-    </row>
-    <row r="58" spans="1:3" ht="38.25">
-      <c r="A58" s="37" t="s">
+      <c r="C58" s="38"/>
+    </row>
+    <row r="59" spans="1:3" ht="38.25">
+      <c r="A59" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B59" s="40" t="s">
         <v>183</v>
-      </c>
-      <c r="C58" s="38"/>
-    </row>
-    <row r="59" spans="1:3" ht="25.5">
-      <c r="A59" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>184</v>
       </c>
       <c r="C59" s="38"/>
     </row>
     <row r="60" spans="1:3" ht="25.5">
       <c r="A60" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="38"/>
+    </row>
+    <row r="61" spans="1:3" ht="25.5">
+      <c r="A61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B61" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="38"/>
-    </row>
-    <row r="61" spans="1:3" ht="25.5">
-      <c r="A61" s="42" t="s">
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" spans="1:3" ht="25.5">
+      <c r="A62" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B62" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="38"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="18" t="s">
+      <c r="C62" s="38"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="37" t="s">
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B64" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C64" s="41" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A65" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="22"/>
-    </row>
-    <row r="65" spans="1:3" s="31" customFormat="1" ht="25.5">
-      <c r="A65" s="32" t="s">
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A66" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B66" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C66" s="34" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A66" s="37" t="s">
+    <row r="67" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A67" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B67" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C66" s="41"/>
-    </row>
-    <row r="67" spans="1:3" s="30" customFormat="1" ht="25.5">
-      <c r="A67" s="37" t="s">
+      <c r="C67" s="41"/>
+    </row>
+    <row r="68" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A68" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B68" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="41"/>
-    </row>
-    <row r="68" spans="1:3" s="30" customFormat="1" ht="38.25">
-      <c r="A68" s="18" t="s">
+      <c r="C68" s="41"/>
+    </row>
+    <row r="69" spans="1:3" s="30" customFormat="1" ht="38.25">
+      <c r="A69" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A69" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A70" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A71" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" ht="25.5">
-      <c r="A71" s="18" t="s">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A72" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A72" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>234</v>
-      </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A73" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="30" customFormat="1" ht="12.75">
       <c r="A74" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="31" customFormat="1" ht="12.75">
-      <c r="A75" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C75" s="32"/>
+    <row r="75" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A75" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="76" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A76" s="32" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" s="32"/>
     </row>
     <row r="77" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A77" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C77" s="32"/>
     </row>
     <row r="78" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A78" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C78" s="32"/>
     </row>
     <row r="79" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A79" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C79" s="32"/>
     </row>
     <row r="80" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A80" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="32"/>
+    </row>
+    <row r="81" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A81" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B80" s="33" t="s">
+      <c r="B81" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C80" s="32"/>
-    </row>
-    <row r="81" spans="1:3" s="31" customFormat="1" ht="63.75">
-      <c r="A81" s="32" t="s">
+      <c r="C81" s="32"/>
+    </row>
+    <row r="82" spans="1:3" s="31" customFormat="1" ht="63.75">
+      <c r="A82" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B82" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C82" s="32" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" s="31" customFormat="1" ht="12.75">
-      <c r="A82" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="32"/>
     </row>
     <row r="83" spans="1:3" s="31" customFormat="1" ht="12.75">
       <c r="A83" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="32"/>
+    </row>
+    <row r="84" spans="1:3" s="31" customFormat="1" ht="12.75">
+      <c r="A84" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B84" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C83" s="32"/>
-    </row>
-    <row r="84" spans="1:3" s="31" customFormat="1" ht="25.5">
-      <c r="A84" s="32" t="s">
+      <c r="C84" s="32"/>
+    </row>
+    <row r="85" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A85" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B84" s="33" t="s">
+      <c r="B85" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="C84" s="32"/>
-    </row>
-    <row r="85" spans="1:3" s="31" customFormat="1">
-      <c r="A85" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>331</v>
       </c>
       <c r="C85" s="32"/>
     </row>
     <row r="86" spans="1:3" s="31" customFormat="1">
       <c r="A86" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C86" s="32"/>
     </row>
     <row r="87" spans="1:3" s="31" customFormat="1">
       <c r="A87" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C87" s="32"/>
     </row>
     <row r="88" spans="1:3" s="31" customFormat="1">
       <c r="A88" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C88" s="32"/>
     </row>
     <row r="89" spans="1:3" s="31" customFormat="1">
       <c r="A89" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="32"/>
+    </row>
+    <row r="90" spans="1:3" s="31" customFormat="1">
+      <c r="A90" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B90" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="C89" s="32"/>
-    </row>
-    <row r="90" spans="1:3" s="31" customFormat="1" ht="25.5">
-      <c r="A90" s="44" t="s">
+      <c r="C90" s="32"/>
+    </row>
+    <row r="91" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A91" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B91" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C90" s="32"/>
-    </row>
-    <row r="91" spans="1:3" s="31" customFormat="1">
-      <c r="A91" s="44" t="s">
+      <c r="C91" s="32"/>
+    </row>
+    <row r="92" spans="1:3" s="31" customFormat="1">
+      <c r="A92" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B92" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="32"/>
-    </row>
-    <row r="92" spans="1:3" s="31" customFormat="1" ht="25.5">
-      <c r="A92" s="44" t="s">
+      <c r="C92" s="32"/>
+    </row>
+    <row r="93" spans="1:3" s="31" customFormat="1" ht="25.5">
+      <c r="A93" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B93" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="C92" s="32"/>
-    </row>
-    <row r="93" spans="1:3" s="31" customFormat="1" ht="30">
-      <c r="A93" s="44" t="s">
+      <c r="C93" s="32"/>
+    </row>
+    <row r="94" spans="1:3" s="31" customFormat="1" ht="30">
+      <c r="A94" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B94" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="32"/>
-    </row>
-    <row r="94" spans="1:3" s="31" customFormat="1">
-      <c r="A94" s="44" t="s">
+      <c r="C94" s="32"/>
+    </row>
+    <row r="95" spans="1:3" s="31" customFormat="1">
+      <c r="A95" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B95" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="C94" s="32"/>
-    </row>
-    <row r="95" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A95" s="18" t="s">
+      <c r="C95" s="32"/>
+    </row>
+    <row r="96" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A96" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B96" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" s="30" customFormat="1" ht="25.5">
-      <c r="A96" s="25" t="s">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" s="30" customFormat="1" ht="25.5">
+      <c r="A97" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B97" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C97" s="25" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A97" s="25" t="s">
+    <row r="98" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A98" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B98" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="25"/>
-    </row>
-    <row r="98" spans="1:3" s="30" customFormat="1" ht="12.75">
-      <c r="A98" s="18" t="s">
+      <c r="C98" s="25"/>
+    </row>
+    <row r="99" spans="1:3" s="30" customFormat="1" ht="12.75">
+      <c r="A99" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B99" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="C98" s="18"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>131</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="25.5">
-      <c r="A103" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="25.5">
       <c r="A104" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="25.5">
+      <c r="A105" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="18" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C106" s="9"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>287</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="B109" s="4"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C111" s="9"/>
+    <row r="110" spans="1:3">
+      <c r="B110" s="4"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>291</v>
+        <v>105</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="38.25">
-      <c r="A115" s="25" t="s">
+    <row r="116" spans="1:3" ht="38.25">
+      <c r="A116" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="18" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="25.5">
-      <c r="A117" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="25.5">
       <c r="A118" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="25.5">
+      <c r="A119" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="25" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B101" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B109" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B102" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3166,11 +3181,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3519,162 +3534,160 @@
       <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B37" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="37"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="37"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="44" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C38" s="33"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="33"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B40" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C40" s="33" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="25.5">
-      <c r="A42" s="45" t="s">
+    <row r="43" spans="1:3" ht="25.5">
+      <c r="A43" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B43" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C43" s="33" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="18" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="45" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B45" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="C44" s="33"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="18" t="s">
+      <c r="C45" s="33"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="16" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="18" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="25.5">
-      <c r="A48" s="18" t="s">
+    <row r="49" spans="1:3" ht="25.5">
+      <c r="A49" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="47" customFormat="1" ht="39">
-      <c r="A49" s="16" t="s">
+    <row r="50" spans="1:3" s="47" customFormat="1" ht="39">
+      <c r="A50" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B50" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>86</v>
@@ -3682,10 +3695,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>86</v>
@@ -3693,21 +3706,21 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="14" customFormat="1">
+    <row r="54" spans="1:3">
       <c r="A54" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>86</v>
@@ -3715,10 +3728,10 @@
     </row>
     <row r="55" spans="1:3" s="14" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>86</v>
@@ -3726,10 +3739,10 @@
     </row>
     <row r="56" spans="1:3" s="14" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>86</v>
@@ -3737,10 +3750,10 @@
     </row>
     <row r="57" spans="1:3" s="14" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>86</v>
@@ -3748,259 +3761,270 @@
     </row>
     <row r="58" spans="1:3" s="14" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="14" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="14" customFormat="1">
       <c r="A60" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="14" customFormat="1">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="14" customFormat="1">
+      <c r="A62" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B62" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="18"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>134</v>
-      </c>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B64" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="25"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>129</v>
-      </c>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="18" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B67" s="25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" s="14" customFormat="1">
-      <c r="A67" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="18"/>
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1">
       <c r="A68" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>278</v>
+        <v>3</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="C68" s="18"/>
     </row>
     <row r="69" spans="1:3" s="14" customFormat="1">
       <c r="A69" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1">
       <c r="A70" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>134</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="18"/>
     </row>
     <row r="71" spans="1:3" s="14" customFormat="1">
       <c r="A71" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="14" customFormat="1">
+      <c r="A72" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="18"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="18"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" s="25"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>288</v>
+        <v>9</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>122</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B77" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C77" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="28" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="25"/>
-    </row>
-    <row r="78" spans="1:3" ht="25.5">
-      <c r="A78" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>113</v>
-      </c>
+      <c r="C78" s="25"/>
     </row>
     <row r="79" spans="1:3" ht="25.5">
       <c r="A79" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="25.5">
+      <c r="A80" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B80" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B82" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C82" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="25.5">
-      <c r="A82" s="25" t="s">
+    <row r="83" spans="1:3" ht="25.5">
+      <c r="A83" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B83" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="25" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B84" s="25" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B74" r:id="rId2" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B68" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B75" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
